--- a/notebooks/stock_analysis.xlsx
+++ b/notebooks/stock_analysis.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,22 +530,22 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45534</v>
+        <v>45539</v>
       </c>
       <c r="B4" t="n">
-        <v>227.9391632080078</v>
+        <v>219.8269195556641</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3326716676627</v>
+        <v>220.7526040450296</v>
       </c>
       <c r="D4" t="n">
-        <v>226.4262003174517</v>
+        <v>216.4725207358863</v>
       </c>
       <c r="E4" t="n">
-        <v>229.123652992766</v>
+        <v>220.6331648046219</v>
       </c>
       <c r="F4" t="n">
-        <v>52990800</v>
+        <v>43840200</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -553,7091 +553,7120 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45538</v>
+        <v>45540</v>
       </c>
       <c r="B5" t="n">
-        <v>221.738037109375</v>
+        <v>221.3498382568359</v>
       </c>
       <c r="C5" t="n">
-        <v>227.9391727978887</v>
+        <v>224.435468515903</v>
       </c>
       <c r="D5" t="n">
-        <v>220.1454429272487</v>
+        <v>220.4938215654863</v>
       </c>
       <c r="E5" t="n">
-        <v>227.4912604304481</v>
+        <v>220.603312602337</v>
       </c>
       <c r="F5" t="n">
-        <v>50190600</v>
+        <v>36615400</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02720518059011179</v>
+        <v>0.006927808042118455</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="B6" t="n">
-        <v>219.8269348144531</v>
+        <v>219.7970733642578</v>
       </c>
       <c r="C6" t="n">
-        <v>220.752619368073</v>
+        <v>224.1965961864048</v>
       </c>
       <c r="D6" t="n">
-        <v>216.4725357618373</v>
+        <v>218.7519343816246</v>
       </c>
       <c r="E6" t="n">
-        <v>220.6331801193747</v>
+        <v>222.9125635200513</v>
       </c>
       <c r="F6" t="n">
-        <v>43840200</v>
+        <v>48423000</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.008618739120429764</v>
+        <v>-0.007014980922535941</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45540</v>
+        <v>45544</v>
       </c>
       <c r="B7" t="n">
-        <v>221.349853515625</v>
+        <v>219.8866424560547</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4354839874005</v>
+        <v>220.2449753707262</v>
       </c>
       <c r="D7" t="n">
-        <v>220.4938367652657</v>
+        <v>215.7061019102892</v>
       </c>
       <c r="E7" t="n">
-        <v>220.6033278096641</v>
+        <v>219.7970630244126</v>
       </c>
       <c r="F7" t="n">
-        <v>36615400</v>
+        <v>67180000</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006927807561240451</v>
+        <v>0.0004075081184016227</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45541</v>
+        <v>45545</v>
       </c>
       <c r="B8" t="n">
-        <v>219.7970581054688</v>
+        <v>219.0903472900391</v>
       </c>
       <c r="C8" t="n">
-        <v>224.1965806221913</v>
+        <v>220.4539959437938</v>
       </c>
       <c r="D8" t="n">
-        <v>218.7519191953913</v>
+        <v>215.7260001837559</v>
       </c>
       <c r="E8" t="n">
-        <v>222.9125480449781</v>
+        <v>217.905857501112</v>
       </c>
       <c r="F8" t="n">
-        <v>48423000</v>
+        <v>51591000</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00701511830929058</v>
+        <v>-0.00362138944467616</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="B9" t="n">
-        <v>219.8866577148438</v>
+        <v>221.6285247802734</v>
       </c>
       <c r="C9" t="n">
-        <v>220.2449906543814</v>
+        <v>222.056525502596</v>
       </c>
       <c r="D9" t="n">
-        <v>215.7061168789743</v>
+        <v>216.8806176900293</v>
       </c>
       <c r="E9" t="n">
-        <v>219.7970782769854</v>
+        <v>220.4340868524661</v>
       </c>
       <c r="F9" t="n">
-        <v>67180000</v>
+        <v>44587100</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004076469910347935</v>
+        <v>0.0115850721934101</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45545</v>
+        <v>45547</v>
       </c>
       <c r="B10" t="n">
-        <v>219.0903472900391</v>
+        <v>221.738037109375</v>
       </c>
       <c r="C10" t="n">
-        <v>220.4539959437938</v>
+        <v>222.5144225964331</v>
       </c>
       <c r="D10" t="n">
-        <v>215.7260001837559</v>
+        <v>218.8017058249269</v>
       </c>
       <c r="E10" t="n">
-        <v>217.905857501112</v>
+        <v>221.4692836136691</v>
       </c>
       <c r="F10" t="n">
-        <v>51591000</v>
+        <v>37455600</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.003621458587257154</v>
+        <v>0.0004941256059440846</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45546</v>
+        <v>45548</v>
       </c>
       <c r="B11" t="n">
-        <v>221.6285400390625</v>
+        <v>221.4692840576172</v>
       </c>
       <c r="C11" t="n">
-        <v>222.0565407908522</v>
+        <v>223.0021434308009</v>
       </c>
       <c r="D11" t="n">
-        <v>216.8806326219321</v>
+        <v>220.8820208371711</v>
       </c>
       <c r="E11" t="n">
-        <v>220.4341020290199</v>
+        <v>222.5442828544918</v>
       </c>
       <c r="F11" t="n">
-        <v>44587100</v>
+        <v>36766600</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01158514183951387</v>
+        <v>-0.001212029542884685</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45547</v>
+        <v>45551</v>
       </c>
       <c r="B12" t="n">
-        <v>221.738037109375</v>
+        <v>215.3179168701172</v>
       </c>
       <c r="C12" t="n">
-        <v>222.5144225964331</v>
+        <v>216.2137415947178</v>
       </c>
       <c r="D12" t="n">
-        <v>218.8017058249269</v>
+        <v>212.9290256243428</v>
       </c>
       <c r="E12" t="n">
-        <v>221.4692836136691</v>
+        <v>215.5368837592455</v>
       </c>
       <c r="F12" t="n">
-        <v>37455600</v>
+        <v>59357400</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004940567234399396</v>
+        <v>-0.02777526108721995</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45548</v>
+        <v>45552</v>
       </c>
       <c r="B13" t="n">
-        <v>221.4692687988281</v>
+        <v>215.7857208251953</v>
       </c>
       <c r="C13" t="n">
-        <v>223.0021280664009</v>
+        <v>215.8952118613641</v>
       </c>
       <c r="D13" t="n">
-        <v>220.8820056188433</v>
+        <v>213.5063358570856</v>
       </c>
       <c r="E13" t="n">
-        <v>222.5442675216374</v>
+        <v>214.7505452735021</v>
       </c>
       <c r="F13" t="n">
-        <v>36766600</v>
+        <v>45519300</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001212098357370683</v>
+        <v>0.002172619733082026</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45551</v>
+        <v>45553</v>
       </c>
       <c r="B14" t="n">
-        <v>215.3179016113281</v>
+        <v>219.6676635742188</v>
       </c>
       <c r="C14" t="n">
-        <v>216.213726272445</v>
+        <v>221.6783102461687</v>
       </c>
       <c r="D14" t="n">
-        <v>212.9290105348456</v>
+        <v>216.5322467283196</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5368684849391</v>
+        <v>216.5422101240486</v>
       </c>
       <c r="F14" t="n">
-        <v>59357400</v>
+        <v>59894900</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02777526300087985</v>
+        <v>0.01798980365419145</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45552</v>
+        <v>45554</v>
       </c>
       <c r="B15" t="n">
-        <v>215.7857208251953</v>
+        <v>227.8097534179688</v>
       </c>
       <c r="C15" t="n">
-        <v>215.8952118613641</v>
+        <v>228.7553646874453</v>
       </c>
       <c r="D15" t="n">
-        <v>213.5063358570856</v>
+        <v>223.5894049651583</v>
       </c>
       <c r="E15" t="n">
-        <v>214.7505452735021</v>
+        <v>223.9477378704066</v>
       </c>
       <c r="F15" t="n">
-        <v>45519300</v>
+        <v>66781300</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002172690753375672</v>
+        <v>0.03706549116638214</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45553</v>
+        <v>45555</v>
       </c>
       <c r="B16" t="n">
-        <v>219.6676483154297</v>
+        <v>227.1428680419922</v>
       </c>
       <c r="C16" t="n">
-        <v>221.6782948477139</v>
+        <v>232.0102146718883</v>
       </c>
       <c r="D16" t="n">
-        <v>216.5322316873262</v>
+        <v>226.5655530501552</v>
       </c>
       <c r="E16" t="n">
-        <v>216.5421950823632</v>
+        <v>228.9046728284513</v>
       </c>
       <c r="F16" t="n">
-        <v>59894900</v>
+        <v>318679900</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01798973294150019</v>
+        <v>-0.002927378507596279</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45554</v>
+        <v>45558</v>
       </c>
       <c r="B17" t="n">
-        <v>227.8097686767578</v>
+        <v>225.4208831787109</v>
       </c>
       <c r="C17" t="n">
-        <v>228.7553800095718</v>
+        <v>228.3870741318164</v>
       </c>
       <c r="D17" t="n">
-        <v>223.5894199412667</v>
+        <v>224.7639369712135</v>
       </c>
       <c r="E17" t="n">
-        <v>223.9477528705163</v>
+        <v>226.2868480598011</v>
       </c>
       <c r="F17" t="n">
-        <v>66781300</v>
+        <v>54146000</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03706563266720342</v>
+        <v>-0.007581065072062465</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45555</v>
+        <v>45559</v>
       </c>
       <c r="B18" t="n">
-        <v>227.1428833007812</v>
+        <v>226.3167114257812</v>
       </c>
       <c r="C18" t="n">
-        <v>232.0102302576514</v>
+        <v>228.2875500792357</v>
       </c>
       <c r="D18" t="n">
-        <v>226.5655682701619</v>
+        <v>224.6843092769655</v>
       </c>
       <c r="E18" t="n">
-        <v>228.9046882055932</v>
+        <v>227.5907806547056</v>
       </c>
       <c r="F18" t="n">
-        <v>318679900</v>
+        <v>43556100</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.002927378311519235</v>
+        <v>0.003974025096690426</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45558</v>
+        <v>45560</v>
       </c>
       <c r="B19" t="n">
-        <v>225.4208831787109</v>
+        <v>225.3213500976562</v>
       </c>
       <c r="C19" t="n">
-        <v>228.3870741318164</v>
+        <v>226.2370864319121</v>
       </c>
       <c r="D19" t="n">
-        <v>224.7639369712135</v>
+        <v>222.9822454403592</v>
       </c>
       <c r="E19" t="n">
-        <v>226.2868480598011</v>
+        <v>223.888018378611</v>
       </c>
       <c r="F19" t="n">
-        <v>54146000</v>
+        <v>42308700</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.007581131739839986</v>
+        <v>-0.004398090277356381</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45559</v>
+        <v>45561</v>
       </c>
       <c r="B20" t="n">
-        <v>226.3167114257812</v>
+        <v>226.4660034179688</v>
       </c>
       <c r="C20" t="n">
-        <v>228.2875500792357</v>
+        <v>227.4414592531255</v>
       </c>
       <c r="D20" t="n">
-        <v>224.6843092769655</v>
+        <v>224.3657775193108</v>
       </c>
       <c r="E20" t="n">
-        <v>227.5907806547056</v>
+        <v>226.2470213668782</v>
       </c>
       <c r="F20" t="n">
-        <v>43556100</v>
+        <v>36636700</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003974025096690426</v>
+        <v>0.005080092586949192</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45560</v>
+        <v>45562</v>
       </c>
       <c r="B21" t="n">
-        <v>225.3213348388672</v>
+        <v>226.7347564697266</v>
       </c>
       <c r="C21" t="n">
-        <v>226.2370711111093</v>
+        <v>228.4567531826477</v>
       </c>
       <c r="D21" t="n">
-        <v>222.9822303399746</v>
+        <v>226.2470361144078</v>
       </c>
       <c r="E21" t="n">
-        <v>223.8880032168873</v>
+        <v>227.4016660612202</v>
       </c>
       <c r="F21" t="n">
-        <v>42308700</v>
+        <v>34026000</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.004398157699638028</v>
+        <v>0.00118672581182877</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45561</v>
+        <v>45565</v>
       </c>
       <c r="B22" t="n">
-        <v>226.4660339355469</v>
+        <v>231.920654296875</v>
       </c>
       <c r="C22" t="n">
-        <v>227.4414899021518</v>
+        <v>231.920654296875</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3658077538716</v>
+        <v>228.5861667113562</v>
       </c>
       <c r="E22" t="n">
-        <v>226.2470518549472</v>
+        <v>228.9743594736852</v>
       </c>
       <c r="F22" t="n">
-        <v>36636700</v>
+        <v>54541900</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005080296091350078</v>
+        <v>0.02287209031333859</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45562</v>
+        <v>45566</v>
       </c>
       <c r="B23" t="n">
-        <v>226.7347564697266</v>
+        <v>225.162109375</v>
       </c>
       <c r="C23" t="n">
-        <v>228.4567531826477</v>
+        <v>228.5861611290004</v>
       </c>
       <c r="D23" t="n">
-        <v>226.2470361144078</v>
+        <v>222.7035502109228</v>
       </c>
       <c r="E23" t="n">
-        <v>227.4016660612202</v>
+        <v>228.4567736701202</v>
       </c>
       <c r="F23" t="n">
-        <v>34026000</v>
+        <v>63285000</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001186590896258499</v>
+        <v>-0.02914162579596546</v>
       </c>
       <c r="H23" t="n">
-        <v>222.5223770141602</v>
+        <v>222.8926528930664</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45567</v>
       </c>
       <c r="B24" t="n">
-        <v>231.9206237792969</v>
+        <v>225.7294616699219</v>
       </c>
       <c r="C24" t="n">
-        <v>231.9206237792969</v>
+        <v>226.3167249050226</v>
       </c>
       <c r="D24" t="n">
-        <v>228.586136632551</v>
+        <v>221.9868849855647</v>
       </c>
       <c r="E24" t="n">
-        <v>228.9743293437991</v>
+        <v>224.8435851191092</v>
       </c>
       <c r="F24" t="n">
-        <v>54541900</v>
+        <v>32880600</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02287195571739664</v>
+        <v>0.002519750310106428</v>
       </c>
       <c r="H24" t="n">
-        <v>222.7214500427246</v>
+        <v>223.1877799987793</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45566</v>
+        <v>45568</v>
       </c>
       <c r="B25" t="n">
-        <v>225.1620941162109</v>
+        <v>224.6245880126953</v>
       </c>
       <c r="C25" t="n">
-        <v>228.5861456381701</v>
+        <v>225.759306386038</v>
       </c>
       <c r="D25" t="n">
-        <v>222.7035351187454</v>
+        <v>222.2854834369283</v>
       </c>
       <c r="E25" t="n">
-        <v>228.4567581880582</v>
+        <v>224.0970444383932</v>
       </c>
       <c r="F25" t="n">
-        <v>63285000</v>
+        <v>34044200</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02914156383745148</v>
+        <v>-0.004894680778719906</v>
       </c>
       <c r="H25" t="n">
-        <v>222.8926528930664</v>
+        <v>223.3515174865723</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45567</v>
+        <v>45569</v>
       </c>
       <c r="B26" t="n">
-        <v>225.7294464111328</v>
+        <v>225.7493591308594</v>
       </c>
       <c r="C26" t="n">
-        <v>226.3167096065359</v>
+        <v>226.9437971307691</v>
       </c>
       <c r="D26" t="n">
-        <v>221.9868699797652</v>
+        <v>223.0917296449267</v>
       </c>
       <c r="E26" t="n">
-        <v>224.8435699202034</v>
+        <v>226.8442543024003</v>
       </c>
       <c r="F26" t="n">
-        <v>32880600</v>
+        <v>37245100</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002519750480864946</v>
+        <v>0.005007337478568852</v>
       </c>
       <c r="H26" t="n">
-        <v>223.1877784729004</v>
+        <v>223.6491317749023</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45568</v>
+        <v>45572</v>
       </c>
       <c r="B27" t="n">
-        <v>224.6245880126953</v>
+        <v>220.6630249023438</v>
       </c>
       <c r="C27" t="n">
-        <v>225.759306386038</v>
+        <v>224.6444949275546</v>
       </c>
       <c r="D27" t="n">
-        <v>222.2854834369283</v>
+        <v>220.3046919925507</v>
       </c>
       <c r="E27" t="n">
-        <v>224.0970444383932</v>
+        <v>223.4600051649579</v>
       </c>
       <c r="F27" t="n">
-        <v>34044200</v>
+        <v>39505400</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.004894613511899348</v>
+        <v>-0.02253089110905182</v>
       </c>
       <c r="H27" t="n">
-        <v>223.3515151977539</v>
+        <v>223.6879508972168</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45569</v>
+        <v>45573</v>
       </c>
       <c r="B28" t="n">
-        <v>225.7493591308594</v>
+        <v>224.72412109375</v>
       </c>
       <c r="C28" t="n">
-        <v>226.9437971307691</v>
+        <v>224.9331397600325</v>
       </c>
       <c r="D28" t="n">
-        <v>223.0917296449267</v>
+        <v>222.2157907816424</v>
       </c>
       <c r="E28" t="n">
-        <v>226.8442543024003</v>
+        <v>223.2609296773624</v>
       </c>
       <c r="F28" t="n">
-        <v>37245100</v>
+        <v>31855700</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005007337478568852</v>
+        <v>0.01840406290634111</v>
       </c>
       <c r="H28" t="n">
-        <v>223.6491302490234</v>
+        <v>223.9696395874024</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45574</v>
       </c>
       <c r="B29" t="n">
-        <v>220.6630554199219</v>
+        <v>228.4766693115234</v>
       </c>
       <c r="C29" t="n">
-        <v>224.6445259957679</v>
+        <v>228.6857031876272</v>
       </c>
       <c r="D29" t="n">
-        <v>220.3047224605715</v>
+        <v>223.7884964805669</v>
       </c>
       <c r="E29" t="n">
-        <v>223.4600360693569</v>
+        <v>224.1866374402548</v>
       </c>
       <c r="F29" t="n">
-        <v>39505400</v>
+        <v>33591100</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02253075592559772</v>
+        <v>0.01669846654426532</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6879501342773</v>
+        <v>224.3120468139649</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45573</v>
+        <v>45575</v>
       </c>
       <c r="B30" t="n">
-        <v>224.7241363525391</v>
+        <v>227.9789733886719</v>
       </c>
       <c r="C30" t="n">
-        <v>224.933155033014</v>
+        <v>228.4368491372462</v>
       </c>
       <c r="D30" t="n">
-        <v>222.2158058701156</v>
+        <v>226.1176409595985</v>
       </c>
       <c r="E30" t="n">
-        <v>223.2609448368007</v>
+        <v>226.7248157630865</v>
       </c>
       <c r="F30" t="n">
-        <v>31855700</v>
+        <v>28183500</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01840399121134695</v>
+        <v>-0.00217832273356966</v>
       </c>
       <c r="H30" t="n">
-        <v>223.9696395874024</v>
+        <v>224.6240936279297</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="B31" t="n">
-        <v>228.4766845703125</v>
+        <v>226.4958801269531</v>
       </c>
       <c r="C31" t="n">
-        <v>228.6857184603766</v>
+        <v>228.3472643046208</v>
       </c>
       <c r="D31" t="n">
-        <v>223.7885114262569</v>
+        <v>226.2868462669136</v>
       </c>
       <c r="E31" t="n">
-        <v>224.1866524125346</v>
+        <v>228.2377732709054</v>
       </c>
       <c r="F31" t="n">
-        <v>33591100</v>
+        <v>31759200</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01669846541043807</v>
+        <v>-0.006505394947938004</v>
       </c>
       <c r="H31" t="n">
-        <v>224.3120468139649</v>
+        <v>224.8754234313965</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45575</v>
+        <v>45579</v>
       </c>
       <c r="B32" t="n">
-        <v>227.9789733886719</v>
+        <v>230.228515625</v>
       </c>
       <c r="C32" t="n">
-        <v>228.4368491372462</v>
+        <v>230.6565163779986</v>
       </c>
       <c r="D32" t="n">
-        <v>226.1176409595985</v>
+        <v>227.5410262977875</v>
       </c>
       <c r="E32" t="n">
-        <v>226.7248157630865</v>
+        <v>227.6405539391785</v>
       </c>
       <c r="F32" t="n">
-        <v>28183500</v>
+        <v>39882100</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.002178389372975431</v>
+        <v>0.01647992668102694</v>
       </c>
       <c r="H32" t="n">
-        <v>224.6240936279297</v>
+        <v>225.6209533691406</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45576</v>
+        <v>45580</v>
       </c>
       <c r="B33" t="n">
-        <v>226.4958953857422</v>
+        <v>232.7667083740234</v>
       </c>
       <c r="C33" t="n">
-        <v>228.3472796881356</v>
+        <v>236.3898456598821</v>
       </c>
       <c r="D33" t="n">
-        <v>226.2868615116203</v>
+        <v>231.2935534599607</v>
       </c>
       <c r="E33" t="n">
-        <v>228.2377886470439</v>
+        <v>232.5278146935557</v>
       </c>
       <c r="F33" t="n">
-        <v>31759200</v>
+        <v>64751400</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.00650532801725201</v>
+        <v>0.0110246671318408</v>
       </c>
       <c r="H33" t="n">
-        <v>224.8754249572754</v>
+        <v>226.470002746582</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45579</v>
+        <v>45581</v>
       </c>
       <c r="B34" t="n">
-        <v>230.228515625</v>
+        <v>230.7062683105469</v>
       </c>
       <c r="C34" t="n">
-        <v>230.6565163779986</v>
+        <v>231.0446896012842</v>
       </c>
       <c r="D34" t="n">
-        <v>227.5410262977875</v>
+        <v>228.7752530110069</v>
       </c>
       <c r="E34" t="n">
-        <v>227.6405539391785</v>
+        <v>230.5271094583102</v>
       </c>
       <c r="F34" t="n">
-        <v>39882100</v>
+        <v>34082200</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01647985820184883</v>
+        <v>-0.008851953433846371</v>
       </c>
       <c r="H34" t="n">
-        <v>225.620955657959</v>
+        <v>227.0219329833984</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45580</v>
+        <v>45582</v>
       </c>
       <c r="B35" t="n">
-        <v>232.7666931152344</v>
+        <v>231.0745697021484</v>
       </c>
       <c r="C35" t="n">
-        <v>236.3898301635819</v>
+        <v>232.766706680637</v>
       </c>
       <c r="D35" t="n">
-        <v>231.2935382977429</v>
+        <v>229.4521309302649</v>
       </c>
       <c r="E35" t="n">
-        <v>232.527799450427</v>
+        <v>232.348638945834</v>
       </c>
       <c r="F35" t="n">
-        <v>64751400</v>
+        <v>32993800</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01102460085512869</v>
+        <v>0.001596408256691939</v>
       </c>
       <c r="H35" t="n">
-        <v>226.4700042724609</v>
+        <v>227.1851737976074</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45581</v>
+        <v>45583</v>
       </c>
       <c r="B36" t="n">
-        <v>230.706298828125</v>
+        <v>233.9113616943359</v>
       </c>
       <c r="C36" t="n">
-        <v>231.0447201636284</v>
+        <v>235.0858880500012</v>
       </c>
       <c r="D36" t="n">
-        <v>228.7752832731524</v>
+        <v>232.925942405013</v>
       </c>
       <c r="E36" t="n">
-        <v>230.5271399521893</v>
+        <v>235.0858880500012</v>
       </c>
       <c r="F36" t="n">
-        <v>34082200</v>
+        <v>46431500</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.008851757352111189</v>
+        <v>0.0122765217991927</v>
       </c>
       <c r="H36" t="n">
-        <v>227.0219367980957</v>
+        <v>227.5235984802246</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45582</v>
+        <v>45586</v>
       </c>
       <c r="B37" t="n">
-        <v>231.0745697021484</v>
+        <v>235.384521484375</v>
       </c>
       <c r="C37" t="n">
-        <v>232.766706680637</v>
+        <v>235.7528178175407</v>
       </c>
       <c r="D37" t="n">
-        <v>229.4521309302649</v>
+        <v>233.3639265084296</v>
       </c>
       <c r="E37" t="n">
-        <v>232.348638945834</v>
+        <v>233.3639265084296</v>
       </c>
       <c r="F37" t="n">
-        <v>32993800</v>
+        <v>36254500</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001596275766609256</v>
+        <v>0.006297940293999549</v>
       </c>
       <c r="H37" t="n">
-        <v>227.1851768493652</v>
+        <v>228.0217803955078</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45583</v>
+        <v>45587</v>
       </c>
       <c r="B38" t="n">
-        <v>233.911376953125</v>
+        <v>234.7673950195312</v>
       </c>
       <c r="C38" t="n">
-        <v>235.0859033854084</v>
+        <v>235.125727951266</v>
       </c>
       <c r="D38" t="n">
-        <v>232.92595759952</v>
+        <v>231.5225022180078</v>
       </c>
       <c r="E38" t="n">
-        <v>235.0859033854084</v>
+        <v>232.8065196969969</v>
       </c>
       <c r="F38" t="n">
-        <v>46431500</v>
+        <v>38846600</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01227658783324004</v>
+        <v>-0.002621780144896668</v>
       </c>
       <c r="H38" t="n">
-        <v>227.5236015319824</v>
+        <v>228.4443145751953</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45586</v>
+        <v>45588</v>
       </c>
       <c r="B39" t="n">
-        <v>235.384521484375</v>
+        <v>229.6910095214844</v>
       </c>
       <c r="C39" t="n">
-        <v>235.7528178175407</v>
+        <v>234.0507242345666</v>
       </c>
       <c r="D39" t="n">
-        <v>233.3639265084296</v>
+        <v>226.7049068825192</v>
       </c>
       <c r="E39" t="n">
-        <v>233.3639265084296</v>
+        <v>232.9956370655622</v>
       </c>
       <c r="F39" t="n">
-        <v>36254500</v>
+        <v>52287000</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006297874649958679</v>
+        <v>-0.02162304308749752</v>
       </c>
       <c r="H39" t="n">
-        <v>228.0217834472656</v>
+        <v>228.6627975463867</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45587</v>
+        <v>45589</v>
       </c>
       <c r="B40" t="n">
-        <v>234.7673950195312</v>
+        <v>229.5018920898438</v>
       </c>
       <c r="C40" t="n">
-        <v>235.125727951266</v>
+        <v>229.7507339651956</v>
       </c>
       <c r="D40" t="n">
-        <v>231.5225022180078</v>
+        <v>227.3518946416586</v>
       </c>
       <c r="E40" t="n">
-        <v>232.8065196969969</v>
+        <v>228.9146137210552</v>
       </c>
       <c r="F40" t="n">
-        <v>38846600</v>
+        <v>31109500</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.002621780144896668</v>
+        <v>-0.0008233558293579968</v>
       </c>
       <c r="H40" t="n">
-        <v>228.4443176269531</v>
+        <v>228.8145919799805</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45588</v>
+        <v>45590</v>
       </c>
       <c r="B41" t="n">
-        <v>229.6910095214844</v>
+        <v>230.3380126953125</v>
       </c>
       <c r="C41" t="n">
-        <v>234.0507242345666</v>
+        <v>232.1396255643854</v>
       </c>
       <c r="D41" t="n">
-        <v>226.7049068825192</v>
+        <v>228.5065400142299</v>
       </c>
       <c r="E41" t="n">
-        <v>232.9956370655622</v>
+        <v>228.6757506783198</v>
       </c>
       <c r="F41" t="n">
-        <v>52287000</v>
+        <v>38802300</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02162304308749752</v>
+        <v>0.003643197003105447</v>
       </c>
       <c r="H41" t="n">
-        <v>228.662801361084</v>
+        <v>228.9947547912598</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45589</v>
+        <v>45593</v>
       </c>
       <c r="B42" t="n">
-        <v>229.5018920898438</v>
+        <v>232.3187713623047</v>
       </c>
       <c r="C42" t="n">
-        <v>229.7507339651956</v>
+        <v>233.6426119766163</v>
       </c>
       <c r="D42" t="n">
-        <v>227.3518946416586</v>
+        <v>231.4727180894684</v>
       </c>
       <c r="E42" t="n">
-        <v>228.9146137210552</v>
+        <v>232.2391553268284</v>
       </c>
       <c r="F42" t="n">
-        <v>31109500</v>
+        <v>36087100</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0008233558293579968</v>
+        <v>0.00859935641457632</v>
       </c>
       <c r="H42" t="n">
-        <v>228.8145942687988</v>
+        <v>229.0146606445313</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45590</v>
+        <v>45594</v>
       </c>
       <c r="B43" t="n">
-        <v>230.3379974365234</v>
+        <v>232.5875244140625</v>
       </c>
       <c r="C43" t="n">
-        <v>232.1396101862481</v>
+        <v>233.2444706163013</v>
       </c>
       <c r="D43" t="n">
-        <v>228.5065248767671</v>
+        <v>231.2437873874136</v>
       </c>
       <c r="E43" t="n">
-        <v>228.6757355296476</v>
+        <v>232.0201728307493</v>
       </c>
       <c r="F43" t="n">
-        <v>38802300</v>
+        <v>35417200</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003643130516555182</v>
+        <v>0.001156828826968548</v>
       </c>
       <c r="H43" t="n">
-        <v>228.9947563171387</v>
+        <v>229.3859313964844</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45593</v>
+        <v>45595</v>
       </c>
       <c r="B44" t="n">
-        <v>232.3187866210938</v>
+        <v>229.0340728759766</v>
       </c>
       <c r="C44" t="n">
-        <v>233.6426273223557</v>
+        <v>232.3884565647557</v>
       </c>
       <c r="D44" t="n">
-        <v>231.4727332926884</v>
+        <v>228.4866177012834</v>
       </c>
       <c r="E44" t="n">
-        <v>232.2391705803882</v>
+        <v>231.5324398883544</v>
       </c>
       <c r="F44" t="n">
-        <v>36087100</v>
+        <v>47070900</v>
       </c>
       <c r="G44" t="n">
-        <v>0.008599489474662825</v>
+        <v>-0.01527791117360155</v>
       </c>
       <c r="H44" t="n">
-        <v>229.0146644592285</v>
+        <v>229.5511619567871</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45594</v>
+        <v>45596</v>
       </c>
       <c r="B45" t="n">
-        <v>232.5875396728516</v>
+        <v>224.8634796142578</v>
       </c>
       <c r="C45" t="n">
-        <v>233.244485918189</v>
+        <v>228.7653184618591</v>
       </c>
       <c r="D45" t="n">
-        <v>231.2438025580474</v>
+        <v>224.3259726492534</v>
       </c>
       <c r="E45" t="n">
-        <v>232.0201880523175</v>
+        <v>228.2775829103703</v>
       </c>
       <c r="F45" t="n">
-        <v>35417200</v>
+        <v>64370100</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001156828750987549</v>
+        <v>-0.01820948826237379</v>
       </c>
       <c r="H45" t="n">
-        <v>229.3859367370605</v>
+        <v>229.5631065368652</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45595</v>
+        <v>45597</v>
       </c>
       <c r="B46" t="n">
-        <v>229.0340728759766</v>
+        <v>221.8773956298828</v>
       </c>
       <c r="C46" t="n">
-        <v>232.3884565647557</v>
+        <v>224.3060950069211</v>
       </c>
       <c r="D46" t="n">
-        <v>228.4866177012834</v>
+        <v>219.2496257702242</v>
       </c>
       <c r="E46" t="n">
-        <v>231.5324398883544</v>
+        <v>219.9463800534473</v>
       </c>
       <c r="F46" t="n">
-        <v>47070900</v>
+        <v>65276700</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01527797577580103</v>
+        <v>-0.01327954183354929</v>
       </c>
       <c r="H46" t="n">
-        <v>229.5511680603027</v>
+        <v>229.3695083618164</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45596</v>
+        <v>45600</v>
       </c>
       <c r="B47" t="n">
-        <v>224.8634796142578</v>
+        <v>220.9815368652344</v>
       </c>
       <c r="C47" t="n">
-        <v>228.7653184618591</v>
+        <v>221.7579223130378</v>
       </c>
       <c r="D47" t="n">
-        <v>224.3259726492534</v>
+        <v>218.6922037278208</v>
       </c>
       <c r="E47" t="n">
-        <v>228.2775829103703</v>
+        <v>219.9662729338625</v>
       </c>
       <c r="F47" t="n">
-        <v>64370100</v>
+        <v>44944500</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01820948826237379</v>
+        <v>-0.004037629710341606</v>
       </c>
       <c r="H47" t="n">
-        <v>229.5631126403809</v>
+        <v>229.3854339599609</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45597</v>
+        <v>45601</v>
       </c>
       <c r="B48" t="n">
-        <v>221.8773803710938</v>
+        <v>222.4148712158203</v>
       </c>
       <c r="C48" t="n">
-        <v>224.3060795811073</v>
+        <v>222.9125549800929</v>
       </c>
       <c r="D48" t="n">
-        <v>219.2496106921502</v>
+        <v>220.1155746549773</v>
       </c>
       <c r="E48" t="n">
-        <v>219.9463649274566</v>
+        <v>220.7725208689619</v>
       </c>
       <c r="F48" t="n">
-        <v>65276700</v>
+        <v>28111300</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01327960969156294</v>
+        <v>0.006486217676457073</v>
       </c>
       <c r="H48" t="n">
-        <v>229.3695137023926</v>
+        <v>229.2699714660644</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45600</v>
+        <v>45602</v>
       </c>
       <c r="B49" t="n">
-        <v>220.9815368652344</v>
+        <v>221.6882629394531</v>
       </c>
       <c r="C49" t="n">
-        <v>221.7579223130378</v>
+        <v>225.0227503220615</v>
       </c>
       <c r="D49" t="n">
-        <v>218.6922037278208</v>
+        <v>220.1653517962115</v>
       </c>
       <c r="E49" t="n">
-        <v>219.9662729338625</v>
+        <v>221.5787719009408</v>
       </c>
       <c r="F49" t="n">
-        <v>44944500</v>
+        <v>54561100</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.004037561216745256</v>
+        <v>-0.003266905096746542</v>
       </c>
       <c r="H49" t="n">
-        <v>229.3854377746582</v>
+        <v>228.9305511474609</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45601</v>
+        <v>45603</v>
       </c>
       <c r="B50" t="n">
-        <v>222.4148712158203</v>
+        <v>226.4261932373047</v>
       </c>
       <c r="C50" t="n">
-        <v>222.9125549800929</v>
+        <v>226.8243493476869</v>
       </c>
       <c r="D50" t="n">
-        <v>220.1155746549773</v>
+        <v>223.5296853733002</v>
       </c>
       <c r="E50" t="n">
-        <v>220.7725208689619</v>
+        <v>223.5894049928319</v>
       </c>
       <c r="F50" t="n">
-        <v>28111300</v>
+        <v>42137700</v>
       </c>
       <c r="G50" t="n">
-        <v>0.006486217676457073</v>
+        <v>0.02137203943514843</v>
       </c>
       <c r="H50" t="n">
-        <v>229.2699745178223</v>
+        <v>228.8529121398926</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45602</v>
+        <v>45604</v>
       </c>
       <c r="B51" t="n">
-        <v>221.6882476806641</v>
+        <v>226.1571655273438</v>
       </c>
       <c r="C51" t="n">
-        <v>225.0227348337598</v>
+        <v>227.8511489598711</v>
       </c>
       <c r="D51" t="n">
-        <v>220.1653366422443</v>
+        <v>225.6091080390756</v>
       </c>
       <c r="E51" t="n">
-        <v>221.578756649688</v>
+        <v>226.366414165256</v>
       </c>
       <c r="F51" t="n">
-        <v>54561100</v>
+        <v>38328800</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.003266973701822162</v>
+        <v>-0.001188147475848722</v>
       </c>
       <c r="H51" t="n">
-        <v>228.9305526733398</v>
+        <v>228.8359764099121</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45603</v>
+        <v>45607</v>
       </c>
       <c r="B52" t="n">
-        <v>226.4262084960938</v>
+        <v>223.4368133544922</v>
       </c>
       <c r="C52" t="n">
-        <v>226.8243646333076</v>
+        <v>224.9016146506588</v>
       </c>
       <c r="D52" t="n">
-        <v>223.5297004368945</v>
+        <v>220.7164746065314</v>
       </c>
       <c r="E52" t="n">
-        <v>223.5894200604507</v>
+        <v>224.2040938441064</v>
       </c>
       <c r="F52" t="n">
-        <v>42137700</v>
+        <v>42005600</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02137217856606721</v>
+        <v>-0.01202859156157343</v>
       </c>
       <c r="H52" t="n">
-        <v>228.8529144287109</v>
+        <v>228.4963912963867</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="B53" t="n">
-        <v>226.1571655273438</v>
+        <v>223.4368133544922</v>
       </c>
       <c r="C53" t="n">
-        <v>227.8511489598711</v>
+        <v>224.7920031521424</v>
       </c>
       <c r="D53" t="n">
-        <v>225.6091080390756</v>
+        <v>222.5698957238352</v>
       </c>
       <c r="E53" t="n">
-        <v>226.366414165256</v>
+        <v>223.7556886973808</v>
       </c>
       <c r="F53" t="n">
-        <v>38328800</v>
+        <v>40398300</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.001188214785456831</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>228.835977935791</v>
+        <v>228.0298965454102</v>
       </c>
       <c r="I53" t="n">
-        <v>225.7738391113281</v>
+        <v>225.7177658081055</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45607</v>
+        <v>45609</v>
       </c>
       <c r="B54" t="n">
-        <v>223.4368133544922</v>
+        <v>224.3236541748047</v>
       </c>
       <c r="C54" t="n">
-        <v>224.9016146506588</v>
+        <v>225.8482407264178</v>
       </c>
       <c r="D54" t="n">
-        <v>220.7164746065314</v>
+        <v>221.97200184604</v>
       </c>
       <c r="E54" t="n">
-        <v>224.2040938441064</v>
+        <v>223.2175800878685</v>
       </c>
       <c r="F54" t="n">
-        <v>42005600</v>
+        <v>48566200</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01202859156157343</v>
+        <v>0.003969089994608321</v>
       </c>
       <c r="H54" t="n">
-        <v>228.4963928222656</v>
+        <v>227.710765838623</v>
       </c>
       <c r="I54" t="n">
-        <v>225.6837921142578</v>
+        <v>225.8077005004883</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45608</v>
+        <v>45610</v>
       </c>
       <c r="B55" t="n">
-        <v>223.4368133544922</v>
+        <v>227.4127044677734</v>
       </c>
       <c r="C55" t="n">
-        <v>224.7920031521424</v>
+        <v>228.0603991005682</v>
       </c>
       <c r="D55" t="n">
-        <v>222.5698957238352</v>
+        <v>224.2040935569292</v>
       </c>
       <c r="E55" t="n">
-        <v>223.7556886973808</v>
+        <v>224.2240270670375</v>
       </c>
       <c r="F55" t="n">
-        <v>40398300</v>
+        <v>44923900</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.01377050629962362</v>
       </c>
       <c r="H55" t="n">
-        <v>228.0298988342285</v>
+        <v>227.5276725769043</v>
       </c>
       <c r="I55" t="n">
-        <v>225.7177676391601</v>
+        <v>225.928957824707</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="B56" t="n">
-        <v>224.3236694335938</v>
+        <v>224.2041015625</v>
       </c>
       <c r="C56" t="n">
-        <v>225.8482560889112</v>
+        <v>226.1173080712557</v>
       </c>
       <c r="D56" t="n">
-        <v>221.9720169448666</v>
+        <v>223.4766880681117</v>
       </c>
       <c r="E56" t="n">
-        <v>223.2175952714209</v>
+        <v>225.5991432236301</v>
       </c>
       <c r="F56" t="n">
-        <v>48566200</v>
+        <v>47923700</v>
       </c>
       <c r="G56" t="n">
-        <v>0.003969158285902274</v>
+        <v>-0.01410916295456188</v>
       </c>
       <c r="H56" t="n">
-        <v>227.7107673645019</v>
+        <v>227.0423095703125</v>
       </c>
       <c r="I56" t="n">
-        <v>225.807702331543</v>
+        <v>226.0170983886719</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45610</v>
+        <v>45614</v>
       </c>
       <c r="B57" t="n">
-        <v>227.4127197265625</v>
+        <v>227.2134246826172</v>
       </c>
       <c r="C57" t="n">
-        <v>228.0604144028158</v>
+        <v>228.9273417095955</v>
       </c>
       <c r="D57" t="n">
-        <v>224.204108600429</v>
+        <v>224.3734999610459</v>
       </c>
       <c r="E57" t="n">
-        <v>224.2240421118748</v>
+        <v>224.4532188000698</v>
       </c>
       <c r="F57" t="n">
-        <v>44923900</v>
+        <v>44633700</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01377050536293578</v>
+        <v>0.01342224829583816</v>
       </c>
       <c r="H57" t="n">
-        <v>227.5276748657226</v>
+        <v>226.6337547302246</v>
       </c>
       <c r="I57" t="n">
-        <v>225.9289596557617</v>
+        <v>226.1636340332031</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="B58" t="n">
-        <v>224.2040863037109</v>
+        <v>227.4724884033203</v>
       </c>
       <c r="C58" t="n">
-        <v>226.1172926822584</v>
+        <v>229.3458430169113</v>
       </c>
       <c r="D58" t="n">
-        <v>223.4766728588287</v>
+        <v>225.8582238051146</v>
       </c>
       <c r="E58" t="n">
-        <v>225.5991278698978</v>
+        <v>226.1770839408332</v>
       </c>
       <c r="F58" t="n">
-        <v>47923700</v>
+        <v>36211800</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01410929620255885</v>
+        <v>0.001140177879300097</v>
       </c>
       <c r="H58" t="n">
-        <v>227.0423103332519</v>
+        <v>226.2690093994141</v>
       </c>
       <c r="I58" t="n">
-        <v>226.0171002197266</v>
+        <v>226.3312768554688</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="B59" t="n">
-        <v>227.2134094238281</v>
+        <v>228.18994140625</v>
       </c>
       <c r="C59" t="n">
-        <v>228.9273263357063</v>
+        <v>229.1166443503319</v>
       </c>
       <c r="D59" t="n">
-        <v>224.3734848929754</v>
+        <v>225.0909420304879</v>
       </c>
       <c r="E59" t="n">
-        <v>224.4532037266457</v>
+        <v>227.2532641048254</v>
       </c>
       <c r="F59" t="n">
-        <v>44633700</v>
+        <v>35169600</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01342224920932389</v>
+        <v>0.003154020989376116</v>
       </c>
       <c r="H59" t="n">
-        <v>226.6337547302246</v>
+        <v>226.1939559936523</v>
       </c>
       <c r="I59" t="n">
-        <v>226.1636352539062</v>
+        <v>226.4625051879883</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="B60" t="n">
-        <v>227.4724884033203</v>
+        <v>227.7116546630859</v>
       </c>
       <c r="C60" t="n">
-        <v>229.3458430169113</v>
+        <v>229.3458528412815</v>
       </c>
       <c r="D60" t="n">
-        <v>225.8582238051146</v>
+        <v>224.9115969801546</v>
       </c>
       <c r="E60" t="n">
-        <v>226.1770839408332</v>
+        <v>228.0703818341442</v>
       </c>
       <c r="F60" t="n">
-        <v>36211800</v>
+        <v>42108300</v>
       </c>
       <c r="G60" t="n">
-        <v>0.001140245112069671</v>
+        <v>-0.002096002743225966</v>
       </c>
       <c r="H60" t="n">
-        <v>226.2690093994141</v>
+        <v>226.1044441223144</v>
       </c>
       <c r="I60" t="n">
-        <v>226.3312780761719</v>
+        <v>226.5819775390625</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45616</v>
+        <v>45618</v>
       </c>
       <c r="B61" t="n">
-        <v>228.18994140625</v>
+        <v>229.0568695068359</v>
       </c>
       <c r="C61" t="n">
-        <v>229.1166443503319</v>
+        <v>229.9038688598125</v>
       </c>
       <c r="D61" t="n">
-        <v>225.0909420304879</v>
+        <v>227.2532745036032</v>
       </c>
       <c r="E61" t="n">
-        <v>227.2532641048254</v>
+        <v>227.2532745036032</v>
       </c>
       <c r="F61" t="n">
-        <v>35169600</v>
+        <v>38168300</v>
       </c>
       <c r="G61" t="n">
-        <v>0.003154020989376116</v>
+        <v>0.005907536202924391</v>
       </c>
       <c r="H61" t="n">
-        <v>226.1939559936523</v>
+        <v>226.0403869628906</v>
       </c>
       <c r="I61" t="n">
-        <v>226.4625061035156</v>
+        <v>226.7337292480469</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45617</v>
+        <v>45621</v>
       </c>
       <c r="B62" t="n">
-        <v>227.7116394042969</v>
+        <v>232.0462493896484</v>
       </c>
       <c r="C62" t="n">
-        <v>229.345837472986</v>
+        <v>232.4249100572111</v>
       </c>
       <c r="D62" t="n">
-        <v>224.9115819089953</v>
+        <v>228.9273316754206</v>
       </c>
       <c r="E62" t="n">
-        <v>228.0703665513171</v>
+        <v>230.6412486272757</v>
       </c>
       <c r="F62" t="n">
-        <v>42108300</v>
+        <v>90152800</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.002096069612032569</v>
+        <v>0.01305081960322219</v>
       </c>
       <c r="H62" t="n">
-        <v>226.104443359375</v>
+        <v>226.0267608642578</v>
       </c>
       <c r="I62" t="n">
-        <v>226.5819781494141</v>
+        <v>227.0682958984375</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45618</v>
+        <v>45622</v>
       </c>
       <c r="B63" t="n">
-        <v>229.0568542480469</v>
+        <v>234.2285003662109</v>
       </c>
       <c r="C63" t="n">
-        <v>229.9038535446</v>
+        <v>234.7367060320631</v>
       </c>
       <c r="D63" t="n">
-        <v>227.2532593649619</v>
+        <v>232.5046242958029</v>
       </c>
       <c r="E63" t="n">
-        <v>227.2532593649619</v>
+        <v>232.5046242958029</v>
       </c>
       <c r="F63" t="n">
-        <v>38168300</v>
+        <v>45986200</v>
       </c>
       <c r="G63" t="n">
-        <v>0.005907536598783958</v>
+        <v>0.009404379438592514</v>
       </c>
       <c r="H63" t="n">
-        <v>226.0403861999512</v>
+        <v>226.1088096618652</v>
       </c>
       <c r="I63" t="n">
-        <v>226.7337298583984</v>
+        <v>227.4371514892578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45621</v>
+        <v>45623</v>
       </c>
       <c r="B64" t="n">
-        <v>232.0462493896484</v>
+        <v>234.0989532470703</v>
       </c>
       <c r="C64" t="n">
-        <v>232.4249100572111</v>
+        <v>234.8562745603856</v>
       </c>
       <c r="D64" t="n">
-        <v>228.9273316754206</v>
+        <v>232.9829199914219</v>
       </c>
       <c r="E64" t="n">
-        <v>230.6412486272757</v>
+        <v>233.6405889619916</v>
       </c>
       <c r="F64" t="n">
-        <v>90152800</v>
+        <v>33498400</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01305088708833968</v>
+        <v>-0.0005530800860615859</v>
       </c>
       <c r="H64" t="n">
-        <v>226.0267593383789</v>
+        <v>226.3620536804199</v>
       </c>
       <c r="I64" t="n">
-        <v>227.0682968139648</v>
+        <v>227.7257772827148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B65" t="n">
-        <v>234.2285003662109</v>
+        <v>236.490478515625</v>
       </c>
       <c r="C65" t="n">
-        <v>234.7367060320631</v>
+        <v>236.9687763221197</v>
       </c>
       <c r="D65" t="n">
-        <v>232.5046242958029</v>
+        <v>233.1423634605361</v>
       </c>
       <c r="E65" t="n">
-        <v>232.5046242958029</v>
+        <v>233.979388423105</v>
       </c>
       <c r="F65" t="n">
-        <v>45986200</v>
+        <v>28481400</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009404379438592514</v>
+        <v>0.01021587339619856</v>
       </c>
       <c r="H65" t="n">
-        <v>226.1088073730469</v>
+        <v>226.9434036254883</v>
       </c>
       <c r="I65" t="n">
-        <v>227.4371524047852</v>
+        <v>227.899391784668</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45623</v>
+        <v>45628</v>
       </c>
       <c r="B66" t="n">
-        <v>234.0989685058594</v>
+        <v>238.7424774169922</v>
       </c>
       <c r="C66" t="n">
-        <v>234.8562898685375</v>
+        <v>239.9382295297479</v>
       </c>
       <c r="D66" t="n">
-        <v>232.9829351774668</v>
+        <v>236.3210805290228</v>
       </c>
       <c r="E66" t="n">
-        <v>233.640604190904</v>
+        <v>236.4306920263062</v>
       </c>
       <c r="F66" t="n">
-        <v>33498400</v>
+        <v>48137100</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.0005530149411751006</v>
+        <v>0.009522577464861515</v>
       </c>
       <c r="H66" t="n">
-        <v>226.362052154541</v>
+        <v>227.7866577148438</v>
       </c>
       <c r="I66" t="n">
-        <v>227.7257788085938</v>
+        <v>228.131383972168</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="B67" t="n">
-        <v>236.490478515625</v>
+        <v>241.7916564941406</v>
       </c>
       <c r="C67" t="n">
-        <v>236.9687763221197</v>
+        <v>241.9012679940841</v>
       </c>
       <c r="D67" t="n">
-        <v>233.1423634605361</v>
+        <v>238.0549215480856</v>
       </c>
       <c r="E67" t="n">
-        <v>233.979388423105</v>
+        <v>238.9617062108169</v>
       </c>
       <c r="F67" t="n">
-        <v>28481400</v>
+        <v>38861000</v>
       </c>
       <c r="G67" t="n">
-        <v>0.01021580754938589</v>
+        <v>0.01277183310711272</v>
       </c>
       <c r="H67" t="n">
-        <v>226.9434020996094</v>
+        <v>228.8271636962891</v>
       </c>
       <c r="I67" t="n">
-        <v>227.8993930053711</v>
+        <v>228.4587994384766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45628</v>
+        <v>45630</v>
       </c>
       <c r="B68" t="n">
-        <v>238.7424774169922</v>
+        <v>242.1503753662109</v>
       </c>
       <c r="C68" t="n">
-        <v>239.9382295297479</v>
+        <v>243.2464903281161</v>
       </c>
       <c r="D68" t="n">
-        <v>236.3210805290228</v>
+        <v>240.3966066319756</v>
       </c>
       <c r="E68" t="n">
-        <v>236.4306920263062</v>
+        <v>242.0108712078605</v>
       </c>
       <c r="F68" t="n">
-        <v>48137100</v>
+        <v>44383900</v>
       </c>
       <c r="G68" t="n">
-        <v>0.009522577464861515</v>
+        <v>0.001483586643441503</v>
       </c>
       <c r="H68" t="n">
-        <v>227.7866569519043</v>
+        <v>229.8139389038086</v>
       </c>
       <c r="I68" t="n">
-        <v>228.1313848876953</v>
+        <v>228.7754727172852</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="B69" t="n">
-        <v>241.7916564941406</v>
+        <v>242.1802825927734</v>
       </c>
       <c r="C69" t="n">
-        <v>241.9012679940841</v>
+        <v>243.6749766099078</v>
       </c>
       <c r="D69" t="n">
-        <v>238.0549215480856</v>
+        <v>241.2735131113704</v>
       </c>
       <c r="E69" t="n">
-        <v>238.9617062108169</v>
+        <v>243.1269343008096</v>
       </c>
       <c r="F69" t="n">
-        <v>38861000</v>
+        <v>40033900</v>
       </c>
       <c r="G69" t="n">
-        <v>0.01277183310711272</v>
+        <v>0.0001235068354417113</v>
       </c>
       <c r="H69" t="n">
-        <v>228.8271629333496</v>
+        <v>230.8385398864746</v>
       </c>
       <c r="I69" t="n">
-        <v>228.4588003540039</v>
+        <v>229.1126513671875</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="B70" t="n">
-        <v>242.150390625</v>
+        <v>241.9809875488281</v>
       </c>
       <c r="C70" t="n">
-        <v>243.2465056559754</v>
+        <v>243.7646642163996</v>
       </c>
       <c r="D70" t="n">
-        <v>240.3966217802532</v>
+        <v>241.2236814045801</v>
       </c>
       <c r="E70" t="n">
-        <v>242.0108864578589</v>
+        <v>242.0507472330053</v>
       </c>
       <c r="F70" t="n">
-        <v>44383900</v>
+        <v>36870600</v>
       </c>
       <c r="G70" t="n">
-        <v>0.001483649750619431</v>
+        <v>-0.0008229201890908033</v>
       </c>
       <c r="H70" t="n">
-        <v>229.8139389038086</v>
+        <v>231.6162796020508</v>
       </c>
       <c r="I70" t="n">
-        <v>228.7754739379883</v>
+        <v>229.4229510498047</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45631</v>
+        <v>45635</v>
       </c>
       <c r="B71" t="n">
-        <v>242.1802673339844</v>
+        <v>245.8771514892578</v>
       </c>
       <c r="C71" t="n">
-        <v>243.6749612569442</v>
+        <v>246.3654236467989</v>
       </c>
       <c r="D71" t="n">
-        <v>241.2734979097132</v>
+        <v>240.8948383891716</v>
       </c>
       <c r="E71" t="n">
-        <v>243.1269189823759</v>
+        <v>240.9745572233505</v>
       </c>
       <c r="F71" t="n">
-        <v>40033900</v>
+        <v>44649200</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0001233808002838455</v>
+        <v>0.0161011159591351</v>
       </c>
       <c r="H71" t="n">
-        <v>230.8385398864746</v>
+        <v>232.6022789001465</v>
       </c>
       <c r="I71" t="n">
-        <v>229.1126525878906</v>
+        <v>229.8057989501953</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45632</v>
+        <v>45636</v>
       </c>
       <c r="B72" t="n">
-        <v>241.9809722900391</v>
+        <v>246.8935546875</v>
       </c>
       <c r="C72" t="n">
-        <v>243.7646488451358</v>
+        <v>247.3320006856302</v>
       </c>
       <c r="D72" t="n">
-        <v>241.2236661935451</v>
+        <v>244.4721425450312</v>
       </c>
       <c r="E72" t="n">
-        <v>242.0507319698173</v>
+        <v>246.0166626912396</v>
       </c>
       <c r="F72" t="n">
-        <v>36870600</v>
+        <v>36914800</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.0008229202409396619</v>
+        <v>0.004133784664764217</v>
       </c>
       <c r="H72" t="n">
-        <v>231.6162780761719</v>
+        <v>233.7751159667969</v>
       </c>
       <c r="I72" t="n">
-        <v>229.4229513549805</v>
+        <v>230.1052569580078</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="B73" t="n">
-        <v>245.8771514892578</v>
+        <v>245.6180877685547</v>
       </c>
       <c r="C73" t="n">
-        <v>246.3654236467989</v>
+        <v>249.9128394219165</v>
       </c>
       <c r="D73" t="n">
-        <v>240.8948383891716</v>
+        <v>245.3888904081398</v>
       </c>
       <c r="E73" t="n">
-        <v>240.9745572233505</v>
+        <v>247.0828891024836</v>
       </c>
       <c r="F73" t="n">
-        <v>44649200</v>
+        <v>45205800</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01610118003224148</v>
+        <v>-0.005166060007357087</v>
       </c>
       <c r="H73" t="n">
-        <v>232.6022773742676</v>
+        <v>234.8841796875</v>
       </c>
       <c r="I73" t="n">
-        <v>229.8057992553711</v>
+        <v>230.5143765258789</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="B74" t="n">
-        <v>246.8935546875</v>
+        <v>247.0828857421875</v>
       </c>
       <c r="C74" t="n">
-        <v>247.3320006856302</v>
+        <v>247.8601253939288</v>
       </c>
       <c r="D74" t="n">
-        <v>244.4721425450312</v>
+        <v>244.8109369084667</v>
       </c>
       <c r="E74" t="n">
-        <v>246.0166626912396</v>
+        <v>246.0166634068319</v>
       </c>
       <c r="F74" t="n">
-        <v>36914800</v>
+        <v>32777500</v>
       </c>
       <c r="G74" t="n">
-        <v>0.004133784664764217</v>
+        <v>0.00596372191861172</v>
       </c>
       <c r="H74" t="n">
-        <v>233.775114440918</v>
+        <v>236.0221412658692</v>
       </c>
       <c r="I74" t="n">
-        <v>230.1052578735352</v>
+        <v>230.9414450073242</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="B75" t="n">
-        <v>245.6180725097656</v>
+        <v>247.2522888183594</v>
       </c>
       <c r="C75" t="n">
-        <v>249.9128238963201</v>
+        <v>248.4081739675946</v>
       </c>
       <c r="D75" t="n">
-        <v>245.3888751635895</v>
+        <v>245.3689749677165</v>
       </c>
       <c r="E75" t="n">
-        <v>247.0828737526952</v>
+        <v>246.9433878213735</v>
       </c>
       <c r="F75" t="n">
-        <v>45205800</v>
+        <v>33155300</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.005166121810465163</v>
+        <v>0.0006856123428502503</v>
       </c>
       <c r="H75" t="n">
-        <v>234.8841773986816</v>
+        <v>237.0141204833984</v>
       </c>
       <c r="I75" t="n">
-        <v>230.5143774414063</v>
+        <v>231.3939990234375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45638</v>
+        <v>45642</v>
       </c>
       <c r="B76" t="n">
-        <v>247.0828857421875</v>
+        <v>250.1519622802734</v>
       </c>
       <c r="C76" t="n">
-        <v>247.8601253939288</v>
+        <v>250.4907711170412</v>
       </c>
       <c r="D76" t="n">
-        <v>244.8109369084667</v>
+        <v>246.7739547032778</v>
       </c>
       <c r="E76" t="n">
-        <v>246.0166634068319</v>
+        <v>247.1127635400456</v>
       </c>
       <c r="F76" t="n">
-        <v>32777500</v>
+        <v>51694800</v>
       </c>
       <c r="G76" t="n">
-        <v>0.005963784413150819</v>
+        <v>0.01172758996801138</v>
       </c>
       <c r="H76" t="n">
-        <v>236.0221382141113</v>
+        <v>238.3115135192871</v>
       </c>
       <c r="I76" t="n">
-        <v>230.9414462280273</v>
+        <v>231.8820510864258</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45639</v>
+        <v>45643</v>
       </c>
       <c r="B77" t="n">
-        <v>247.2522735595703</v>
+        <v>252.5833435058594</v>
       </c>
       <c r="C77" t="n">
-        <v>248.4081586374719</v>
+        <v>252.9321115087138</v>
       </c>
       <c r="D77" t="n">
-        <v>245.3689598251532</v>
+        <v>248.8964348112852</v>
       </c>
       <c r="E77" t="n">
-        <v>246.9433725816478</v>
+        <v>249.1953766416157</v>
       </c>
       <c r="F77" t="n">
-        <v>33155300</v>
+        <v>51356400</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0006855505870995149</v>
+        <v>0.009719616841789014</v>
       </c>
       <c r="H77" t="n">
-        <v>237.0141159057617</v>
+        <v>239.5800094604492</v>
       </c>
       <c r="I77" t="n">
-        <v>231.3939999389648</v>
+        <v>232.5204574584961</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45642</v>
+        <v>45644</v>
       </c>
       <c r="B78" t="n">
-        <v>250.1519622802734</v>
+        <v>247.1725616455078</v>
       </c>
       <c r="C78" t="n">
-        <v>250.4907711170412</v>
+        <v>253.3805196542609</v>
       </c>
       <c r="D78" t="n">
-        <v>246.7739547032778</v>
+        <v>246.8636606589374</v>
       </c>
       <c r="E78" t="n">
-        <v>247.1127635400456</v>
+        <v>251.2680237165694</v>
       </c>
       <c r="F78" t="n">
-        <v>51694800</v>
+        <v>56774100</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01172765240520435</v>
+        <v>-0.02142176829734632</v>
       </c>
       <c r="H78" t="n">
-        <v>238.3115097045898</v>
+        <v>240.5650131225586</v>
       </c>
       <c r="I78" t="n">
-        <v>231.8820520019531</v>
+        <v>232.9694262695313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45643</v>
+        <v>45645</v>
       </c>
       <c r="B79" t="n">
-        <v>252.5833435058594</v>
+        <v>248.9063873291016</v>
       </c>
       <c r="C79" t="n">
-        <v>252.9321115087138</v>
+        <v>251.1085763755283</v>
       </c>
       <c r="D79" t="n">
-        <v>248.8964348112852</v>
+        <v>246.2159413374691</v>
       </c>
       <c r="E79" t="n">
-        <v>249.1953766416157</v>
+        <v>246.6244946545368</v>
       </c>
       <c r="F79" t="n">
-        <v>51356400</v>
+        <v>60882300</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009719616841789014</v>
+        <v>0.007014636544004471</v>
       </c>
       <c r="H79" t="n">
-        <v>239.5800064086914</v>
+        <v>241.6008354187012</v>
       </c>
       <c r="I79" t="n">
-        <v>232.5204577636719</v>
+        <v>233.3780206298828</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45644</v>
+        <v>45646</v>
       </c>
       <c r="B80" t="n">
-        <v>247.1725616455078</v>
+        <v>253.5897674560547</v>
       </c>
       <c r="C80" t="n">
-        <v>253.3805196542609</v>
+        <v>254.0979578981185</v>
       </c>
       <c r="D80" t="n">
-        <v>246.8636606589374</v>
+        <v>244.8208937111572</v>
       </c>
       <c r="E80" t="n">
-        <v>251.2680237165694</v>
+        <v>247.1625716512524</v>
       </c>
       <c r="F80" t="n">
-        <v>56774100</v>
+        <v>147495300</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02142176829734632</v>
+        <v>0.01881582942570614</v>
       </c>
       <c r="H80" t="n">
-        <v>240.5650100708008</v>
+        <v>242.8947410583496</v>
       </c>
       <c r="I80" t="n">
-        <v>232.9694262695313</v>
+        <v>233.8902365112305</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45645</v>
+        <v>45649</v>
       </c>
       <c r="B81" t="n">
-        <v>248.9064025878906</v>
+        <v>254.3670196533203</v>
       </c>
       <c r="C81" t="n">
-        <v>251.1085917693189</v>
+        <v>254.7456651132031</v>
       </c>
       <c r="D81" t="n">
-        <v>246.2159564313249</v>
+        <v>252.5534503695802</v>
       </c>
       <c r="E81" t="n">
-        <v>246.6245097734382</v>
+        <v>253.8687883386418</v>
       </c>
       <c r="F81" t="n">
-        <v>60882300</v>
+        <v>40858800</v>
       </c>
       <c r="G81" t="n">
-        <v>0.007014698277349574</v>
+        <v>0.003064998264964869</v>
       </c>
       <c r="H81" t="n">
-        <v>241.6008331298828</v>
+        <v>244.1602485656738</v>
       </c>
       <c r="I81" t="n">
-        <v>233.3780206298828</v>
+        <v>234.4476593017578</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45646</v>
+        <v>45650</v>
       </c>
       <c r="B82" t="n">
-        <v>253.5897979736328</v>
+        <v>257.2866516113281</v>
       </c>
       <c r="C82" t="n">
-        <v>254.0979884768534</v>
+        <v>257.2965955586333</v>
       </c>
       <c r="D82" t="n">
-        <v>244.8209231734688</v>
+        <v>254.3869266350054</v>
       </c>
       <c r="E82" t="n">
-        <v>247.1626013953669</v>
+        <v>254.5862313158557</v>
       </c>
       <c r="F82" t="n">
-        <v>147495300</v>
+        <v>23234700</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01881588957555413</v>
+        <v>0.01147802872395576</v>
       </c>
       <c r="H82" t="n">
-        <v>242.8947410583496</v>
+        <v>245.4222686767578</v>
       </c>
       <c r="I82" t="n">
-        <v>233.890237121582</v>
+        <v>234.9888220214844</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="B83" t="n">
-        <v>254.3670349121094</v>
+        <v>258.1037292480469</v>
       </c>
       <c r="C83" t="n">
-        <v>254.7456803947061</v>
+        <v>259.1799258751944</v>
       </c>
       <c r="D83" t="n">
-        <v>252.5534655195782</v>
+        <v>256.7186620602343</v>
       </c>
       <c r="E83" t="n">
-        <v>253.8688035675433</v>
+        <v>257.2766786781534</v>
       </c>
       <c r="F83" t="n">
-        <v>40858800</v>
+        <v>27237100</v>
       </c>
       <c r="G83" t="n">
-        <v>0.003064937724968742</v>
+        <v>0.003175748262109979</v>
       </c>
       <c r="H83" t="n">
-        <v>244.1602500915527</v>
+        <v>246.6160301208496</v>
       </c>
       <c r="I83" t="n">
-        <v>234.4476599121094</v>
+        <v>235.4955624389648</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="B84" t="n">
-        <v>257.2866821289062</v>
+        <v>254.6858673095703</v>
       </c>
       <c r="C84" t="n">
-        <v>257.2966260773909</v>
+        <v>257.7848817480364</v>
       </c>
       <c r="D84" t="n">
-        <v>254.386956808638</v>
+        <v>252.1648181972039</v>
       </c>
       <c r="E84" t="n">
-        <v>254.5862615131284</v>
+        <v>256.9179337588869</v>
       </c>
       <c r="F84" t="n">
-        <v>23234700</v>
+        <v>42355300</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01147808802270966</v>
+        <v>-0.01324220284780109</v>
       </c>
       <c r="H84" t="n">
-        <v>245.4222717285156</v>
+        <v>247.6453758239746</v>
       </c>
       <c r="I84" t="n">
-        <v>234.9888232421875</v>
+        <v>235.9751544189453</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45652</v>
+        <v>45656</v>
       </c>
       <c r="B85" t="n">
-        <v>258.1037292480469</v>
+        <v>251.307861328125</v>
       </c>
       <c r="C85" t="n">
-        <v>259.1799258751944</v>
+        <v>252.6032657318147</v>
       </c>
       <c r="D85" t="n">
-        <v>256.7186620602343</v>
+        <v>249.8629936183532</v>
       </c>
       <c r="E85" t="n">
-        <v>257.2766786781534</v>
+        <v>251.3377539893414</v>
       </c>
       <c r="F85" t="n">
-        <v>27237100</v>
+        <v>35557500</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003175629272296643</v>
+        <v>-0.01326342139487213</v>
       </c>
       <c r="H85" t="n">
-        <v>246.6160331726074</v>
+        <v>248.3862449645996</v>
       </c>
       <c r="I85" t="n">
-        <v>235.4955639648437</v>
+        <v>236.3798202514648</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45653</v>
+        <v>45657</v>
       </c>
       <c r="B86" t="n">
-        <v>254.6858825683594</v>
+        <v>249.5341796875</v>
       </c>
       <c r="C86" t="n">
-        <v>257.7848971924942</v>
+        <v>252.3840635283598</v>
       </c>
       <c r="D86" t="n">
-        <v>252.1648333049514</v>
+        <v>248.5476761716899</v>
       </c>
       <c r="E86" t="n">
-        <v>256.917949151404</v>
+        <v>251.5470385357527</v>
       </c>
       <c r="F86" t="n">
-        <v>42355300</v>
+        <v>39480700</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.01324214372897659</v>
+        <v>-0.007057804046603833</v>
       </c>
       <c r="H86" t="n">
-        <v>247.6453788757324</v>
+        <v>248.925830078125</v>
       </c>
       <c r="I86" t="n">
-        <v>235.9751556396484</v>
+        <v>236.6922766113281</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="B87" t="n">
-        <v>251.3078765869141</v>
+        <v>242.9874114990234</v>
       </c>
       <c r="C87" t="n">
-        <v>252.6032810692575</v>
+        <v>248.2188401577881</v>
       </c>
       <c r="D87" t="n">
-        <v>249.8630087894135</v>
+        <v>240.9645936340195</v>
       </c>
       <c r="E87" t="n">
-        <v>251.3377692499455</v>
+        <v>248.0494281352692</v>
       </c>
       <c r="F87" t="n">
-        <v>35557500</v>
+        <v>55740700</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01326342060023145</v>
+        <v>-0.02623595772200549</v>
       </c>
       <c r="H87" t="n">
-        <v>248.3862487792969</v>
+        <v>248.9856178283691</v>
       </c>
       <c r="I87" t="n">
-        <v>236.3798217773438</v>
+        <v>236.8443344116211</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45657</v>
+        <v>45660</v>
       </c>
       <c r="B88" t="n">
-        <v>249.5341796875</v>
+        <v>242.4991455078125</v>
       </c>
       <c r="C88" t="n">
-        <v>252.3840635283598</v>
+        <v>243.3162369554258</v>
       </c>
       <c r="D88" t="n">
-        <v>248.5476761716899</v>
+        <v>241.0343442297803</v>
       </c>
       <c r="E88" t="n">
-        <v>251.5470385357527</v>
+        <v>242.4991455078125</v>
       </c>
       <c r="F88" t="n">
-        <v>39480700</v>
+        <v>40244100</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.007057864335583752</v>
+        <v>-0.002009429164246623</v>
       </c>
       <c r="H88" t="n">
-        <v>248.9258338928223</v>
+        <v>249.0030563354492</v>
       </c>
       <c r="I88" t="n">
-        <v>236.6922778320312</v>
+        <v>236.9989694213867</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45659</v>
+        <v>45663</v>
       </c>
       <c r="B89" t="n">
-        <v>242.9874267578125</v>
+        <v>244.1333465576172</v>
       </c>
       <c r="C89" t="n">
-        <v>248.2188557450932</v>
+        <v>246.4551063310897</v>
       </c>
       <c r="D89" t="n">
-        <v>240.9646087657824</v>
+        <v>242.3397107664353</v>
       </c>
       <c r="E89" t="n">
-        <v>248.0494437119358</v>
+        <v>243.4457849039297</v>
       </c>
       <c r="F89" t="n">
-        <v>55740700</v>
+        <v>45045600</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.02623589657291125</v>
+        <v>0.006738997147319958</v>
       </c>
       <c r="H89" t="n">
-        <v>248.9856224060059</v>
+        <v>249.1007095336914</v>
       </c>
       <c r="I89" t="n">
-        <v>236.8443359375</v>
+        <v>237.2878161621094</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45660</v>
+        <v>45664</v>
       </c>
       <c r="B90" t="n">
-        <v>242.4991607666016</v>
+        <v>241.3532104492188</v>
       </c>
       <c r="C90" t="n">
-        <v>243.3162522656288</v>
+        <v>244.6813918483913</v>
       </c>
       <c r="D90" t="n">
-        <v>241.0343593963996</v>
+        <v>240.4962520142114</v>
       </c>
       <c r="E90" t="n">
-        <v>242.4991607666016</v>
+        <v>242.1204756955299</v>
       </c>
       <c r="F90" t="n">
-        <v>40244100</v>
+        <v>40856000</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.002009429038061228</v>
+        <v>-0.01138777699810178</v>
       </c>
       <c r="H90" t="n">
-        <v>249.0030609130859</v>
+        <v>249.0693206787109</v>
       </c>
       <c r="I90" t="n">
-        <v>236.9989712524414</v>
+        <v>237.5248425292969</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45663</v>
+        <v>45665</v>
       </c>
       <c r="B91" t="n">
-        <v>244.1333465576172</v>
+        <v>241.8414764404297</v>
       </c>
       <c r="C91" t="n">
-        <v>246.4551063310897</v>
+        <v>242.8479134243992</v>
       </c>
       <c r="D91" t="n">
-        <v>242.3397107664353</v>
+        <v>239.200856561804</v>
       </c>
       <c r="E91" t="n">
-        <v>243.4457849039297</v>
+        <v>241.0642368080488</v>
       </c>
       <c r="F91" t="n">
-        <v>45045600</v>
+        <v>37628900</v>
       </c>
       <c r="G91" t="n">
-        <v>0.006738933800222391</v>
+        <v>0.002023034996311734</v>
       </c>
       <c r="H91" t="n">
-        <v>249.1007148742676</v>
+        <v>248.8675369262695</v>
       </c>
       <c r="I91" t="n">
-        <v>237.2878179931641</v>
+        <v>237.7549118041992</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45664</v>
+        <v>45667</v>
       </c>
       <c r="B92" t="n">
-        <v>241.3532257080078</v>
+        <v>236.0121917724609</v>
       </c>
       <c r="C92" t="n">
-        <v>244.681407317594</v>
+        <v>239.3104808095479</v>
       </c>
       <c r="D92" t="n">
-        <v>240.496267218822</v>
+        <v>232.175804373632</v>
       </c>
       <c r="E92" t="n">
-        <v>242.1204910028268</v>
+        <v>239.1610022847023</v>
       </c>
       <c r="F92" t="n">
-        <v>40856000</v>
+        <v>61710900</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01138771449623843</v>
+        <v>-0.02410374247530955</v>
       </c>
       <c r="H92" t="n">
-        <v>249.069327545166</v>
+        <v>248.3234687805176</v>
       </c>
       <c r="I92" t="n">
-        <v>237.5248446655274</v>
+        <v>237.8287802124023</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45665</v>
+        <v>45670</v>
       </c>
       <c r="B93" t="n">
-        <v>241.8414611816406</v>
+        <v>233.5708465576172</v>
       </c>
       <c r="C93" t="n">
-        <v>242.8478981021098</v>
+        <v>233.8398957390806</v>
       </c>
       <c r="D93" t="n">
-        <v>239.2008414696227</v>
+        <v>228.9074085045923</v>
       </c>
       <c r="E93" t="n">
-        <v>241.064221598299</v>
+        <v>232.7039288898965</v>
       </c>
       <c r="F93" t="n">
-        <v>37628900</v>
+        <v>49630700</v>
       </c>
       <c r="G93" t="n">
-        <v>0.002022908424781145</v>
+        <v>-0.01034414873447487</v>
       </c>
       <c r="H93" t="n">
-        <v>248.8675430297852</v>
+        <v>247.7211067199707</v>
       </c>
       <c r="I93" t="n">
-        <v>237.7549139404297</v>
+        <v>237.8484466552734</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45667</v>
+        <v>45671</v>
       </c>
       <c r="B94" t="n">
-        <v>236.0121765136719</v>
+        <v>232.4548034667969</v>
       </c>
       <c r="C94" t="n">
-        <v>239.3104653375161</v>
+        <v>235.2847537155336</v>
       </c>
       <c r="D94" t="n">
-        <v>232.1757893628752</v>
+        <v>231.6476711610837</v>
       </c>
       <c r="E94" t="n">
-        <v>239.1609868223346</v>
+        <v>233.9196047641331</v>
       </c>
       <c r="F94" t="n">
-        <v>61710900</v>
+        <v>39435300</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02410374399611537</v>
+        <v>-0.00477817804434344</v>
       </c>
       <c r="H94" t="n">
-        <v>248.3234741210937</v>
+        <v>246.9897026062012</v>
       </c>
       <c r="I94" t="n">
-        <v>237.8287817382812</v>
+        <v>237.9168612670898</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="B95" t="n">
-        <v>233.5708465576172</v>
+        <v>237.028564453125</v>
       </c>
       <c r="C95" t="n">
-        <v>233.8398957390806</v>
+        <v>238.1147202916155</v>
       </c>
       <c r="D95" t="n">
-        <v>228.9074085045923</v>
+        <v>233.6007305222416</v>
       </c>
       <c r="E95" t="n">
-        <v>232.7039288898965</v>
+        <v>233.8099943677675</v>
       </c>
       <c r="F95" t="n">
-        <v>49630700</v>
+        <v>39832000</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01034408475070037</v>
+        <v>0.01967591513754807</v>
       </c>
       <c r="H95" t="n">
-        <v>247.7211128234863</v>
+        <v>246.4785163879395</v>
       </c>
       <c r="I95" t="n">
-        <v>237.8484478759766</v>
+        <v>238.1601629638672</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45671</v>
+        <v>45673</v>
       </c>
       <c r="B96" t="n">
-        <v>232.4548034667969</v>
+        <v>227.4525604248047</v>
       </c>
       <c r="C96" t="n">
-        <v>235.2847537155336</v>
+        <v>237.1680713225123</v>
       </c>
       <c r="D96" t="n">
-        <v>231.6476711610837</v>
+        <v>227.2233782712322</v>
       </c>
       <c r="E96" t="n">
-        <v>233.9196047641331</v>
+        <v>236.510417525095</v>
       </c>
       <c r="F96" t="n">
-        <v>39435300</v>
+        <v>71759100</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00477817804434344</v>
+        <v>-0.04040021104804048</v>
       </c>
       <c r="H96" t="n">
-        <v>246.9897087097168</v>
+        <v>245.343546295166</v>
       </c>
       <c r="I96" t="n">
-        <v>237.916862487793</v>
+        <v>238.2716662597656</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45672</v>
+        <v>45674</v>
       </c>
       <c r="B97" t="n">
-        <v>237.0285491943359</v>
+        <v>229.1664733886719</v>
       </c>
       <c r="C97" t="n">
-        <v>238.1147049629049</v>
+        <v>231.4682996512766</v>
       </c>
       <c r="D97" t="n">
-        <v>233.6007154841204</v>
+        <v>227.6717794306363</v>
       </c>
       <c r="E97" t="n">
-        <v>233.8099793161749</v>
+        <v>231.2989028272768</v>
       </c>
       <c r="F97" t="n">
-        <v>39832000</v>
+        <v>68488300</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01967584949558754</v>
+        <v>0.007535254651194867</v>
       </c>
       <c r="H97" t="n">
-        <v>246.4785224914551</v>
+        <v>244.1727027893066</v>
       </c>
       <c r="I97" t="n">
-        <v>238.1601638793945</v>
+        <v>238.4353649902344</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45673</v>
+        <v>45678</v>
       </c>
       <c r="B98" t="n">
-        <v>227.4525604248047</v>
+        <v>221.8524322509766</v>
       </c>
       <c r="C98" t="n">
-        <v>237.1680713225123</v>
+        <v>223.6261344593549</v>
       </c>
       <c r="D98" t="n">
-        <v>227.2233782712322</v>
+        <v>218.6039696546368</v>
       </c>
       <c r="E98" t="n">
-        <v>236.510417525095</v>
+        <v>223.2076219926961</v>
       </c>
       <c r="F98" t="n">
-        <v>71759100</v>
+        <v>98070400</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04040014927349556</v>
+        <v>-0.03191584279123816</v>
       </c>
       <c r="H98" t="n">
-        <v>245.3435523986817</v>
+        <v>242.9066963195801</v>
       </c>
       <c r="I98" t="n">
-        <v>238.2716674804688</v>
+        <v>238.4241162109375</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B99" t="n">
-        <v>229.1664733886719</v>
+        <v>223.0382385253906</v>
       </c>
       <c r="C99" t="n">
-        <v>231.4682996512766</v>
+        <v>223.3272060060417</v>
       </c>
       <c r="D99" t="n">
-        <v>227.6717794306363</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="E99" t="n">
-        <v>231.2989028272768</v>
+        <v>219.0125208730849</v>
       </c>
       <c r="F99" t="n">
-        <v>68488300</v>
+        <v>64126500</v>
       </c>
       <c r="G99" t="n">
-        <v>0.007535254651194867</v>
+        <v>0.005345022645830477</v>
       </c>
       <c r="H99" t="n">
-        <v>244.1727088928223</v>
+        <v>241.6132888793945</v>
       </c>
       <c r="I99" t="n">
-        <v>238.4353662109375</v>
+        <v>238.4511157226563</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45678</v>
+        <v>45680</v>
       </c>
       <c r="B100" t="n">
-        <v>221.8524322509766</v>
+        <v>222.8688507080078</v>
       </c>
       <c r="C100" t="n">
-        <v>223.6261344593549</v>
+        <v>226.2269251350915</v>
       </c>
       <c r="D100" t="n">
-        <v>218.6039696546368</v>
+        <v>221.5136608303883</v>
       </c>
       <c r="E100" t="n">
-        <v>223.2076219926961</v>
+        <v>223.9450322465422</v>
       </c>
       <c r="F100" t="n">
-        <v>98070400</v>
+        <v>60234800</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03191584279123816</v>
+        <v>-0.0007594563986099701</v>
       </c>
       <c r="H100" t="n">
-        <v>242.9067024230957</v>
+        <v>240.0772430419922</v>
       </c>
       <c r="I100" t="n">
-        <v>238.4241174316406</v>
+        <v>238.3799688720703</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45679</v>
+        <v>45681</v>
       </c>
       <c r="B101" t="n">
-        <v>223.0382232666016</v>
+        <v>221.991943359375</v>
       </c>
       <c r="C101" t="n">
-        <v>223.3271907274834</v>
+        <v>224.831867935065</v>
       </c>
       <c r="D101" t="n">
-        <v>219.0125058897086</v>
+        <v>220.6267944226493</v>
       </c>
       <c r="E101" t="n">
-        <v>219.0125058897086</v>
+        <v>223.9848686181573</v>
       </c>
       <c r="F101" t="n">
-        <v>64126500</v>
+        <v>54697900</v>
       </c>
       <c r="G101" t="n">
-        <v>0.005344953866827762</v>
+        <v>-0.003934633960049005</v>
       </c>
       <c r="H101" t="n">
-        <v>241.6132934570313</v>
+        <v>238.4584892272949</v>
       </c>
       <c r="I101" t="n">
-        <v>238.4511169433594</v>
+        <v>238.2966644287109</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45680</v>
+        <v>45684</v>
       </c>
       <c r="B102" t="n">
-        <v>222.8688507080078</v>
+        <v>229.0469055175781</v>
       </c>
       <c r="C102" t="n">
-        <v>226.2269251350915</v>
+        <v>231.3287982977573</v>
       </c>
       <c r="D102" t="n">
-        <v>221.5136608303883</v>
+        <v>223.1877002654234</v>
       </c>
       <c r="E102" t="n">
-        <v>223.9450322465422</v>
+        <v>223.2275672861503</v>
       </c>
       <c r="F102" t="n">
-        <v>60234800</v>
+        <v>94863400</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0007593880372303019</v>
+        <v>0.0317802621637584</v>
       </c>
       <c r="H102" t="n">
-        <v>240.07724609375</v>
+        <v>237.0465019226074</v>
       </c>
       <c r="I102" t="n">
-        <v>238.3799697875976</v>
+        <v>238.4088662719727</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45681</v>
+        <v>45685</v>
       </c>
       <c r="B103" t="n">
-        <v>221.991943359375</v>
+        <v>237.4171752929688</v>
       </c>
       <c r="C103" t="n">
-        <v>224.831867935065</v>
+        <v>239.3403560311667</v>
       </c>
       <c r="D103" t="n">
-        <v>220.6267944226493</v>
+        <v>229.9935319110658</v>
       </c>
       <c r="E103" t="n">
-        <v>223.9848686181573</v>
+        <v>230.0333989300448</v>
       </c>
       <c r="F103" t="n">
-        <v>54697900</v>
+        <v>75707600</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.003934633960049005</v>
+        <v>0.03654391119791067</v>
       </c>
       <c r="H103" t="n">
-        <v>238.4584915161133</v>
+        <v>236.0121742248535</v>
       </c>
       <c r="I103" t="n">
-        <v>238.2966653442383</v>
+        <v>238.6884735107422</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45684</v>
+        <v>45686</v>
       </c>
       <c r="B104" t="n">
-        <v>229.0468902587891</v>
+        <v>238.5132904052734</v>
       </c>
       <c r="C104" t="n">
-        <v>231.3287828869517</v>
+        <v>239.0115217091611</v>
       </c>
       <c r="D104" t="n">
-        <v>223.1876853969666</v>
+        <v>233.1822093717508</v>
       </c>
       <c r="E104" t="n">
-        <v>223.2275524150376</v>
+        <v>233.2918208667986</v>
       </c>
       <c r="F104" t="n">
-        <v>94863400</v>
+        <v>45486100</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03178019342797977</v>
+        <v>0.004616831579063785</v>
       </c>
       <c r="H104" t="n">
-        <v>237.0465019226074</v>
+        <v>235.2035453796387</v>
       </c>
       <c r="I104" t="n">
-        <v>238.4088668823242</v>
+        <v>238.9722662353516</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45685</v>
+        <v>45687</v>
       </c>
       <c r="B105" t="n">
-        <v>237.4171905517578</v>
+        <v>236.7495574951172</v>
       </c>
       <c r="C105" t="n">
-        <v>239.3403714135585</v>
+        <v>239.9382349359158</v>
       </c>
       <c r="D105" t="n">
-        <v>229.9935466927377</v>
+        <v>236.3709120271811</v>
       </c>
       <c r="E105" t="n">
-        <v>230.033413714279</v>
+        <v>237.8257389822892</v>
       </c>
       <c r="F105" t="n">
-        <v>75707600</v>
+        <v>55658300</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03654404686966739</v>
+        <v>-0.007394694472410257</v>
       </c>
       <c r="H105" t="n">
-        <v>236.012174987793</v>
+        <v>234.4756301879883</v>
       </c>
       <c r="I105" t="n">
-        <v>238.6884744262695</v>
+        <v>239.1590032958984</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45686</v>
+        <v>45688</v>
       </c>
       <c r="B106" t="n">
-        <v>238.5133056640625</v>
+        <v>235.1651916503906</v>
       </c>
       <c r="C106" t="n">
-        <v>239.0115369998243</v>
+        <v>246.3156114330247</v>
       </c>
       <c r="D106" t="n">
-        <v>233.1822242894862</v>
+        <v>232.61424963136</v>
       </c>
       <c r="E106" t="n">
-        <v>233.2918357915463</v>
+        <v>246.3156114330247</v>
       </c>
       <c r="F106" t="n">
-        <v>45486100</v>
+        <v>100959800</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00461683128234025</v>
+        <v>-0.006692159687602506</v>
       </c>
       <c r="H106" t="n">
-        <v>235.2035461425781</v>
+        <v>233.7571807861328</v>
       </c>
       <c r="I106" t="n">
-        <v>238.9722671508789</v>
+        <v>239.3782250976562</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45687</v>
+        <v>45691</v>
       </c>
       <c r="B107" t="n">
-        <v>236.7495422363281</v>
+        <v>227.2034301757812</v>
       </c>
       <c r="C107" t="n">
-        <v>239.9382194716127</v>
+        <v>231.0099245763286</v>
       </c>
       <c r="D107" t="n">
-        <v>236.3708967927962</v>
+        <v>224.9016040205491</v>
       </c>
       <c r="E107" t="n">
-        <v>237.825723654139</v>
+        <v>229.1764370558195</v>
       </c>
       <c r="F107" t="n">
-        <v>55658300</v>
+        <v>73063300</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.007394821948502051</v>
+        <v>-0.03385603719127683</v>
       </c>
       <c r="H107" t="n">
-        <v>234.4756294250488</v>
+        <v>232.9679817199707</v>
       </c>
       <c r="I107" t="n">
-        <v>239.1590036010742</v>
+        <v>239.3780252075195</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45688</v>
+        <v>45692</v>
       </c>
       <c r="B108" t="n">
-        <v>235.1651916503906</v>
+        <v>231.9765167236328</v>
       </c>
       <c r="C108" t="n">
-        <v>246.3156114330247</v>
+        <v>232.3053512351318</v>
       </c>
       <c r="D108" t="n">
-        <v>232.61424963136</v>
+        <v>225.8482620717564</v>
       </c>
       <c r="E108" t="n">
-        <v>246.3156114330247</v>
+        <v>226.4461457662662</v>
       </c>
       <c r="F108" t="n">
-        <v>100959800</v>
+        <v>45067300</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.006692095667732989</v>
+        <v>0.02100798629738443</v>
       </c>
       <c r="H108" t="n">
-        <v>233.7571800231934</v>
+        <v>232.4418502807617</v>
       </c>
       <c r="I108" t="n">
-        <v>239.3782257080078</v>
+        <v>239.4681057739258</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45691</v>
+        <v>45693</v>
       </c>
       <c r="B109" t="n">
-        <v>227.2034454345703</v>
+        <v>231.6476745605469</v>
       </c>
       <c r="C109" t="n">
-        <v>231.0099400907586</v>
+        <v>231.8469640505294</v>
       </c>
       <c r="D109" t="n">
-        <v>224.9016191247495</v>
+        <v>227.4625344516602</v>
       </c>
       <c r="E109" t="n">
-        <v>229.1764524471141</v>
+        <v>227.7216092681561</v>
       </c>
       <c r="F109" t="n">
-        <v>73063300</v>
+        <v>39620300</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.03385597230587034</v>
+        <v>-0.001417566604285714</v>
       </c>
       <c r="H109" t="n">
-        <v>232.9679809570312</v>
+        <v>231.8175666809082</v>
       </c>
       <c r="I109" t="n">
-        <v>239.3780264282227</v>
+        <v>239.5372604370117</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45692</v>
+        <v>45694</v>
       </c>
       <c r="B110" t="n">
-        <v>231.9765014648438</v>
+        <v>232.39501953125</v>
       </c>
       <c r="C110" t="n">
-        <v>232.3053359547129</v>
+        <v>232.9729696905443</v>
       </c>
       <c r="D110" t="n">
-        <v>225.8482472160674</v>
+        <v>229.6148802340382</v>
       </c>
       <c r="E110" t="n">
-        <v>226.44613087125</v>
+        <v>230.4718387178451</v>
       </c>
       <c r="F110" t="n">
-        <v>45067300</v>
+        <v>29925300</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02100785056821675</v>
+        <v>0.003226213999863781</v>
       </c>
       <c r="H110" t="n">
-        <v>232.4418479919433</v>
+        <v>231.3696571350098</v>
       </c>
       <c r="I110" t="n">
-        <v>239.4681066894531</v>
+        <v>239.630927734375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45693</v>
+        <v>45695</v>
       </c>
       <c r="B111" t="n">
-        <v>231.6476745605469</v>
+        <v>226.8248138427734</v>
       </c>
       <c r="C111" t="n">
-        <v>231.8469640505294</v>
+        <v>233.1722765042942</v>
       </c>
       <c r="D111" t="n">
-        <v>227.4625344516602</v>
+        <v>226.4561122970612</v>
       </c>
       <c r="E111" t="n">
-        <v>227.7216092681561</v>
+        <v>231.7772347780746</v>
       </c>
       <c r="F111" t="n">
-        <v>39620300</v>
+        <v>39707200</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.001417500920224524</v>
+        <v>-0.02396869648803956</v>
       </c>
       <c r="H111" t="n">
-        <v>231.8175643920898</v>
+        <v>230.618824005127</v>
       </c>
       <c r="I111" t="n">
-        <v>239.5372613525391</v>
+        <v>239.5862866210938</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45694</v>
+        <v>45698</v>
       </c>
       <c r="B112" t="n">
-        <v>232.39501953125</v>
+        <v>227.0941162109375</v>
       </c>
       <c r="C112" t="n">
-        <v>232.9729696905443</v>
+        <v>230.0269397294514</v>
       </c>
       <c r="D112" t="n">
-        <v>229.6148802340382</v>
+        <v>226.6452180690595</v>
       </c>
       <c r="E112" t="n">
-        <v>230.4718387178451</v>
+        <v>229.0094413336025</v>
       </c>
       <c r="F112" t="n">
-        <v>29925300</v>
+        <v>33115600</v>
       </c>
       <c r="G112" t="n">
-        <v>0.003226213999863781</v>
+        <v>0.001187270314925604</v>
       </c>
       <c r="H112" t="n">
-        <v>231.369654083252</v>
+        <v>230.1729202270508</v>
       </c>
       <c r="I112" t="n">
-        <v>239.6309289550781</v>
+        <v>239.4872439575195</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45695</v>
+        <v>45699</v>
       </c>
       <c r="B113" t="n">
-        <v>226.8247833251953</v>
+        <v>232.0519866943359</v>
       </c>
       <c r="C113" t="n">
-        <v>233.1722451327125</v>
+        <v>234.6556142397685</v>
       </c>
       <c r="D113" t="n">
-        <v>226.4560818290891</v>
+        <v>227.5729600586419</v>
       </c>
       <c r="E113" t="n">
-        <v>231.7772035941854</v>
+        <v>227.6427812183734</v>
       </c>
       <c r="F113" t="n">
-        <v>39707200</v>
+        <v>53718400</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.02396882780573384</v>
+        <v>0.02183178748142156</v>
       </c>
       <c r="H113" t="n">
-        <v>230.6188201904297</v>
+        <v>230.0969772338867</v>
       </c>
       <c r="I113" t="n">
-        <v>239.5862875366211</v>
+        <v>239.443713684082</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45698</v>
+        <v>45700</v>
       </c>
       <c r="B114" t="n">
-        <v>227.0941162109375</v>
+        <v>236.2916107177734</v>
       </c>
       <c r="C114" t="n">
-        <v>230.0269397294514</v>
+        <v>236.3814025259431</v>
       </c>
       <c r="D114" t="n">
-        <v>226.6452180690595</v>
+        <v>230.1167229000774</v>
       </c>
       <c r="E114" t="n">
-        <v>229.0094413336025</v>
+        <v>230.6354574365439</v>
       </c>
       <c r="F114" t="n">
-        <v>33115600</v>
+        <v>45243300</v>
       </c>
       <c r="G114" t="n">
-        <v>0.001187405017184728</v>
+        <v>0.01827014749510436</v>
       </c>
       <c r="H114" t="n">
-        <v>230.172917175293</v>
+        <v>230.2888175964355</v>
       </c>
       <c r="I114" t="n">
-        <v>239.4872448730469</v>
+        <v>239.4875668334961</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45699</v>
+        <v>45701</v>
       </c>
       <c r="B115" t="n">
-        <v>232.052001953125</v>
+        <v>240.9402313232422</v>
       </c>
       <c r="C115" t="n">
-        <v>234.6556296697615</v>
+        <v>241.7482510314573</v>
       </c>
       <c r="D115" t="n">
-        <v>227.5729750229086</v>
+        <v>234.9947929630853</v>
       </c>
       <c r="E115" t="n">
-        <v>227.6427961872311</v>
+        <v>236.3315173006641</v>
       </c>
       <c r="F115" t="n">
-        <v>53718400</v>
+        <v>53614100</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02183185467289839</v>
+        <v>0.01967323592804604</v>
       </c>
       <c r="H115" t="n">
-        <v>230.0969749450684</v>
+        <v>230.4844009399414</v>
       </c>
       <c r="I115" t="n">
-        <v>239.4437149047852</v>
+        <v>239.5765618896484</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45700</v>
+        <v>45702</v>
       </c>
       <c r="B116" t="n">
-        <v>236.2916107177734</v>
+        <v>244.0027465820312</v>
       </c>
       <c r="C116" t="n">
-        <v>236.3814025259431</v>
+        <v>244.9504238462646</v>
       </c>
       <c r="D116" t="n">
-        <v>230.1167229000774</v>
+        <v>240.4015608007201</v>
       </c>
       <c r="E116" t="n">
-        <v>230.6354574365439</v>
+        <v>240.6609204580431</v>
       </c>
       <c r="F116" t="n">
-        <v>45243300</v>
+        <v>40896200</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01827008053783064</v>
+        <v>0.01271068447958967</v>
       </c>
       <c r="H116" t="n">
-        <v>230.2888153076172</v>
+        <v>231.3119102478027</v>
       </c>
       <c r="I116" t="n">
-        <v>239.4875677490234</v>
+        <v>239.6817672729492</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45701</v>
+        <v>45706</v>
       </c>
       <c r="B117" t="n">
-        <v>240.9402465820312</v>
+        <v>243.8730621337891</v>
       </c>
       <c r="C117" t="n">
-        <v>241.7482663414184</v>
+        <v>244.5813199542748</v>
       </c>
       <c r="D117" t="n">
-        <v>234.9948078453487</v>
+        <v>241.2494791133952</v>
       </c>
       <c r="E117" t="n">
-        <v>236.3315322675825</v>
+        <v>243.5538361932942</v>
       </c>
       <c r="F117" t="n">
-        <v>53614100</v>
+        <v>48822500</v>
       </c>
       <c r="G117" t="n">
-        <v>0.01967330050413918</v>
+        <v>-0.0005314876576546501</v>
       </c>
       <c r="H117" t="n">
-        <v>230.484400177002</v>
+        <v>232.0472396850586</v>
       </c>
       <c r="I117" t="n">
-        <v>239.5765631103516</v>
+        <v>239.7233953857422</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45702</v>
+        <v>45707</v>
       </c>
       <c r="B118" t="n">
-        <v>244.0027465820312</v>
+        <v>244.2720794677734</v>
       </c>
       <c r="C118" t="n">
-        <v>244.9504238462646</v>
+        <v>245.4092952437126</v>
       </c>
       <c r="D118" t="n">
-        <v>240.4015608007201</v>
+        <v>242.56626341463</v>
       </c>
       <c r="E118" t="n">
-        <v>240.6609204580431</v>
+        <v>244.0626007630516</v>
       </c>
       <c r="F118" t="n">
-        <v>40896200</v>
+        <v>32204200</v>
       </c>
       <c r="G118" t="n">
-        <v>0.01271062034444026</v>
+        <v>0.001636168138018812</v>
       </c>
       <c r="H118" t="n">
-        <v>231.3119094848633</v>
+        <v>233.1682220458984</v>
       </c>
       <c r="I118" t="n">
-        <v>239.6817684936524</v>
+        <v>239.7658294677734</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="B119" t="n">
-        <v>243.8730621337891</v>
+        <v>245.2297515869141</v>
       </c>
       <c r="C119" t="n">
-        <v>244.5813199542748</v>
+        <v>246.1774289000594</v>
       </c>
       <c r="D119" t="n">
-        <v>241.2494791133952</v>
+        <v>243.6935033255141</v>
       </c>
       <c r="E119" t="n">
-        <v>243.5538361932942</v>
+        <v>244.3419253345839</v>
       </c>
       <c r="F119" t="n">
-        <v>48822500</v>
+        <v>32316900</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.0005314876576546501</v>
+        <v>0.00392051404821725</v>
       </c>
       <c r="H119" t="n">
-        <v>232.0472389221191</v>
+        <v>234.2777976989746</v>
       </c>
       <c r="I119" t="n">
-        <v>239.7233966064453</v>
+        <v>239.8268188476563</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45707</v>
+        <v>45709</v>
       </c>
       <c r="B120" t="n">
-        <v>244.2720794677734</v>
+        <v>244.9504241943359</v>
       </c>
       <c r="C120" t="n">
-        <v>245.4092952437126</v>
+        <v>248.0827563992035</v>
       </c>
       <c r="D120" t="n">
-        <v>242.56626341463</v>
+        <v>244.6212281548445</v>
       </c>
       <c r="E120" t="n">
-        <v>244.0626007630516</v>
+        <v>245.3494413940968</v>
       </c>
       <c r="F120" t="n">
-        <v>32204200</v>
+        <v>53197400</v>
       </c>
       <c r="G120" t="n">
-        <v>0.001636168138018812</v>
+        <v>-0.001139043655064564</v>
       </c>
       <c r="H120" t="n">
-        <v>233.168221282959</v>
+        <v>235.381876373291</v>
       </c>
       <c r="I120" t="n">
-        <v>239.7658303833008</v>
+        <v>239.8862075805664</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45708</v>
+        <v>45712</v>
       </c>
       <c r="B121" t="n">
-        <v>245.229736328125</v>
+        <v>246.4966430664062</v>
       </c>
       <c r="C121" t="n">
-        <v>246.1774135823035</v>
+        <v>248.2523400596659</v>
       </c>
       <c r="D121" t="n">
-        <v>243.6934881623141</v>
+        <v>243.8231791127624</v>
       </c>
       <c r="E121" t="n">
-        <v>244.3419101310375</v>
+        <v>244.3319283268952</v>
       </c>
       <c r="F121" t="n">
-        <v>32316900</v>
+        <v>51326400</v>
       </c>
       <c r="G121" t="n">
-        <v>0.003920451581851392</v>
+        <v>0.006312374747486027</v>
       </c>
       <c r="H121" t="n">
-        <v>234.2777969360351</v>
+        <v>236.6071113586426</v>
       </c>
       <c r="I121" t="n">
-        <v>239.8268197631836</v>
+        <v>239.8985974121094</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45709</v>
+        <v>45713</v>
       </c>
       <c r="B122" t="n">
-        <v>244.9504241943359</v>
+        <v>246.4367828369141</v>
       </c>
       <c r="C122" t="n">
-        <v>248.0827563992035</v>
+        <v>249.3895619478502</v>
       </c>
       <c r="D122" t="n">
-        <v>244.6212281548445</v>
+        <v>244.3119941197594</v>
       </c>
       <c r="E122" t="n">
-        <v>245.3494413940968</v>
+        <v>247.3944454522674</v>
       </c>
       <c r="F122" t="n">
-        <v>53197400</v>
+        <v>48013300</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.001138981503512881</v>
+        <v>-0.0002428439947397276</v>
       </c>
       <c r="H122" t="n">
-        <v>235.3818756103516</v>
+        <v>237.4766052246094</v>
       </c>
       <c r="I122" t="n">
-        <v>239.8862088012695</v>
+        <v>239.8894619750976</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45712</v>
+        <v>45714</v>
       </c>
       <c r="B123" t="n">
-        <v>246.4966430664062</v>
+        <v>239.7731018066406</v>
       </c>
       <c r="C123" t="n">
-        <v>248.2523400596659</v>
+        <v>244.3818160551289</v>
       </c>
       <c r="D123" t="n">
-        <v>243.8231791127624</v>
+        <v>238.5461094200037</v>
       </c>
       <c r="E123" t="n">
-        <v>244.3319283268952</v>
+        <v>243.7334092806253</v>
       </c>
       <c r="F123" t="n">
-        <v>51326400</v>
+        <v>44433600</v>
       </c>
       <c r="G123" t="n">
-        <v>0.006312374747486027</v>
+        <v>-0.0270401234489549</v>
       </c>
       <c r="H123" t="n">
-        <v>236.6071105957031</v>
+        <v>237.594401550293</v>
       </c>
       <c r="I123" t="n">
-        <v>239.8985986328125</v>
+        <v>239.7725622558594</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45713</v>
+        <v>45715</v>
       </c>
       <c r="B124" t="n">
-        <v>246.4367828369141</v>
+        <v>236.7205657958984</v>
       </c>
       <c r="C124" t="n">
-        <v>249.3895619478502</v>
+        <v>241.8679698021977</v>
       </c>
       <c r="D124" t="n">
-        <v>244.3119941197594</v>
+        <v>236.4811463462344</v>
       </c>
       <c r="E124" t="n">
-        <v>247.3944454522674</v>
+        <v>238.8254142235791</v>
       </c>
       <c r="F124" t="n">
-        <v>48013300</v>
+        <v>41153600</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.0002428439947397276</v>
+        <v>-0.01273093598799013</v>
       </c>
       <c r="H124" t="n">
-        <v>237.4766052246094</v>
+        <v>237.5047653198242</v>
       </c>
       <c r="I124" t="n">
-        <v>239.8894631958008</v>
+        <v>239.5653158569336</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45714</v>
+        <v>45716</v>
       </c>
       <c r="B125" t="n">
-        <v>239.7730865478516</v>
+        <v>241.2494812011719</v>
       </c>
       <c r="C125" t="n">
-        <v>244.3818005030484</v>
+        <v>241.4988707612677</v>
       </c>
       <c r="D125" t="n">
-        <v>238.5460942392985</v>
+        <v>229.6379038919695</v>
       </c>
       <c r="E125" t="n">
-        <v>243.7333937698084</v>
+        <v>236.3714220145579</v>
       </c>
       <c r="F125" t="n">
-        <v>44433600</v>
+        <v>56833400</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.02704018536661534</v>
+        <v>0.01913190512216967</v>
       </c>
       <c r="H125" t="n">
-        <v>237.5944000244141</v>
+        <v>237.729761505127</v>
       </c>
       <c r="I125" t="n">
-        <v>239.7725634765625</v>
+        <v>239.4452597045898</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45715</v>
+        <v>45719</v>
       </c>
       <c r="B126" t="n">
-        <v>236.7205657958984</v>
+        <v>237.4487762451172</v>
       </c>
       <c r="C126" t="n">
-        <v>241.8679698021977</v>
+        <v>243.4341254228554</v>
       </c>
       <c r="D126" t="n">
-        <v>236.4811463462344</v>
+        <v>235.5334663348245</v>
       </c>
       <c r="E126" t="n">
-        <v>238.8254142235791</v>
+        <v>241.1995895834156</v>
       </c>
       <c r="F126" t="n">
-        <v>41153600</v>
+        <v>47184000</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.01273087315971111</v>
+        <v>-0.01575425131333397</v>
       </c>
       <c r="H126" t="n">
-        <v>237.5047630310059</v>
+        <v>237.8439407348633</v>
       </c>
       <c r="I126" t="n">
-        <v>239.5653170776367</v>
+        <v>239.1911959838867</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45716</v>
+        <v>45720</v>
       </c>
       <c r="B127" t="n">
-        <v>241.2494812011719</v>
+        <v>235.3539123535156</v>
       </c>
       <c r="C127" t="n">
-        <v>241.4988707612677</v>
+        <v>239.4838181516717</v>
       </c>
       <c r="D127" t="n">
-        <v>229.6379038919695</v>
+        <v>234.1069645318108</v>
       </c>
       <c r="E127" t="n">
-        <v>236.3714220145579</v>
+        <v>237.1295800554318</v>
       </c>
       <c r="F127" t="n">
-        <v>56833400</v>
+        <v>53798100</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01913190512216967</v>
+        <v>-0.0088223823459046</v>
       </c>
       <c r="H127" t="n">
-        <v>237.7297599792481</v>
+        <v>238.25146484375</v>
       </c>
       <c r="I127" t="n">
-        <v>239.4452612304688</v>
+        <v>238.8466073608398</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45719</v>
+        <v>45721</v>
       </c>
       <c r="B128" t="n">
-        <v>237.4487762451172</v>
+        <v>235.1643829345703</v>
       </c>
       <c r="C128" t="n">
-        <v>243.4341254228554</v>
+        <v>235.9724026665064</v>
       </c>
       <c r="D128" t="n">
-        <v>235.5334663348245</v>
+        <v>228.6702691068024</v>
       </c>
       <c r="E128" t="n">
-        <v>241.1995895834156</v>
+        <v>234.8451569942085</v>
       </c>
       <c r="F128" t="n">
-        <v>47184000</v>
+        <v>47227600</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.01575425131333397</v>
+        <v>-0.0008052953828132647</v>
       </c>
       <c r="H128" t="n">
-        <v>237.8439392089844</v>
+        <v>238.4108581542969</v>
       </c>
       <c r="I128" t="n">
-        <v>239.1911975097656</v>
+        <v>238.6064437866211</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45720</v>
+        <v>45722</v>
       </c>
       <c r="B129" t="n">
-        <v>235.3539123535156</v>
+        <v>234.7553863525391</v>
       </c>
       <c r="C129" t="n">
-        <v>239.4838181516717</v>
+        <v>237.2792075240176</v>
       </c>
       <c r="D129" t="n">
-        <v>234.1069645318108</v>
+        <v>232.5906867622982</v>
       </c>
       <c r="E129" t="n">
-        <v>237.1295800554318</v>
+        <v>233.8675601130252</v>
       </c>
       <c r="F129" t="n">
-        <v>53798100</v>
+        <v>45170400</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.0088223823459046</v>
+        <v>-0.001739194417655687</v>
       </c>
       <c r="H129" t="n">
-        <v>238.2514625549316</v>
+        <v>238.5662437438965</v>
       </c>
       <c r="I129" t="n">
-        <v>238.8466088867187</v>
+        <v>238.3234237670898</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="B130" t="n">
-        <v>235.1643829345703</v>
+        <v>238.4862518310547</v>
       </c>
       <c r="C130" t="n">
-        <v>235.9724026665064</v>
+        <v>240.7806235681937</v>
       </c>
       <c r="D130" t="n">
-        <v>228.6702691068024</v>
+        <v>234.1867631010968</v>
       </c>
       <c r="E130" t="n">
-        <v>234.8451569942085</v>
+        <v>234.5359145679817</v>
       </c>
       <c r="F130" t="n">
-        <v>47227600</v>
+        <v>46273600</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.0008052953828132647</v>
+        <v>0.01589256603004152</v>
       </c>
       <c r="H130" t="n">
-        <v>238.410856628418</v>
+        <v>238.8708053588867</v>
       </c>
       <c r="I130" t="n">
-        <v>238.6064453125</v>
+        <v>238.0213534545898</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45722</v>
+        <v>45726</v>
       </c>
       <c r="B131" t="n">
-        <v>234.7553863525391</v>
+        <v>226.9245452880859</v>
       </c>
       <c r="C131" t="n">
-        <v>237.2792075240176</v>
+        <v>235.583358769024</v>
       </c>
       <c r="D131" t="n">
-        <v>232.5906867622982</v>
+        <v>223.6725108894593</v>
       </c>
       <c r="E131" t="n">
-        <v>233.8675601130252</v>
+        <v>234.9648623065443</v>
       </c>
       <c r="F131" t="n">
-        <v>45170400</v>
+        <v>72071200</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.001739194417655687</v>
+        <v>-0.04847955156408401</v>
       </c>
       <c r="H131" t="n">
-        <v>238.5662422180176</v>
+        <v>238.8757919311523</v>
       </c>
       <c r="I131" t="n">
-        <v>238.323424987793</v>
+        <v>237.4725039672851</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45723</v>
+        <v>45727</v>
       </c>
       <c r="B132" t="n">
-        <v>238.4862518310547</v>
+        <v>220.3007507324219</v>
       </c>
       <c r="C132" t="n">
-        <v>240.7806235681937</v>
+        <v>225.2885417663285</v>
       </c>
       <c r="D132" t="n">
-        <v>234.1867631010968</v>
+        <v>216.9190290202944</v>
       </c>
       <c r="E132" t="n">
-        <v>234.5359145679817</v>
+        <v>223.2634998242848</v>
       </c>
       <c r="F132" t="n">
-        <v>46273600</v>
+        <v>76137400</v>
       </c>
       <c r="G132" t="n">
-        <v>0.01589256603004152</v>
+        <v>-0.02918941424893018</v>
       </c>
       <c r="H132" t="n">
-        <v>238.8708038330078</v>
+        <v>238.5361236572266</v>
       </c>
       <c r="I132" t="n">
-        <v>238.0213540649414</v>
+        <v>236.732785949707</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45726</v>
+        <v>45728</v>
       </c>
       <c r="B133" t="n">
-        <v>226.9245452880859</v>
+        <v>216.4501800537109</v>
       </c>
       <c r="C133" t="n">
-        <v>235.583358769024</v>
+        <v>221.208537063394</v>
       </c>
       <c r="D133" t="n">
-        <v>223.6725108894593</v>
+        <v>214.3852424369058</v>
       </c>
       <c r="E133" t="n">
-        <v>234.9648623065443</v>
+        <v>219.6024677074209</v>
       </c>
       <c r="F133" t="n">
-        <v>72071200</v>
+        <v>62547500</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.04847955156408401</v>
+        <v>-0.01747869975889393</v>
       </c>
       <c r="H133" t="n">
-        <v>238.8757919311523</v>
+        <v>237.7560333251953</v>
       </c>
       <c r="I133" t="n">
-        <v>237.4725042724609</v>
+        <v>235.8997149658203</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45727</v>
+        <v>45729</v>
       </c>
       <c r="B134" t="n">
-        <v>220.3007659912109</v>
+        <v>209.1679992675781</v>
       </c>
       <c r="C134" t="n">
-        <v>225.2885573705892</v>
+        <v>216.3105197419454</v>
       </c>
       <c r="D134" t="n">
-        <v>216.9190440448537</v>
+        <v>207.9110813961123</v>
       </c>
       <c r="E134" t="n">
-        <v>223.2635152882841</v>
+        <v>215.4226935392329</v>
       </c>
       <c r="F134" t="n">
-        <v>76137400</v>
+        <v>61368300</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.02918934700724396</v>
+        <v>-0.0336436808891809</v>
       </c>
       <c r="H134" t="n">
-        <v>238.536124420166</v>
+        <v>236.3998527526855</v>
       </c>
       <c r="I134" t="n">
-        <v>236.732785949707</v>
+        <v>234.9893576049805</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45728</v>
+        <v>45730</v>
       </c>
       <c r="B135" t="n">
-        <v>216.4501800537109</v>
+        <v>212.9687042236328</v>
       </c>
       <c r="C135" t="n">
-        <v>221.208537063394</v>
+        <v>213.4275724686152</v>
       </c>
       <c r="D135" t="n">
-        <v>214.3852424369058</v>
+        <v>209.0682480336321</v>
       </c>
       <c r="E135" t="n">
-        <v>219.6024677074209</v>
+        <v>210.7341683902996</v>
       </c>
       <c r="F135" t="n">
-        <v>62547500</v>
+        <v>60107600</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.01747876781169988</v>
+        <v>0.01817058522031689</v>
       </c>
       <c r="H135" t="n">
-        <v>237.7560333251953</v>
+        <v>235.0012763977051</v>
       </c>
       <c r="I135" t="n">
-        <v>235.8997149658203</v>
+        <v>234.2225744628906</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45729</v>
+        <v>45733</v>
       </c>
       <c r="B136" t="n">
-        <v>209.1680145263672</v>
+        <v>213.4774627685547</v>
       </c>
       <c r="C136" t="n">
-        <v>216.3105355217808</v>
+        <v>214.6944850357054</v>
       </c>
       <c r="D136" t="n">
-        <v>207.9110965632093</v>
+        <v>209.4573042902151</v>
       </c>
       <c r="E136" t="n">
-        <v>215.4227092543014</v>
+        <v>212.7891451494168</v>
       </c>
       <c r="F136" t="n">
-        <v>61368300</v>
+        <v>48073400</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.03364361039356367</v>
+        <v>0.002388888765495034</v>
       </c>
       <c r="H136" t="n">
-        <v>236.399853515625</v>
+        <v>233.4750122070313</v>
       </c>
       <c r="I136" t="n">
-        <v>234.9893576049805</v>
+        <v>233.5014401245117</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45730</v>
+        <v>45734</v>
       </c>
       <c r="B137" t="n">
-        <v>212.9687194824219</v>
+        <v>212.1706695556641</v>
       </c>
       <c r="C137" t="n">
-        <v>213.4275877602813</v>
+        <v>214.624654360469</v>
       </c>
       <c r="D137" t="n">
-        <v>209.0682630129612</v>
+        <v>210.973602683452</v>
       </c>
       <c r="E137" t="n">
-        <v>210.7341834889886</v>
+        <v>213.6370814211214</v>
       </c>
       <c r="F137" t="n">
-        <v>60107600</v>
+        <v>42432400</v>
       </c>
       <c r="G137" t="n">
-        <v>0.01817058389477411</v>
+        <v>-0.006121457487563542</v>
       </c>
       <c r="H137" t="n">
-        <v>235.0012771606445</v>
+        <v>231.889892578125</v>
       </c>
       <c r="I137" t="n">
-        <v>234.2225744628906</v>
+        <v>232.8851052856445</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45733</v>
+        <v>45735</v>
       </c>
       <c r="B138" t="n">
-        <v>213.4774627685547</v>
+        <v>214.7144317626953</v>
       </c>
       <c r="C138" t="n">
-        <v>214.6944850357054</v>
+        <v>218.2258256559903</v>
       </c>
       <c r="D138" t="n">
-        <v>209.4573042902151</v>
+        <v>213.2280645696868</v>
       </c>
       <c r="E138" t="n">
-        <v>212.7891451494168</v>
+        <v>213.6969181399133</v>
       </c>
       <c r="F138" t="n">
-        <v>48073400</v>
+        <v>54385400</v>
       </c>
       <c r="G138" t="n">
-        <v>0.002388816946306438</v>
+        <v>0.01198922646734579</v>
       </c>
       <c r="H138" t="n">
-        <v>233.4750129699707</v>
+        <v>230.4120101928711</v>
       </c>
       <c r="I138" t="n">
-        <v>233.5014401245117</v>
+        <v>232.3294110107422</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="B139" t="n">
-        <v>212.170654296875</v>
+        <v>213.5772247314453</v>
       </c>
       <c r="C139" t="n">
-        <v>214.6246389251954</v>
+        <v>216.9589465476154</v>
       </c>
       <c r="D139" t="n">
-        <v>210.9735875107531</v>
+        <v>211.7018103741075</v>
       </c>
       <c r="E139" t="n">
-        <v>213.6370660568716</v>
+        <v>213.4674927164621</v>
       </c>
       <c r="F139" t="n">
-        <v>42432400</v>
+        <v>48862900</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.006121528964846634</v>
+        <v>-0.005296369796450651</v>
       </c>
       <c r="H139" t="n">
-        <v>231.889892578125</v>
+        <v>228.8293838500977</v>
       </c>
       <c r="I139" t="n">
-        <v>232.885104675293</v>
+        <v>231.7182885742187</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45735</v>
+        <v>45737</v>
       </c>
       <c r="B140" t="n">
-        <v>214.7144317626953</v>
+        <v>217.7370452880859</v>
       </c>
       <c r="C140" t="n">
-        <v>218.2258256559903</v>
+        <v>218.3056455800866</v>
       </c>
       <c r="D140" t="n">
-        <v>213.2280645696868</v>
+        <v>210.7641075832368</v>
       </c>
       <c r="E140" t="n">
-        <v>213.6969181399133</v>
+        <v>211.0434226778215</v>
       </c>
       <c r="F140" t="n">
-        <v>54385400</v>
+        <v>94127800</v>
       </c>
       <c r="G140" t="n">
-        <v>0.01198929924710979</v>
+        <v>0.01947689207906533</v>
       </c>
       <c r="H140" t="n">
-        <v>230.4120101928711</v>
+        <v>227.4687149047851</v>
       </c>
       <c r="I140" t="n">
-        <v>232.3294100952149</v>
+        <v>231.2459652709961</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45736</v>
+        <v>45740</v>
       </c>
       <c r="B141" t="n">
-        <v>213.5772247314453</v>
+        <v>220.1910247802734</v>
       </c>
       <c r="C141" t="n">
-        <v>216.9589465476154</v>
+        <v>220.9391934559484</v>
       </c>
       <c r="D141" t="n">
-        <v>211.7018103741075</v>
+        <v>218.0462806652843</v>
       </c>
       <c r="E141" t="n">
-        <v>213.4674927164621</v>
+        <v>220.460369765545</v>
       </c>
       <c r="F141" t="n">
-        <v>48862900</v>
+        <v>44299500</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.005296369796450651</v>
+        <v>0.01127038115604373</v>
       </c>
       <c r="H141" t="n">
-        <v>228.8293846130371</v>
+        <v>226.1534339904785</v>
       </c>
       <c r="I141" t="n">
-        <v>231.7182876586914</v>
+        <v>230.812956237793</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45737</v>
+        <v>45741</v>
       </c>
       <c r="B142" t="n">
-        <v>217.7370300292969</v>
+        <v>223.2036590576172</v>
       </c>
       <c r="C142" t="n">
-        <v>218.3056302814506</v>
+        <v>223.5528105346996</v>
       </c>
       <c r="D142" t="n">
-        <v>210.764092813104</v>
+        <v>219.5426220965296</v>
       </c>
       <c r="E142" t="n">
-        <v>211.0434078881146</v>
+        <v>220.2309397263869</v>
       </c>
       <c r="F142" t="n">
-        <v>94127800</v>
+        <v>34493600</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0194768206351692</v>
+        <v>0.01368191224120063</v>
       </c>
       <c r="H142" t="n">
-        <v>227.4687149047851</v>
+        <v>224.9917778015137</v>
       </c>
       <c r="I142" t="n">
-        <v>231.2459637451172</v>
+        <v>230.5567855834961</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45740</v>
+        <v>45742</v>
       </c>
       <c r="B143" t="n">
-        <v>220.1910247802734</v>
+        <v>220.9890747070312</v>
       </c>
       <c r="C143" t="n">
-        <v>220.9391934559484</v>
+        <v>224.4705584289048</v>
       </c>
       <c r="D143" t="n">
-        <v>218.0462806652843</v>
+        <v>219.9316654127771</v>
       </c>
       <c r="E143" t="n">
-        <v>220.460369765545</v>
+        <v>222.9642357514217</v>
       </c>
       <c r="F143" t="n">
-        <v>44299500</v>
+        <v>34466100</v>
       </c>
       <c r="G143" t="n">
-        <v>0.011270452024841</v>
+        <v>-0.009921810242430995</v>
       </c>
       <c r="H143" t="n">
-        <v>226.1534339904785</v>
+        <v>224.0525764465332</v>
       </c>
       <c r="I143" t="n">
-        <v>230.8129550170898</v>
+        <v>230.3051501464844</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45741</v>
+        <v>45743</v>
       </c>
       <c r="B144" t="n">
-        <v>223.2036590576172</v>
+        <v>223.3034210205078</v>
       </c>
       <c r="C144" t="n">
-        <v>223.5528105346996</v>
+        <v>224.4406368200556</v>
       </c>
       <c r="D144" t="n">
-        <v>219.5426220965296</v>
+        <v>220.0214458441122</v>
       </c>
       <c r="E144" t="n">
-        <v>220.2309397263869</v>
+        <v>220.8494210206779</v>
       </c>
       <c r="F144" t="n">
-        <v>34493600</v>
+        <v>37094800</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01368191224120063</v>
+        <v>0.01047267298867482</v>
       </c>
       <c r="H144" t="n">
-        <v>224.9917778015137</v>
+        <v>223.3817192077637</v>
       </c>
       <c r="I144" t="n">
-        <v>230.5567846679687</v>
+        <v>230.1221224975586</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45742</v>
+        <v>45744</v>
       </c>
       <c r="B145" t="n">
-        <v>220.9890594482422</v>
+        <v>217.3679351806641</v>
       </c>
       <c r="C145" t="n">
-        <v>224.4705429297273</v>
+        <v>223.2635080532047</v>
       </c>
       <c r="D145" t="n">
-        <v>219.9316502269997</v>
+        <v>217.1484711493609</v>
       </c>
       <c r="E145" t="n">
-        <v>222.9642203562523</v>
+        <v>221.1287340208715</v>
       </c>
       <c r="F145" t="n">
-        <v>34466100</v>
+        <v>39818600</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.009921878605060552</v>
+        <v>-0.02658036232816441</v>
       </c>
       <c r="H145" t="n">
-        <v>224.0525764465332</v>
+        <v>222.1876419067383</v>
       </c>
       <c r="I145" t="n">
-        <v>230.3051489257813</v>
+        <v>229.7289099121094</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45743</v>
+        <v>45747</v>
       </c>
       <c r="B146" t="n">
-        <v>223.3034057617188</v>
+        <v>221.5876159667969</v>
       </c>
       <c r="C146" t="n">
-        <v>224.4406214835582</v>
+        <v>225.0690844707504</v>
       </c>
       <c r="D146" t="n">
-        <v>220.0214308095873</v>
+        <v>215.7020132379398</v>
       </c>
       <c r="E146" t="n">
-        <v>220.8494059295757</v>
+        <v>216.4801074447652</v>
       </c>
       <c r="F146" t="n">
-        <v>37094800</v>
+        <v>65299300</v>
       </c>
       <c r="G146" t="n">
-        <v>0.01047267371178884</v>
+        <v>0.01941261843714726</v>
       </c>
       <c r="H146" t="n">
-        <v>223.3817184448242</v>
+        <v>221.3945838928223</v>
       </c>
       <c r="I146" t="n">
-        <v>230.1221209716797</v>
+        <v>229.6116110229492</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45744</v>
+        <v>45748</v>
       </c>
       <c r="B147" t="n">
-        <v>217.3679351806641</v>
+        <v>222.6450347900391</v>
       </c>
       <c r="C147" t="n">
-        <v>223.2635080532047</v>
+        <v>223.1338286051108</v>
       </c>
       <c r="D147" t="n">
-        <v>217.1484711493609</v>
+        <v>218.3655012478301</v>
       </c>
       <c r="E147" t="n">
-        <v>221.1287340208715</v>
+        <v>219.273282935151</v>
       </c>
       <c r="F147" t="n">
-        <v>39818600</v>
+        <v>36412700</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.02658029581236332</v>
+        <v>0.004772012274371074</v>
       </c>
       <c r="H147" t="n">
-        <v>222.1876411437988</v>
+        <v>220.7591400146484</v>
       </c>
       <c r="I147" t="n">
-        <v>229.7289086914062</v>
+        <v>229.4811822509766</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="B148" t="n">
-        <v>221.5876159667969</v>
+        <v>223.3433227539062</v>
       </c>
       <c r="C148" t="n">
-        <v>225.0690844707504</v>
+        <v>224.6401515625236</v>
       </c>
       <c r="D148" t="n">
-        <v>215.7020132379398</v>
+        <v>220.4803353605096</v>
       </c>
       <c r="E148" t="n">
-        <v>216.4801074447652</v>
+        <v>220.7796058888877</v>
       </c>
       <c r="F148" t="n">
-        <v>65299300</v>
+        <v>35905900</v>
       </c>
       <c r="G148" t="n">
-        <v>0.01941261843714726</v>
+        <v>0.00313632848145784</v>
       </c>
       <c r="H148" t="n">
-        <v>221.3945831298828</v>
+        <v>220.1680870056152</v>
       </c>
       <c r="I148" t="n">
-        <v>229.6116098022461</v>
+        <v>229.5110000610352</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="B149" t="n">
-        <v>222.64501953125</v>
+        <v>202.69384765625</v>
       </c>
       <c r="C149" t="n">
-        <v>223.1338133128227</v>
+        <v>206.9833508454915</v>
       </c>
       <c r="D149" t="n">
-        <v>218.3654862823353</v>
+        <v>200.758582364718</v>
       </c>
       <c r="E149" t="n">
-        <v>219.2732679074421</v>
+        <v>205.0381002304481</v>
       </c>
       <c r="F149" t="n">
-        <v>36412700</v>
+        <v>103419000</v>
       </c>
       <c r="G149" t="n">
-        <v>0.004771943413171442</v>
+        <v>-0.09245620080797823</v>
       </c>
       <c r="H149" t="n">
-        <v>220.7591384887695</v>
+        <v>218.5650100708008</v>
       </c>
       <c r="I149" t="n">
-        <v>229.4811807250977</v>
+        <v>229.1041122436523</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45749</v>
+        <v>45751</v>
       </c>
       <c r="B150" t="n">
-        <v>223.3433074951172</v>
+        <v>187.9200286865234</v>
       </c>
       <c r="C150" t="n">
-        <v>224.6401362151353</v>
+        <v>199.391948603074</v>
       </c>
       <c r="D150" t="n">
-        <v>220.4803202973195</v>
+        <v>186.8825595787085</v>
       </c>
       <c r="E150" t="n">
-        <v>220.7795908052514</v>
+        <v>193.4165691841804</v>
       </c>
       <c r="F150" t="n">
-        <v>35905900</v>
+        <v>125910900</v>
       </c>
       <c r="G150" t="n">
-        <v>0.003136328696403456</v>
+        <v>-0.07288735766061138</v>
       </c>
       <c r="H150" t="n">
-        <v>220.1680847167969</v>
+        <v>216.0366989135742</v>
       </c>
       <c r="I150" t="n">
-        <v>229.5109982299805</v>
+        <v>228.4051358032227</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="B151" t="n">
-        <v>202.6938629150391</v>
+        <v>181.0169219970703</v>
       </c>
       <c r="C151" t="n">
-        <v>206.9833664271943</v>
+        <v>193.6759230716255</v>
       </c>
       <c r="D151" t="n">
-        <v>200.7585974778203</v>
+        <v>174.1936121775816</v>
       </c>
       <c r="E151" t="n">
-        <v>205.0381156657125</v>
+        <v>176.767314221695</v>
       </c>
       <c r="F151" t="n">
-        <v>103419000</v>
+        <v>160466300</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.09245607048480542</v>
+        <v>-0.0367342786061855</v>
       </c>
       <c r="H151" t="n">
-        <v>218.5650085449219</v>
+        <v>213.7413177490234</v>
       </c>
       <c r="I151" t="n">
-        <v>229.1041110229492</v>
+        <v>227.5856353759766</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45751</v>
+        <v>45755</v>
       </c>
       <c r="B152" t="n">
-        <v>187.9200286865234</v>
+        <v>171.9989776611328</v>
       </c>
       <c r="C152" t="n">
-        <v>199.391948603074</v>
+        <v>189.8752182218586</v>
       </c>
       <c r="D152" t="n">
-        <v>186.8825595787085</v>
+        <v>168.7968244629091</v>
       </c>
       <c r="E152" t="n">
-        <v>193.4165691841804</v>
+        <v>186.2441070957976</v>
       </c>
       <c r="F152" t="n">
-        <v>125910900</v>
+        <v>120859500</v>
       </c>
       <c r="G152" t="n">
-        <v>-0.07288742745362853</v>
+        <v>-0.04981823929192353</v>
       </c>
       <c r="H152" t="n">
-        <v>216.0366973876953</v>
+        <v>211.326229095459</v>
       </c>
       <c r="I152" t="n">
-        <v>228.4051345825195</v>
+        <v>226.4446768188477</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45754</v>
+        <v>45756</v>
       </c>
       <c r="B153" t="n">
-        <v>181.0169219970703</v>
+        <v>198.3644561767578</v>
       </c>
       <c r="C153" t="n">
-        <v>193.6759230716255</v>
+        <v>200.1201531468693</v>
       </c>
       <c r="D153" t="n">
-        <v>174.1936121775816</v>
+        <v>171.4702801336651</v>
       </c>
       <c r="E153" t="n">
-        <v>176.767314221695</v>
+        <v>171.5301311908292</v>
       </c>
       <c r="F153" t="n">
-        <v>160466300</v>
+        <v>184395900</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.0367342786061855</v>
+        <v>0.1532885769098551</v>
       </c>
       <c r="H153" t="n">
-        <v>213.7413162231445</v>
+        <v>210.4219429016113</v>
       </c>
       <c r="I153" t="n">
-        <v>227.5856341552734</v>
+        <v>225.6636224365234</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45755</v>
+        <v>45757</v>
       </c>
       <c r="B154" t="n">
-        <v>171.9989929199219</v>
+        <v>189.9550323486328</v>
       </c>
       <c r="C154" t="n">
-        <v>189.8752350665279</v>
+        <v>194.3043867491332</v>
       </c>
       <c r="D154" t="n">
-        <v>168.7968394376211</v>
+        <v>182.553152263757</v>
       </c>
       <c r="E154" t="n">
-        <v>186.244123618335</v>
+        <v>188.6083378992774</v>
       </c>
       <c r="F154" t="n">
-        <v>120859500</v>
+        <v>121880000</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.0498181549971024</v>
+        <v>-0.04239380376004243</v>
       </c>
       <c r="H154" t="n">
-        <v>211.3262275695801</v>
+        <v>209.4612945556641</v>
       </c>
       <c r="I154" t="n">
-        <v>226.4446762084961</v>
+        <v>224.6924572753906</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45756</v>
+        <v>45758</v>
       </c>
       <c r="B155" t="n">
-        <v>198.3644561767578</v>
+        <v>197.6661529541016</v>
       </c>
       <c r="C155" t="n">
-        <v>200.1201531468693</v>
+        <v>199.0527582552548</v>
       </c>
       <c r="D155" t="n">
-        <v>171.4702801336651</v>
+        <v>185.6056778647687</v>
       </c>
       <c r="E155" t="n">
-        <v>171.5301311908292</v>
+        <v>185.6455887171714</v>
       </c>
       <c r="F155" t="n">
-        <v>184395900</v>
+        <v>87435900</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1532884745965402</v>
+        <v>0.04059445285616969</v>
       </c>
       <c r="H155" t="n">
-        <v>210.4219413757324</v>
+        <v>208.6961669921875</v>
       </c>
       <c r="I155" t="n">
-        <v>225.6636215209961</v>
+        <v>223.9107891845703</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45757</v>
+        <v>45761</v>
       </c>
       <c r="B156" t="n">
-        <v>189.9550476074219</v>
+        <v>202.0254974365234</v>
       </c>
       <c r="C156" t="n">
-        <v>194.3044023572991</v>
+        <v>212.4200523889158</v>
       </c>
       <c r="D156" t="n">
-        <v>182.5531669279647</v>
+        <v>200.6688176319417</v>
       </c>
       <c r="E156" t="n">
-        <v>188.6083530498886</v>
+        <v>210.9237150406947</v>
       </c>
       <c r="F156" t="n">
-        <v>121880000</v>
+        <v>101352900</v>
       </c>
       <c r="G156" t="n">
-        <v>-0.04239372683704234</v>
+        <v>0.02205407661995684</v>
       </c>
       <c r="H156" t="n">
-        <v>209.4612930297852</v>
+        <v>208.1235687255859</v>
       </c>
       <c r="I156" t="n">
-        <v>224.6924563598633</v>
+        <v>223.247995300293</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45758</v>
+        <v>45762</v>
       </c>
       <c r="B157" t="n">
-        <v>197.6661529541016</v>
+        <v>201.6464080810547</v>
       </c>
       <c r="C157" t="n">
-        <v>199.0527582552548</v>
+        <v>203.0130579044621</v>
       </c>
       <c r="D157" t="n">
-        <v>185.6056778647687</v>
+        <v>199.3121256140358</v>
       </c>
       <c r="E157" t="n">
-        <v>185.6455887171714</v>
+        <v>201.3670930108916</v>
       </c>
       <c r="F157" t="n">
-        <v>87435900</v>
+        <v>51343900</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04059436926686022</v>
+        <v>-0.001876443123659977</v>
       </c>
       <c r="H157" t="n">
-        <v>208.6961647033691</v>
+        <v>207.5973556518555</v>
       </c>
       <c r="I157" t="n">
-        <v>223.9107885742187</v>
+        <v>222.7368548583984</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45761</v>
+        <v>45763</v>
       </c>
       <c r="B158" t="n">
-        <v>202.0254974365234</v>
+        <v>193.7956390380859</v>
       </c>
       <c r="C158" t="n">
-        <v>212.4200523889158</v>
+        <v>200.2099310657198</v>
       </c>
       <c r="D158" t="n">
-        <v>200.6688176319417</v>
+        <v>191.9002692932641</v>
       </c>
       <c r="E158" t="n">
-        <v>210.9237150406947</v>
+        <v>197.8756484915953</v>
       </c>
       <c r="F158" t="n">
-        <v>101352900</v>
+        <v>59732400</v>
       </c>
       <c r="G158" t="n">
-        <v>0.02205407661995684</v>
+        <v>-0.03893334435103357</v>
       </c>
       <c r="H158" t="n">
-        <v>208.1235664367676</v>
+        <v>206.551416015625</v>
       </c>
       <c r="I158" t="n">
-        <v>223.2479946899414</v>
+        <v>221.9732373046875</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45762</v>
+        <v>45764</v>
       </c>
       <c r="B159" t="n">
-        <v>201.6464233398438</v>
+        <v>196.4990234375</v>
       </c>
       <c r="C159" t="n">
-        <v>203.013073266667</v>
+        <v>198.3445123225595</v>
       </c>
       <c r="D159" t="n">
-        <v>199.3121406961873</v>
+        <v>193.9452767059697</v>
       </c>
       <c r="E159" t="n">
-        <v>201.3671082485446</v>
+        <v>196.7184874742594</v>
       </c>
       <c r="F159" t="n">
-        <v>51343900</v>
+        <v>52164700</v>
       </c>
       <c r="G159" t="n">
-        <v>-0.001876367594633943</v>
+        <v>0.0139496658068905</v>
       </c>
       <c r="H159" t="n">
-        <v>207.597354888916</v>
+        <v>205.6975059509277</v>
       </c>
       <c r="I159" t="n">
-        <v>222.7368542480469</v>
+        <v>221.2702642822265</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45763</v>
+        <v>45768</v>
       </c>
       <c r="B160" t="n">
-        <v>193.7956390380859</v>
+        <v>192.6883544921875</v>
       </c>
       <c r="C160" t="n">
-        <v>200.2099310657198</v>
+        <v>193.3267911609043</v>
       </c>
       <c r="D160" t="n">
-        <v>191.9002692932641</v>
+        <v>189.3465282787526</v>
       </c>
       <c r="E160" t="n">
-        <v>197.8756484915953</v>
+        <v>192.7980865081325</v>
       </c>
       <c r="F160" t="n">
-        <v>59732400</v>
+        <v>46742500</v>
       </c>
       <c r="G160" t="n">
-        <v>-0.03893341707592068</v>
+        <v>-0.01939281365703349</v>
       </c>
       <c r="H160" t="n">
-        <v>206.5514152526856</v>
+        <v>204.4450714111328</v>
       </c>
       <c r="I160" t="n">
-        <v>221.9732369995117</v>
+        <v>220.4761309814453</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45764</v>
+        <v>45769</v>
       </c>
       <c r="B161" t="n">
-        <v>196.4990234375</v>
+        <v>199.2522888183594</v>
       </c>
       <c r="C161" t="n">
-        <v>198.3445123225595</v>
+        <v>201.097762433896</v>
       </c>
       <c r="D161" t="n">
-        <v>193.9452767059697</v>
+        <v>195.4914899824519</v>
       </c>
       <c r="E161" t="n">
-        <v>196.7184874742594</v>
+        <v>195.6411176302009</v>
       </c>
       <c r="F161" t="n">
-        <v>52164700</v>
+        <v>52976400</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0139496658068905</v>
+        <v>0.03406502870124406</v>
       </c>
       <c r="H161" t="n">
-        <v>205.6975051879883</v>
+        <v>203.3981346130371</v>
       </c>
       <c r="I161" t="n">
-        <v>221.2702639770508</v>
+        <v>219.924680480957</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45768</v>
+        <v>45770</v>
       </c>
       <c r="B162" t="n">
-        <v>192.6883392333984</v>
+        <v>204.1004180908203</v>
       </c>
       <c r="C162" t="n">
-        <v>193.3267758515581</v>
+        <v>207.492109953369</v>
       </c>
       <c r="D162" t="n">
-        <v>189.3465132845993</v>
+        <v>202.3048102488409</v>
       </c>
       <c r="E162" t="n">
-        <v>192.7980712406539</v>
+        <v>205.4969935115097</v>
       </c>
       <c r="F162" t="n">
-        <v>46742500</v>
+        <v>52929200</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.01939289131028998</v>
+        <v>0.02433161145205487</v>
       </c>
       <c r="H162" t="n">
-        <v>204.4450706481934</v>
+        <v>202.4429725646973</v>
       </c>
       <c r="I162" t="n">
-        <v>220.4761303710937</v>
+        <v>219.4648065185547</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45769</v>
+        <v>45771</v>
       </c>
       <c r="B163" t="n">
-        <v>199.2522888183594</v>
+        <v>207.8612060546875</v>
       </c>
       <c r="C163" t="n">
-        <v>201.097762433896</v>
+        <v>208.3200895435695</v>
       </c>
       <c r="D163" t="n">
-        <v>195.4914899824519</v>
+        <v>202.4444721059189</v>
       </c>
       <c r="E163" t="n">
-        <v>195.6411176302009</v>
+        <v>204.3897076338875</v>
       </c>
       <c r="F163" t="n">
-        <v>52976400</v>
+        <v>47311000</v>
       </c>
       <c r="G163" t="n">
-        <v>0.03406511058777761</v>
+        <v>0.01842616491943549</v>
       </c>
       <c r="H163" t="n">
-        <v>203.3981338500977</v>
+        <v>201.7865791320801</v>
       </c>
       <c r="I163" t="n">
-        <v>219.924680480957</v>
+        <v>218.9809909057617</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45770</v>
+        <v>45772</v>
       </c>
       <c r="B164" t="n">
-        <v>204.1004333496094</v>
+        <v>208.7689819335938</v>
       </c>
       <c r="C164" t="n">
-        <v>207.4921254657249</v>
+        <v>209.2378355121778</v>
       </c>
       <c r="D164" t="n">
-        <v>202.3048253733881</v>
+        <v>205.6965008060446</v>
       </c>
       <c r="E164" t="n">
-        <v>205.4970088747083</v>
+        <v>205.8660838759428</v>
       </c>
       <c r="F164" t="n">
-        <v>52929200</v>
+        <v>38222300</v>
       </c>
       <c r="G164" t="n">
-        <v>0.02433168803229968</v>
+        <v>0.004367221263343435</v>
       </c>
       <c r="H164" t="n">
-        <v>202.4429725646973</v>
+        <v>201.0598571777344</v>
       </c>
       <c r="I164" t="n">
-        <v>219.4648068237305</v>
+        <v>218.4305383300781</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45771</v>
+        <v>45775</v>
       </c>
       <c r="B165" t="n">
-        <v>207.8612060546875</v>
+        <v>209.6268920898438</v>
       </c>
       <c r="C165" t="n">
-        <v>208.3200895435695</v>
+        <v>210.9835719319316</v>
       </c>
       <c r="D165" t="n">
-        <v>202.4444721059189</v>
+        <v>206.9534432601145</v>
       </c>
       <c r="E165" t="n">
-        <v>204.3897076338875</v>
+        <v>209.4872345423434</v>
       </c>
       <c r="F165" t="n">
-        <v>47311000</v>
+        <v>38743100</v>
       </c>
       <c r="G165" t="n">
-        <v>0.01842608878069441</v>
+        <v>0.004109375580146679</v>
       </c>
       <c r="H165" t="n">
-        <v>201.7865798950195</v>
+        <v>200.6728050231933</v>
       </c>
       <c r="I165" t="n">
-        <v>218.9809909057617</v>
+        <v>217.8042715454102</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45772</v>
+        <v>45776</v>
       </c>
       <c r="B166" t="n">
-        <v>208.7689819335938</v>
+        <v>210.6942901611328</v>
       </c>
       <c r="C166" t="n">
-        <v>209.2378355121778</v>
+        <v>211.7217739676401</v>
       </c>
       <c r="D166" t="n">
-        <v>205.6965008060446</v>
+        <v>207.8612130890675</v>
       </c>
       <c r="E166" t="n">
-        <v>205.8660838759428</v>
+        <v>208.1804390437069</v>
       </c>
       <c r="F166" t="n">
-        <v>38222300</v>
+        <v>36827600</v>
       </c>
       <c r="G166" t="n">
-        <v>0.004367221263343435</v>
+        <v>0.005091894749990278</v>
       </c>
       <c r="H166" t="n">
-        <v>201.0598587036133</v>
+        <v>200.1281387329101</v>
       </c>
       <c r="I166" t="n">
-        <v>218.4305383300781</v>
+        <v>217.1381024169922</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45775</v>
+        <v>45777</v>
       </c>
       <c r="B167" t="n">
-        <v>209.6268920898438</v>
+        <v>211.9811248779297</v>
       </c>
       <c r="C167" t="n">
-        <v>210.9835719319316</v>
+        <v>213.0584895980106</v>
       </c>
       <c r="D167" t="n">
-        <v>206.9534432601145</v>
+        <v>206.1653585429303</v>
       </c>
       <c r="E167" t="n">
-        <v>209.4872345423434</v>
+        <v>208.7889415711329</v>
       </c>
       <c r="F167" t="n">
-        <v>38743100</v>
+        <v>52286500</v>
       </c>
       <c r="G167" t="n">
-        <v>0.004109375580146679</v>
+        <v>0.006107591790042166</v>
       </c>
       <c r="H167" t="n">
-        <v>200.6728065490723</v>
+        <v>199.5949432373047</v>
       </c>
       <c r="I167" t="n">
-        <v>217.8042712402344</v>
+        <v>216.500263671875</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45776</v>
+        <v>45778</v>
       </c>
       <c r="B168" t="n">
-        <v>210.6942749023438</v>
+        <v>212.7991333007812</v>
       </c>
       <c r="C168" t="n">
-        <v>211.7217586344391</v>
+        <v>214.0360957896086</v>
       </c>
       <c r="D168" t="n">
-        <v>207.8611980354541</v>
+        <v>208.3899124386699</v>
       </c>
       <c r="E168" t="n">
-        <v>208.1804239669747</v>
+        <v>208.5694808389541</v>
       </c>
       <c r="F168" t="n">
-        <v>36827600</v>
+        <v>57365700</v>
       </c>
       <c r="G168" t="n">
-        <v>0.005091821959763321</v>
+        <v>0.003858873865881352</v>
       </c>
       <c r="H168" t="n">
-        <v>200.1281394958496</v>
+        <v>199.0677337646484</v>
       </c>
       <c r="I168" t="n">
-        <v>217.1381018066406</v>
+        <v>215.8708047485352</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45777</v>
+        <v>45779</v>
       </c>
       <c r="B169" t="n">
-        <v>211.9811248779297</v>
+        <v>204.8485870361328</v>
       </c>
       <c r="C169" t="n">
-        <v>213.0584895980106</v>
+        <v>206.4845819118293</v>
       </c>
       <c r="D169" t="n">
-        <v>206.1653585429303</v>
+        <v>201.6663738715787</v>
       </c>
       <c r="E169" t="n">
-        <v>208.7889415711329</v>
+        <v>205.5867703788489</v>
       </c>
       <c r="F169" t="n">
-        <v>52286500</v>
+        <v>101010600</v>
       </c>
       <c r="G169" t="n">
-        <v>0.006107664653832723</v>
+        <v>-0.03736174175771068</v>
       </c>
       <c r="H169" t="n">
-        <v>199.5949447631836</v>
+        <v>199.1754707336426</v>
       </c>
       <c r="I169" t="n">
-        <v>216.5002630615234</v>
+        <v>215.0631814575195</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45778</v>
+        <v>45782</v>
       </c>
       <c r="B170" t="n">
-        <v>212.7991333007812</v>
+        <v>198.4043579101562</v>
       </c>
       <c r="C170" t="n">
-        <v>214.0360957896086</v>
+        <v>203.601643042363</v>
       </c>
       <c r="D170" t="n">
-        <v>208.3899124386699</v>
+        <v>197.7260256127255</v>
       </c>
       <c r="E170" t="n">
-        <v>208.5694808389541</v>
+        <v>202.6040848015313</v>
       </c>
       <c r="F170" t="n">
-        <v>57365700</v>
+        <v>69018500</v>
       </c>
       <c r="G170" t="n">
-        <v>0.003858873865881352</v>
+        <v>-0.03145849927117084</v>
       </c>
       <c r="H170" t="n">
-        <v>199.0677360534668</v>
+        <v>199.6996871948242</v>
       </c>
       <c r="I170" t="n">
-        <v>215.8708041381836</v>
+        <v>214.1322601318359</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45779</v>
+        <v>45783</v>
       </c>
       <c r="B171" t="n">
-        <v>204.8485870361328</v>
+        <v>198.0252838134766</v>
       </c>
       <c r="C171" t="n">
-        <v>206.4845819118293</v>
+        <v>200.1600578713198</v>
       </c>
       <c r="D171" t="n">
-        <v>201.6663738715787</v>
+        <v>196.538931754607</v>
       </c>
       <c r="E171" t="n">
-        <v>205.5867703788489</v>
+        <v>197.7260285140605</v>
       </c>
       <c r="F171" t="n">
-        <v>101010600</v>
+        <v>51216500</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.03736174175771068</v>
+        <v>-0.001910613762079461</v>
       </c>
       <c r="H171" t="n">
-        <v>199.1754722595215</v>
+        <v>200.5501052856445</v>
       </c>
       <c r="I171" t="n">
-        <v>215.0631811523438</v>
+        <v>213.1628329467773</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45782</v>
+        <v>45784</v>
       </c>
       <c r="B172" t="n">
-        <v>198.4043579101562</v>
+        <v>195.7707977294922</v>
       </c>
       <c r="C172" t="n">
-        <v>203.601643042363</v>
+        <v>198.9530108388585</v>
       </c>
       <c r="D172" t="n">
-        <v>197.7260256127255</v>
+        <v>192.778123114519</v>
       </c>
       <c r="E172" t="n">
-        <v>202.6040848015313</v>
+        <v>198.6836658614824</v>
       </c>
       <c r="F172" t="n">
-        <v>69018500</v>
+        <v>68536700</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.03145849927117084</v>
+        <v>-0.01138483955466973</v>
       </c>
       <c r="H172" t="n">
-        <v>199.6996887207031</v>
+        <v>201.7386962890625</v>
       </c>
       <c r="I172" t="n">
-        <v>214.1322598266601</v>
+        <v>212.1495132446289</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45783</v>
+        <v>45785</v>
       </c>
       <c r="B173" t="n">
-        <v>198.0252685546875</v>
+        <v>197.0077819824219</v>
       </c>
       <c r="C173" t="n">
-        <v>200.1600424480363</v>
+        <v>199.5615286372946</v>
       </c>
       <c r="D173" t="n">
-        <v>196.5389166103485</v>
+        <v>194.204630546417</v>
       </c>
       <c r="E173" t="n">
-        <v>197.7260132783305</v>
+        <v>197.2372161152265</v>
       </c>
       <c r="F173" t="n">
-        <v>51216500</v>
+        <v>50478900</v>
       </c>
       <c r="G173" t="n">
-        <v>-0.00191069066960925</v>
+        <v>0.006318533035958307</v>
       </c>
       <c r="H173" t="n">
-        <v>200.550106048584</v>
+        <v>201.6708625793457</v>
       </c>
       <c r="I173" t="n">
-        <v>213.1628323364258</v>
+        <v>211.2942068481445</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45784</v>
+        <v>45786</v>
       </c>
       <c r="B174" t="n">
-        <v>195.7707977294922</v>
+        <v>198.0452423095703</v>
       </c>
       <c r="C174" t="n">
-        <v>198.9530108388585</v>
+        <v>200.0503289543839</v>
       </c>
       <c r="D174" t="n">
-        <v>192.778123114519</v>
+        <v>197.0576541416006</v>
       </c>
       <c r="E174" t="n">
-        <v>198.6836658614824</v>
+        <v>198.5140959146289</v>
       </c>
       <c r="F174" t="n">
-        <v>68536700</v>
+        <v>36453900</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.01138476337716821</v>
+        <v>0.0052660880535218</v>
       </c>
       <c r="H174" t="n">
-        <v>201.7386962890625</v>
+        <v>202.0753730773926</v>
       </c>
       <c r="I174" t="n">
-        <v>212.1495126342774</v>
+        <v>210.520700378418</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45785</v>
+        <v>45789</v>
       </c>
       <c r="B175" t="n">
-        <v>197.0077819824219</v>
+        <v>210.5510406494141</v>
       </c>
       <c r="C175" t="n">
-        <v>199.5615286372946</v>
+        <v>211.0305074927824</v>
       </c>
       <c r="D175" t="n">
-        <v>194.204630546417</v>
+        <v>206.5156271207593</v>
       </c>
       <c r="E175" t="n">
-        <v>197.2372161152265</v>
+        <v>210.7308445260501</v>
       </c>
       <c r="F175" t="n">
-        <v>50478900</v>
+        <v>63775800</v>
       </c>
       <c r="G175" t="n">
-        <v>0.006318533035958307</v>
+        <v>0.06314616899655467</v>
       </c>
       <c r="H175" t="n">
-        <v>201.6708625793457</v>
+        <v>202.7196174621582</v>
       </c>
       <c r="I175" t="n">
-        <v>211.2942065429687</v>
+        <v>209.9067315673828</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45786</v>
+        <v>45790</v>
       </c>
       <c r="B176" t="n">
-        <v>198.0452423095703</v>
+        <v>212.6886138916016</v>
       </c>
       <c r="C176" t="n">
-        <v>200.0503289543839</v>
+        <v>213.1580823159532</v>
       </c>
       <c r="D176" t="n">
-        <v>197.0576541416006</v>
+        <v>208.7630762803323</v>
       </c>
       <c r="E176" t="n">
-        <v>198.5140959146289</v>
+        <v>210.1914479073871</v>
       </c>
       <c r="F176" t="n">
-        <v>36453900</v>
+        <v>51909300</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0052660880535218</v>
+        <v>0.01015228058524187</v>
       </c>
       <c r="H176" t="n">
-        <v>202.0753723144531</v>
+        <v>203.2527732849121</v>
       </c>
       <c r="I176" t="n">
-        <v>210.5207000732422</v>
+        <v>209.4115283203125</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45789</v>
+        <v>45791</v>
       </c>
       <c r="B177" t="n">
-        <v>210.5510406494141</v>
+        <v>212.0892944335938</v>
       </c>
       <c r="C177" t="n">
-        <v>211.0305074927824</v>
+        <v>213.6974698706138</v>
       </c>
       <c r="D177" t="n">
-        <v>206.5156271207593</v>
+        <v>210.3412783168977</v>
       </c>
       <c r="E177" t="n">
-        <v>210.7308445260501</v>
+        <v>212.1891719239389</v>
       </c>
       <c r="F177" t="n">
-        <v>63775800</v>
+        <v>49325800</v>
       </c>
       <c r="G177" t="n">
-        <v>0.06314616899655467</v>
+        <v>-0.002817825773754223</v>
       </c>
       <c r="H177" t="n">
-        <v>202.7196166992188</v>
+        <v>203.7749176025391</v>
       </c>
       <c r="I177" t="n">
-        <v>209.906731262207</v>
+        <v>208.9462359619141</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45790</v>
+        <v>45792</v>
       </c>
       <c r="B178" t="n">
-        <v>212.6886138916016</v>
+        <v>211.2102966308594</v>
       </c>
       <c r="C178" t="n">
-        <v>213.1580823159532</v>
+        <v>212.7185946451233</v>
       </c>
       <c r="D178" t="n">
-        <v>208.7630762803323</v>
+        <v>209.3024581543287</v>
       </c>
       <c r="E178" t="n">
-        <v>210.1914479073871</v>
+        <v>210.7108634322801</v>
       </c>
       <c r="F178" t="n">
-        <v>51909300</v>
+        <v>45029500</v>
       </c>
       <c r="G178" t="n">
-        <v>0.01015228058524187</v>
+        <v>-0.004144470399044975</v>
       </c>
       <c r="H178" t="n">
-        <v>203.2527725219726</v>
+        <v>204.6456504821777</v>
       </c>
       <c r="I178" t="n">
-        <v>209.4115280151367</v>
+        <v>208.4671542358398</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45791</v>
+        <v>45793</v>
       </c>
       <c r="B179" t="n">
-        <v>212.0892944335938</v>
+        <v>211.0205078125</v>
       </c>
       <c r="C179" t="n">
-        <v>213.6974698706138</v>
+        <v>212.3290355846905</v>
       </c>
       <c r="D179" t="n">
-        <v>210.3412783168977</v>
+        <v>209.5322066477316</v>
       </c>
       <c r="E179" t="n">
-        <v>212.1891719239389</v>
+        <v>212.1192669367847</v>
       </c>
       <c r="F179" t="n">
-        <v>49325800</v>
+        <v>54737900</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.002817825773754223</v>
+        <v>-0.0008985774907133148</v>
       </c>
       <c r="H179" t="n">
-        <v>203.7749160766602</v>
+        <v>205.3717247009277</v>
       </c>
       <c r="I179" t="n">
-        <v>208.9462356567383</v>
+        <v>207.9924566650391</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45792</v>
+        <v>45796</v>
       </c>
       <c r="B180" t="n">
-        <v>211.2102966308594</v>
+        <v>208.5433197021484</v>
       </c>
       <c r="C180" t="n">
-        <v>212.7185946451233</v>
+        <v>209.2425231134968</v>
       </c>
       <c r="D180" t="n">
-        <v>209.3024581543287</v>
+        <v>204.0284394379554</v>
       </c>
       <c r="E180" t="n">
-        <v>210.7108634322801</v>
+        <v>207.6743108367219</v>
       </c>
       <c r="F180" t="n">
-        <v>45029500</v>
+        <v>46140500</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.004144470399044975</v>
+        <v>-0.01173908704907789</v>
       </c>
       <c r="H180" t="n">
-        <v>204.6456489562988</v>
+        <v>206.1644729614258</v>
       </c>
       <c r="I180" t="n">
-        <v>208.4671539306641</v>
+        <v>207.3935980224609</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45793</v>
+        <v>45797</v>
       </c>
       <c r="B181" t="n">
-        <v>211.0205078125</v>
+        <v>206.6255035400391</v>
       </c>
       <c r="C181" t="n">
-        <v>212.3290355846905</v>
+        <v>208.2336790492342</v>
       </c>
       <c r="D181" t="n">
-        <v>209.5322066477316</v>
+        <v>204.7975762041346</v>
       </c>
       <c r="E181" t="n">
-        <v>212.1192669367847</v>
+        <v>207.4345828831543</v>
       </c>
       <c r="F181" t="n">
-        <v>54737900</v>
+        <v>42496600</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.0008985774907133148</v>
+        <v>-0.009196248361484249</v>
       </c>
       <c r="H181" t="n">
-        <v>205.3717231750488</v>
+        <v>206.5331336975098</v>
       </c>
       <c r="I181" t="n">
-        <v>207.9924563598633</v>
+        <v>206.9876171875</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45796</v>
+        <v>45798</v>
       </c>
       <c r="B182" t="n">
-        <v>208.5433197021484</v>
+        <v>201.8609008789062</v>
       </c>
       <c r="C182" t="n">
-        <v>209.2425231134968</v>
+        <v>206.8052863577864</v>
       </c>
       <c r="D182" t="n">
-        <v>204.0284394379554</v>
+        <v>200.4824756537251</v>
       </c>
       <c r="E182" t="n">
-        <v>207.6743108367219</v>
+        <v>204.9374111247962</v>
       </c>
       <c r="F182" t="n">
-        <v>46140500</v>
+        <v>59211800</v>
       </c>
       <c r="G182" t="n">
-        <v>-0.01173908704907789</v>
+        <v>-0.02305912183879832</v>
       </c>
       <c r="H182" t="n">
-        <v>206.1644721984863</v>
+        <v>206.4211578369141</v>
       </c>
       <c r="I182" t="n">
-        <v>207.3935977172852</v>
+        <v>206.6188201904297</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45797</v>
+        <v>45799</v>
       </c>
       <c r="B183" t="n">
-        <v>206.6255035400391</v>
+        <v>201.1317291259766</v>
       </c>
       <c r="C183" t="n">
-        <v>208.2336790492342</v>
+        <v>202.520152744752</v>
       </c>
       <c r="D183" t="n">
-        <v>204.7975762041346</v>
+        <v>199.4736073247078</v>
       </c>
       <c r="E183" t="n">
-        <v>207.4345828831543</v>
+        <v>200.4824720941681</v>
       </c>
       <c r="F183" t="n">
-        <v>42496600</v>
+        <v>46742400</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.009196248361484249</v>
+        <v>-0.003612248581844502</v>
       </c>
       <c r="H183" t="n">
-        <v>206.5331329345703</v>
+        <v>206.0846839904785</v>
       </c>
       <c r="I183" t="n">
-        <v>206.9876168823242</v>
+        <v>206.312451171875</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45798</v>
+        <v>45800</v>
       </c>
       <c r="B184" t="n">
-        <v>201.8609008789062</v>
+        <v>195.0486450195312</v>
       </c>
       <c r="C184" t="n">
-        <v>206.8052863577864</v>
+        <v>197.4758830409797</v>
       </c>
       <c r="D184" t="n">
-        <v>200.4824756537251</v>
+        <v>193.2406992850713</v>
       </c>
       <c r="E184" t="n">
-        <v>204.9374111247962</v>
+        <v>193.4504526925712</v>
       </c>
       <c r="F184" t="n">
-        <v>59211800</v>
+        <v>78432900</v>
       </c>
       <c r="G184" t="n">
-        <v>-0.02305912183879832</v>
+        <v>-0.03024427887573744</v>
       </c>
       <c r="H184" t="n">
-        <v>206.4211563110352</v>
+        <v>205.3986671447754</v>
       </c>
       <c r="I184" t="n">
-        <v>206.6188195800781</v>
+        <v>206.0300640869141</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45799</v>
+        <v>45804</v>
       </c>
       <c r="B185" t="n">
-        <v>201.1317291259766</v>
+        <v>199.9830474853516</v>
       </c>
       <c r="C185" t="n">
-        <v>202.520152744752</v>
+        <v>200.5124454549485</v>
       </c>
       <c r="D185" t="n">
-        <v>199.4736073247078</v>
+        <v>197.2061848873545</v>
       </c>
       <c r="E185" t="n">
-        <v>200.4824720941681</v>
+        <v>198.0752090145068</v>
       </c>
       <c r="F185" t="n">
-        <v>46742400</v>
+        <v>56288500</v>
       </c>
       <c r="G185" t="n">
-        <v>-0.003612248581844502</v>
+        <v>0.02529831707021701</v>
       </c>
       <c r="H185" t="n">
-        <v>206.0846824645996</v>
+        <v>204.9164749145508</v>
       </c>
       <c r="I185" t="n">
-        <v>206.3124505615234</v>
+        <v>205.7703509521484</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45800</v>
+        <v>45805</v>
       </c>
       <c r="B186" t="n">
-        <v>195.0486450195312</v>
+        <v>200.1927947998047</v>
       </c>
       <c r="C186" t="n">
-        <v>197.4758830409797</v>
+        <v>202.5001736614979</v>
       </c>
       <c r="D186" t="n">
-        <v>193.2406992850713</v>
+        <v>199.6733800230216</v>
       </c>
       <c r="E186" t="n">
-        <v>193.4504526925712</v>
+        <v>200.3626002526684</v>
       </c>
       <c r="F186" t="n">
-        <v>78432900</v>
+        <v>45339700</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.03024427887573744</v>
+        <v>0.001048825473411563</v>
       </c>
       <c r="H186" t="n">
-        <v>205.3986656188965</v>
+        <v>204.3914001464844</v>
       </c>
       <c r="I186" t="n">
-        <v>206.0300631713867</v>
+        <v>205.5046575927734</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45804</v>
+        <v>45806</v>
       </c>
       <c r="B187" t="n">
-        <v>199.9830474853516</v>
+        <v>199.7233276367188</v>
       </c>
       <c r="C187" t="n">
-        <v>200.5124454549485</v>
+        <v>203.5789524346463</v>
       </c>
       <c r="D187" t="n">
-        <v>197.2061848873545</v>
+        <v>198.2849576252548</v>
       </c>
       <c r="E187" t="n">
-        <v>198.0752090145068</v>
+        <v>203.3492174371598</v>
       </c>
       <c r="F187" t="n">
-        <v>56288500</v>
+        <v>51396800</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02529831707021701</v>
+        <v>-0.00234507522388816</v>
       </c>
       <c r="H187" t="n">
-        <v>204.9164733886719</v>
+        <v>203.7785102844238</v>
       </c>
       <c r="I187" t="n">
-        <v>205.7703497314453</v>
+        <v>205.2557107543945</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45805</v>
+        <v>45807</v>
       </c>
       <c r="B188" t="n">
-        <v>200.1927947998047</v>
+        <v>200.622314453125</v>
       </c>
       <c r="C188" t="n">
-        <v>202.5001736614979</v>
+        <v>201.7310567221112</v>
       </c>
       <c r="D188" t="n">
-        <v>199.6733800230216</v>
+        <v>196.5569210530118</v>
       </c>
       <c r="E188" t="n">
-        <v>200.3626002526684</v>
+        <v>199.143981266816</v>
       </c>
       <c r="F188" t="n">
-        <v>45339700</v>
+        <v>70819900</v>
       </c>
       <c r="G188" t="n">
-        <v>0.001048825473411563</v>
+        <v>0.004501160816033689</v>
       </c>
       <c r="H188" t="n">
-        <v>204.3913993835449</v>
+        <v>203.169669342041</v>
       </c>
       <c r="I188" t="n">
-        <v>205.5046563720703</v>
+        <v>204.9738684082031</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45806</v>
+        <v>45810</v>
       </c>
       <c r="B189" t="n">
-        <v>199.7233276367188</v>
+        <v>201.4713439941406</v>
       </c>
       <c r="C189" t="n">
-        <v>203.5789524346463</v>
+        <v>201.9008644592711</v>
       </c>
       <c r="D189" t="n">
-        <v>198.2849576252548</v>
+        <v>199.8931332988897</v>
       </c>
       <c r="E189" t="n">
-        <v>203.3492174371598</v>
+        <v>200.0529555762169</v>
       </c>
       <c r="F189" t="n">
-        <v>51396800</v>
+        <v>35423300</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.00234507522388816</v>
+        <v>0.00423197959474253</v>
       </c>
       <c r="H189" t="n">
-        <v>203.7785095214844</v>
+        <v>203.0008071899414</v>
       </c>
       <c r="I189" t="n">
-        <v>205.2557098388672</v>
+        <v>204.731750793457</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45807</v>
+        <v>45811</v>
       </c>
       <c r="B190" t="n">
-        <v>200.622314453125</v>
+        <v>203.0395660400391</v>
       </c>
       <c r="C190" t="n">
-        <v>201.7310567221112</v>
+        <v>203.5389992121068</v>
       </c>
       <c r="D190" t="n">
-        <v>196.5569210530118</v>
+        <v>200.7321872237246</v>
       </c>
       <c r="E190" t="n">
-        <v>199.143981266816</v>
+        <v>201.1217444882778</v>
       </c>
       <c r="F190" t="n">
-        <v>70819900</v>
+        <v>46381600</v>
       </c>
       <c r="G190" t="n">
-        <v>0.004501160816033689</v>
+        <v>0.007783846649397574</v>
       </c>
       <c r="H190" t="n">
-        <v>203.1696685791016</v>
+        <v>203.2325675964356</v>
       </c>
       <c r="I190" t="n">
-        <v>204.9738674926758</v>
+        <v>204.4378012084961</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45810</v>
+        <v>45812</v>
       </c>
       <c r="B191" t="n">
-        <v>201.4713439941406</v>
+        <v>202.590087890625</v>
       </c>
       <c r="C191" t="n">
-        <v>201.9008644592711</v>
+        <v>206.0062091045683</v>
       </c>
       <c r="D191" t="n">
-        <v>199.8931332988897</v>
+        <v>201.8709028727957</v>
       </c>
       <c r="E191" t="n">
-        <v>200.0529555762169</v>
+        <v>202.6799822074808</v>
       </c>
       <c r="F191" t="n">
-        <v>35423300</v>
+        <v>43604000</v>
       </c>
       <c r="G191" t="n">
-        <v>0.00423197959474253</v>
+        <v>-0.002213746602105271</v>
       </c>
       <c r="H191" t="n">
-        <v>203.0008064270019</v>
+        <v>203.460807800293</v>
       </c>
       <c r="I191" t="n">
-        <v>204.7317498779297</v>
+        <v>204.0857824707031</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45811</v>
+        <v>45813</v>
       </c>
       <c r="B192" t="n">
-        <v>203.0395660400391</v>
+        <v>200.4025726318359</v>
       </c>
       <c r="C192" t="n">
-        <v>203.5389992121068</v>
+        <v>204.5178973620389</v>
       </c>
       <c r="D192" t="n">
-        <v>200.7321872237246</v>
+        <v>199.9231057813622</v>
       </c>
       <c r="E192" t="n">
-        <v>201.1217444882778</v>
+        <v>203.2693143500606</v>
       </c>
       <c r="F192" t="n">
-        <v>46381600</v>
+        <v>55126100</v>
       </c>
       <c r="G192" t="n">
-        <v>0.007783846649397574</v>
+        <v>-0.01079774080541429</v>
       </c>
       <c r="H192" t="n">
-        <v>203.2325668334961</v>
+        <v>203.6923965454102</v>
       </c>
       <c r="I192" t="n">
-        <v>204.4378005981445</v>
+        <v>203.6297607421875</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45812</v>
+        <v>45814</v>
       </c>
       <c r="B193" t="n">
-        <v>202.590087890625</v>
+        <v>203.6888275146484</v>
       </c>
       <c r="C193" t="n">
-        <v>206.0062091045683</v>
+        <v>205.4668084267123</v>
       </c>
       <c r="D193" t="n">
-        <v>201.8709028727957</v>
+        <v>201.8209522876073</v>
       </c>
       <c r="E193" t="n">
-        <v>202.6799822074808</v>
+        <v>202.7698722869574</v>
       </c>
       <c r="F193" t="n">
-        <v>43604000</v>
+        <v>46607700</v>
       </c>
       <c r="G193" t="n">
-        <v>-0.002213746602105271</v>
+        <v>0.01639826694665114</v>
       </c>
       <c r="H193" t="n">
-        <v>203.460807800293</v>
+        <v>204.0264488220215</v>
       </c>
       <c r="I193" t="n">
-        <v>204.0857818603516</v>
+        <v>203.2837557983399</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45813</v>
+        <v>45817</v>
       </c>
       <c r="B194" t="n">
-        <v>200.4025726318359</v>
+        <v>201.2216339111328</v>
       </c>
       <c r="C194" t="n">
-        <v>204.5178973620389</v>
+        <v>205.766479094777</v>
       </c>
       <c r="D194" t="n">
-        <v>199.9231057813622</v>
+        <v>199.7932622702259</v>
       </c>
       <c r="E194" t="n">
-        <v>203.2693143500606</v>
+        <v>204.1583035756873</v>
       </c>
       <c r="F194" t="n">
-        <v>55126100</v>
+        <v>72862600</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.01079774080541429</v>
+        <v>-0.01211256225301893</v>
       </c>
       <c r="H194" t="n">
-        <v>203.6923965454102</v>
+        <v>204.1852684020996</v>
       </c>
       <c r="I194" t="n">
-        <v>203.629760131836</v>
+        <v>202.8421200561523</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45814</v>
+        <v>45818</v>
       </c>
       <c r="B195" t="n">
-        <v>203.6888275146484</v>
+        <v>202.4402465820312</v>
       </c>
       <c r="C195" t="n">
-        <v>205.4668084267123</v>
+        <v>204.1183500191797</v>
       </c>
       <c r="D195" t="n">
-        <v>201.8209522876073</v>
+        <v>200.3426363374598</v>
       </c>
       <c r="E195" t="n">
-        <v>202.7698722869574</v>
+        <v>200.3726011094186</v>
       </c>
       <c r="F195" t="n">
-        <v>46607700</v>
+        <v>54672600</v>
       </c>
       <c r="G195" t="n">
-        <v>0.01639826694665114</v>
+        <v>0.00605607184084711</v>
       </c>
       <c r="H195" t="n">
-        <v>204.0264488220215</v>
+        <v>203.7797286987305</v>
       </c>
       <c r="I195" t="n">
-        <v>203.2837554931641</v>
+        <v>202.5435662841797</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B196" t="n">
-        <v>201.2216339111328</v>
+        <v>198.5546569824219</v>
       </c>
       <c r="C196" t="n">
-        <v>205.766479094777</v>
+        <v>204.2681738718989</v>
       </c>
       <c r="D196" t="n">
-        <v>199.7932622702259</v>
+        <v>198.1850813006155</v>
       </c>
       <c r="E196" t="n">
-        <v>204.1583035756873</v>
+        <v>203.2693074959973</v>
       </c>
       <c r="F196" t="n">
-        <v>72862600</v>
+        <v>60989900</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.01211256225301893</v>
+        <v>-0.01919376045629784</v>
       </c>
       <c r="H196" t="n">
-        <v>204.1852684020996</v>
+        <v>203.0730308532715</v>
       </c>
       <c r="I196" t="n">
-        <v>202.8421200561523</v>
+        <v>202.0829071044922</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B197" t="n">
-        <v>202.4402465820312</v>
+        <v>198.9741821289062</v>
       </c>
       <c r="C197" t="n">
-        <v>204.1183500191797</v>
+        <v>199.4536337291855</v>
       </c>
       <c r="D197" t="n">
-        <v>200.3426363374598</v>
+        <v>197.1362716265928</v>
       </c>
       <c r="E197" t="n">
-        <v>200.3726011094186</v>
+        <v>198.8543230392093</v>
       </c>
       <c r="F197" t="n">
-        <v>54672600</v>
+        <v>43904600</v>
       </c>
       <c r="G197" t="n">
-        <v>0.00605607184084711</v>
+        <v>0.002112895022762018</v>
       </c>
       <c r="H197" t="n">
-        <v>203.7797286987305</v>
+        <v>202.4172752380371</v>
       </c>
       <c r="I197" t="n">
-        <v>202.5435662841797</v>
+        <v>201.6094900512695</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B198" t="n">
-        <v>198.5546569824219</v>
+        <v>196.227294921875</v>
       </c>
       <c r="C198" t="n">
-        <v>204.2681738718989</v>
+        <v>200.1428492549886</v>
       </c>
       <c r="D198" t="n">
-        <v>198.1850813006155</v>
+        <v>195.4781451459644</v>
       </c>
       <c r="E198" t="n">
-        <v>203.2693074959973</v>
+        <v>199.5035753892046</v>
       </c>
       <c r="F198" t="n">
-        <v>60989900</v>
+        <v>51447300</v>
       </c>
       <c r="G198" t="n">
-        <v>-0.01919376045629784</v>
+        <v>-0.01380524436708919</v>
       </c>
       <c r="H198" t="n">
-        <v>203.0730308532715</v>
+        <v>201.6681251525879</v>
       </c>
       <c r="I198" t="n">
-        <v>202.0829071044922</v>
+        <v>201.0671694946289</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B199" t="n">
-        <v>198.9741821289062</v>
+        <v>198.195068359375</v>
       </c>
       <c r="C199" t="n">
-        <v>199.4536337291855</v>
+        <v>198.4647665537685</v>
       </c>
       <c r="D199" t="n">
-        <v>197.1362716265928</v>
+        <v>196.3371762541487</v>
       </c>
       <c r="E199" t="n">
-        <v>198.8543230392093</v>
+        <v>197.0763428737305</v>
       </c>
       <c r="F199" t="n">
-        <v>43904600</v>
+        <v>43020700</v>
       </c>
       <c r="G199" t="n">
-        <v>0.002112895022762018</v>
+        <v>0.01002803120882567</v>
       </c>
       <c r="H199" t="n">
-        <v>202.4172752380371</v>
+        <v>201.0268531799316</v>
       </c>
       <c r="I199" t="n">
-        <v>201.6094903564453</v>
+        <v>200.9771939086914</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B200" t="n">
-        <v>196.227294921875</v>
+        <v>195.418212890625</v>
       </c>
       <c r="C200" t="n">
-        <v>200.1428492549886</v>
+        <v>198.1650953641773</v>
       </c>
       <c r="D200" t="n">
-        <v>195.4781451459644</v>
+        <v>194.9887076743125</v>
       </c>
       <c r="E200" t="n">
-        <v>199.5035753892046</v>
+        <v>196.9764419642561</v>
       </c>
       <c r="F200" t="n">
-        <v>51447300</v>
+        <v>38856200</v>
       </c>
       <c r="G200" t="n">
-        <v>-0.01380524436708919</v>
+        <v>-0.0140107192965816</v>
       </c>
       <c r="H200" t="n">
-        <v>201.6681251525879</v>
+        <v>200.3705978393555</v>
       </c>
       <c r="I200" t="n">
-        <v>201.0671701049805</v>
+        <v>201.1271575927734</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B201" t="n">
-        <v>198.195068359375</v>
+        <v>196.3571472167969</v>
       </c>
       <c r="C201" t="n">
-        <v>198.4647665537685</v>
+        <v>197.3460303816964</v>
       </c>
       <c r="D201" t="n">
-        <v>196.3371762541487</v>
+        <v>194.8488645282548</v>
       </c>
       <c r="E201" t="n">
-        <v>197.0763428737305</v>
+        <v>195.7178733679754</v>
       </c>
       <c r="F201" t="n">
-        <v>43020700</v>
+        <v>45394700</v>
       </c>
       <c r="G201" t="n">
-        <v>0.01002803120882567</v>
+        <v>0.004804743182752258</v>
       </c>
       <c r="H201" t="n">
-        <v>201.0268531799316</v>
+        <v>199.8571800231934</v>
       </c>
       <c r="I201" t="n">
-        <v>200.9771942138672</v>
+        <v>201.433962097168</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B202" t="n">
-        <v>195.418212890625</v>
+        <v>200.7721405029297</v>
       </c>
       <c r="C202" t="n">
-        <v>198.1650953641773</v>
+        <v>201.4713439140944</v>
       </c>
       <c r="D202" t="n">
-        <v>194.9887076743125</v>
+        <v>196.6368343380514</v>
       </c>
       <c r="E202" t="n">
-        <v>196.9764419642561</v>
+        <v>198.0152748068412</v>
       </c>
       <c r="F202" t="n">
-        <v>38856200</v>
+        <v>96813500</v>
       </c>
       <c r="G202" t="n">
-        <v>-0.0140107192965816</v>
+        <v>0.02248450514132916</v>
       </c>
       <c r="H202" t="n">
-        <v>200.3705978393555</v>
+        <v>199.8027420043945</v>
       </c>
       <c r="I202" t="n">
-        <v>201.1271578979492</v>
+        <v>202.0094253540039</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45826</v>
+        <v>45831</v>
       </c>
       <c r="B203" t="n">
-        <v>196.3571472167969</v>
+        <v>201.2715759277344</v>
       </c>
       <c r="C203" t="n">
-        <v>197.3460303816964</v>
+        <v>202.070672081453</v>
       </c>
       <c r="D203" t="n">
-        <v>194.8488645282548</v>
+        <v>198.7344620242812</v>
       </c>
       <c r="E203" t="n">
-        <v>195.7178733679754</v>
+        <v>201.4014334346424</v>
       </c>
       <c r="F203" t="n">
-        <v>45394700</v>
+        <v>55814300</v>
       </c>
       <c r="G203" t="n">
-        <v>0.004804743182752258</v>
+        <v>0.00248757334336136</v>
       </c>
       <c r="H203" t="n">
-        <v>199.8571800231934</v>
+        <v>199.8097343444824</v>
       </c>
       <c r="I203" t="n">
-        <v>201.4339624023438</v>
+        <v>202.0675677490234</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B204" t="n">
-        <v>200.7721405029297</v>
+        <v>200.0729370117188</v>
       </c>
       <c r="C204" t="n">
-        <v>201.4713439140944</v>
+        <v>203.2093768046809</v>
       </c>
       <c r="D204" t="n">
-        <v>196.6368343380514</v>
+        <v>199.9730442780961</v>
       </c>
       <c r="E204" t="n">
-        <v>198.0152748068412</v>
+        <v>202.3603342933619</v>
       </c>
       <c r="F204" t="n">
-        <v>96813500</v>
+        <v>54064000</v>
       </c>
       <c r="G204" t="n">
-        <v>0.02248450514132916</v>
+        <v>-0.005955331300461331</v>
       </c>
       <c r="H204" t="n">
-        <v>199.8027420043945</v>
+        <v>200.0609489440918</v>
       </c>
       <c r="I204" t="n">
-        <v>202.0094253540039</v>
+        <v>202.2699258422851</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B205" t="n">
-        <v>201.2715759277344</v>
+        <v>201.3315124511719</v>
       </c>
       <c r="C205" t="n">
-        <v>202.070672081453</v>
+        <v>203.4391211994379</v>
       </c>
       <c r="D205" t="n">
-        <v>198.7344620242812</v>
+        <v>200.3925755811161</v>
       </c>
       <c r="E205" t="n">
-        <v>201.4014334346424</v>
+        <v>201.2216365357081</v>
       </c>
       <c r="F205" t="n">
-        <v>55814300</v>
+        <v>39525700</v>
       </c>
       <c r="G205" t="n">
-        <v>0.00248757334336136</v>
+        <v>0.006290583115593495</v>
       </c>
       <c r="H205" t="n">
-        <v>199.8097343444824</v>
+        <v>200.1283721923828</v>
       </c>
       <c r="I205" t="n">
-        <v>202.0675677490234</v>
+        <v>202.3432330322265</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B206" t="n">
-        <v>200.0729370117188</v>
+        <v>200.7721405029297</v>
       </c>
       <c r="C206" t="n">
-        <v>203.2093768046809</v>
+        <v>202.4102807411547</v>
       </c>
       <c r="D206" t="n">
-        <v>199.9730442780961</v>
+        <v>199.2338929983674</v>
       </c>
       <c r="E206" t="n">
-        <v>202.3603342933619</v>
+        <v>201.2016457263983</v>
       </c>
       <c r="F206" t="n">
-        <v>54064000</v>
+        <v>50799100</v>
       </c>
       <c r="G206" t="n">
-        <v>-0.005955331300461331</v>
+        <v>-0.002778362619104913</v>
       </c>
       <c r="H206" t="n">
-        <v>200.0609489440918</v>
+        <v>200.1573394775391</v>
       </c>
       <c r="I206" t="n">
-        <v>202.2699255371094</v>
+        <v>202.3181658935547</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B207" t="n">
-        <v>201.3315124511719</v>
+        <v>200.85205078125</v>
       </c>
       <c r="C207" t="n">
-        <v>203.4391211994379</v>
+        <v>202.9896241956497</v>
       </c>
       <c r="D207" t="n">
-        <v>200.3925755811161</v>
+        <v>199.7732732765776</v>
       </c>
       <c r="E207" t="n">
-        <v>201.2216365357081</v>
+        <v>201.6611300993816</v>
       </c>
       <c r="F207" t="n">
-        <v>39525700</v>
+        <v>73188600</v>
       </c>
       <c r="G207" t="n">
-        <v>0.006290583115593495</v>
+        <v>0.0003980147749589324</v>
       </c>
       <c r="H207" t="n">
-        <v>200.1283721923828</v>
+        <v>200.2137756347656</v>
       </c>
       <c r="I207" t="n">
-        <v>202.3432327270508</v>
+        <v>202.3022787475586</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B208" t="n">
-        <v>200.7721405029297</v>
+        <v>204.9374084472656</v>
       </c>
       <c r="C208" t="n">
-        <v>202.4102807411547</v>
+        <v>207.154892977075</v>
       </c>
       <c r="D208" t="n">
-        <v>199.2338929983674</v>
+        <v>199.0341046248948</v>
       </c>
       <c r="E208" t="n">
-        <v>201.2016457263983</v>
+        <v>201.7809871041056</v>
       </c>
       <c r="F208" t="n">
-        <v>50799100</v>
+        <v>91912800</v>
       </c>
       <c r="G208" t="n">
-        <v>-0.002778362619104913</v>
+        <v>0.02034013419392489</v>
       </c>
       <c r="H208" t="n">
-        <v>200.1573394775391</v>
+        <v>200.4295303344726</v>
       </c>
       <c r="I208" t="n">
-        <v>202.3181655883789</v>
+        <v>202.5251141357422</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B209" t="n">
-        <v>200.85205078125</v>
+        <v>207.5844116210938</v>
       </c>
       <c r="C209" t="n">
-        <v>202.9896241956497</v>
+        <v>209.9517199870236</v>
       </c>
       <c r="D209" t="n">
-        <v>199.7732732765776</v>
+        <v>205.9063082319794</v>
       </c>
       <c r="E209" t="n">
-        <v>201.6611300993816</v>
+        <v>206.4357061767528</v>
       </c>
       <c r="F209" t="n">
-        <v>73188600</v>
+        <v>78788900</v>
       </c>
       <c r="G209" t="n">
-        <v>0.0003980147749589324</v>
+        <v>0.01291615422427506</v>
       </c>
       <c r="H209" t="n">
-        <v>200.2137756347656</v>
+        <v>200.7351837158203</v>
       </c>
       <c r="I209" t="n">
-        <v>202.302278137207</v>
+        <v>202.7468218994141</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B210" t="n">
-        <v>204.9374084472656</v>
+        <v>212.1991729736328</v>
       </c>
       <c r="C210" t="n">
-        <v>207.154892977075</v>
+        <v>213.0981466053431</v>
       </c>
       <c r="D210" t="n">
-        <v>199.0341046248948</v>
+        <v>207.9040445567577</v>
       </c>
       <c r="E210" t="n">
-        <v>201.7809871041056</v>
+        <v>208.6731759252599</v>
       </c>
       <c r="F210" t="n">
-        <v>91912800</v>
+        <v>67941800</v>
       </c>
       <c r="G210" t="n">
-        <v>0.02034013419392489</v>
+        <v>0.02223077020331576</v>
       </c>
       <c r="H210" t="n">
-        <v>200.4295303344726</v>
+        <v>201.1931640625</v>
       </c>
       <c r="I210" t="n">
-        <v>202.5251135253906</v>
+        <v>203.137038269043</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B211" t="n">
-        <v>207.5844116210938</v>
+        <v>213.3079223632812</v>
       </c>
       <c r="C211" t="n">
-        <v>209.9517199870236</v>
+        <v>214.4066662563</v>
       </c>
       <c r="D211" t="n">
-        <v>205.9063082319794</v>
+        <v>211.5698893436443</v>
       </c>
       <c r="E211" t="n">
-        <v>206.4357061767528</v>
+        <v>211.9095002610415</v>
       </c>
       <c r="F211" t="n">
-        <v>78788900</v>
+        <v>34955800</v>
       </c>
       <c r="G211" t="n">
-        <v>0.01291615422427506</v>
+        <v>0.005225041050401336</v>
       </c>
       <c r="H211" t="n">
-        <v>200.7351837158203</v>
+        <v>201.7290557861328</v>
       </c>
       <c r="I211" t="n">
-        <v>202.7468212890625</v>
+        <v>203.4181509399414</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45840</v>
+        <v>45845</v>
       </c>
       <c r="B212" t="n">
-        <v>212.1991729736328</v>
+        <v>209.7119903564453</v>
       </c>
       <c r="C212" t="n">
-        <v>213.0981466053431</v>
+        <v>215.9848699115094</v>
       </c>
       <c r="D212" t="n">
-        <v>207.9040445567577</v>
+        <v>208.563300132892</v>
       </c>
       <c r="E212" t="n">
-        <v>208.6731759252599</v>
+        <v>212.4388912662269</v>
       </c>
       <c r="F212" t="n">
-        <v>67941800</v>
+        <v>50229000</v>
       </c>
       <c r="G212" t="n">
-        <v>0.02223077020331576</v>
+        <v>-0.01685793929731205</v>
       </c>
       <c r="H212" t="n">
-        <v>201.1931640625</v>
+        <v>202.1945266723633</v>
       </c>
       <c r="I212" t="n">
-        <v>203.1370379638672</v>
+        <v>203.5303823852539</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45841</v>
+        <v>45846</v>
       </c>
       <c r="B213" t="n">
-        <v>213.3079223632812</v>
+        <v>209.7719268798828</v>
       </c>
       <c r="C213" t="n">
-        <v>214.4066662563</v>
+        <v>211.1903153368944</v>
       </c>
       <c r="D213" t="n">
-        <v>211.5698893436443</v>
+        <v>208.213697736729</v>
       </c>
       <c r="E213" t="n">
-        <v>211.9095002610415</v>
+        <v>209.8618364392891</v>
       </c>
       <c r="F213" t="n">
-        <v>34955800</v>
+        <v>42848900</v>
       </c>
       <c r="G213" t="n">
-        <v>0.005225041050401336</v>
+        <v>0.0002858039892503772</v>
       </c>
       <c r="H213" t="n">
-        <v>201.7290557861328</v>
+        <v>202.498681640625</v>
       </c>
       <c r="I213" t="n">
-        <v>203.4181506347656</v>
+        <v>203.5685968017578</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B214" t="n">
-        <v>209.7119903564453</v>
+        <v>210.9006500244141</v>
       </c>
       <c r="C214" t="n">
-        <v>215.9848699115094</v>
+        <v>211.0904370780971</v>
       </c>
       <c r="D214" t="n">
-        <v>208.563300132892</v>
+        <v>206.9850955851087</v>
       </c>
       <c r="E214" t="n">
-        <v>212.4388912662269</v>
+        <v>209.2924745188519</v>
       </c>
       <c r="F214" t="n">
-        <v>50229000</v>
+        <v>48749400</v>
       </c>
       <c r="G214" t="n">
-        <v>-0.01685793929731205</v>
+        <v>0.005380715910463962</v>
       </c>
       <c r="H214" t="n">
-        <v>202.1945266723633</v>
+        <v>202.9826324462891</v>
       </c>
       <c r="I214" t="n">
-        <v>203.5303817749023</v>
+        <v>203.6112301635742</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B215" t="n">
-        <v>209.7719268798828</v>
+        <v>212.1692047119141</v>
       </c>
       <c r="C215" t="n">
-        <v>211.1903153368944</v>
+        <v>213.237983779078</v>
       </c>
       <c r="D215" t="n">
-        <v>208.213697736729</v>
+        <v>209.7918979255535</v>
       </c>
       <c r="E215" t="n">
-        <v>209.8618364392891</v>
+        <v>210.2713495051462</v>
       </c>
       <c r="F215" t="n">
-        <v>42848900</v>
+        <v>44443600</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0002858039892503772</v>
+        <v>0.006014939675876629</v>
       </c>
       <c r="H215" t="n">
-        <v>202.498681640625</v>
+        <v>203.4690803527832</v>
       </c>
       <c r="I215" t="n">
-        <v>203.5685961914062</v>
+        <v>203.6620764160156</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B216" t="n">
-        <v>210.9006500244141</v>
+        <v>210.9206237792969</v>
       </c>
       <c r="C216" t="n">
-        <v>211.0904370780971</v>
+        <v>211.8895253657202</v>
       </c>
       <c r="D216" t="n">
-        <v>206.9850955851087</v>
+        <v>209.6220944658076</v>
       </c>
       <c r="E216" t="n">
-        <v>209.2924745188519</v>
+        <v>210.3312962861295</v>
       </c>
       <c r="F216" t="n">
-        <v>48749400</v>
+        <v>39765800</v>
       </c>
       <c r="G216" t="n">
-        <v>0.005380715910463962</v>
+        <v>-0.005884835805047839</v>
       </c>
       <c r="H216" t="n">
-        <v>202.9826324462891</v>
+        <v>204.0873786926269</v>
       </c>
       <c r="I216" t="n">
-        <v>203.6112295532226</v>
+        <v>203.6666030883789</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B217" t="n">
-        <v>212.1692047119141</v>
+        <v>208.3834991455078</v>
       </c>
       <c r="C217" t="n">
-        <v>213.237983779078</v>
+        <v>210.670911689046</v>
       </c>
       <c r="D217" t="n">
-        <v>209.7918979255535</v>
+        <v>207.3047216270235</v>
       </c>
       <c r="E217" t="n">
-        <v>210.2713495051462</v>
+        <v>209.692011663584</v>
       </c>
       <c r="F217" t="n">
-        <v>44443600</v>
+        <v>38840100</v>
       </c>
       <c r="G217" t="n">
-        <v>0.006014939675876629</v>
+        <v>-0.01202881249035115</v>
       </c>
       <c r="H217" t="n">
-        <v>203.4690803527832</v>
+        <v>204.557844543457</v>
       </c>
       <c r="I217" t="n">
-        <v>203.6620758056641</v>
+        <v>203.5946505737305</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B218" t="n">
-        <v>210.9206237792969</v>
+        <v>208.8729553222656</v>
       </c>
       <c r="C218" t="n">
-        <v>211.8895253657202</v>
+        <v>211.6498027189907</v>
       </c>
       <c r="D218" t="n">
-        <v>209.6220944658076</v>
+        <v>208.6831682659836</v>
       </c>
       <c r="E218" t="n">
-        <v>210.3312962861295</v>
+        <v>208.9828312368767</v>
       </c>
       <c r="F218" t="n">
-        <v>39765800</v>
+        <v>42296300</v>
       </c>
       <c r="G218" t="n">
-        <v>-0.005884835805047839</v>
+        <v>0.002348824061237487</v>
       </c>
       <c r="H218" t="n">
-        <v>204.0873786926269</v>
+        <v>205.1901275634766</v>
       </c>
       <c r="I218" t="n">
-        <v>203.6666027832031</v>
+        <v>203.5161270141602</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B219" t="n">
-        <v>208.3834991455078</v>
+        <v>209.9217681884766</v>
       </c>
       <c r="C219" t="n">
-        <v>210.670911689046</v>
+        <v>212.1592191902425</v>
       </c>
       <c r="D219" t="n">
-        <v>207.3047216270235</v>
+        <v>208.4034869790698</v>
       </c>
       <c r="E219" t="n">
-        <v>209.692011663584</v>
+        <v>210.061608876087</v>
       </c>
       <c r="F219" t="n">
-        <v>38840100</v>
+        <v>47490500</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.01202881249035115</v>
+        <v>0.005021295670340598</v>
       </c>
       <c r="H219" t="n">
-        <v>204.557844543457</v>
+        <v>205.7764625549316</v>
       </c>
       <c r="I219" t="n">
-        <v>203.5946502685547</v>
+        <v>203.617590637207</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B220" t="n">
-        <v>208.8729553222656</v>
+        <v>209.7819213867188</v>
       </c>
       <c r="C220" t="n">
-        <v>211.6498027189907</v>
+        <v>211.5599023237274</v>
       </c>
       <c r="D220" t="n">
-        <v>208.6831682659836</v>
+        <v>209.3524009177606</v>
       </c>
       <c r="E220" t="n">
-        <v>208.9828312368767</v>
+        <v>210.3313009439948</v>
       </c>
       <c r="F220" t="n">
-        <v>42296300</v>
+        <v>48068100</v>
       </c>
       <c r="G220" t="n">
-        <v>0.002348824061237487</v>
+        <v>-0.0006661853268702389</v>
       </c>
       <c r="H220" t="n">
-        <v>205.1901275634766</v>
+        <v>206.4946479797363</v>
       </c>
       <c r="I220" t="n">
-        <v>203.5161267089844</v>
+        <v>203.8451419067383</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B221" t="n">
-        <v>209.9217681884766</v>
+        <v>210.9405975341797</v>
       </c>
       <c r="C221" t="n">
-        <v>212.1592191902425</v>
+        <v>211.5499066435011</v>
       </c>
       <c r="D221" t="n">
-        <v>208.4034869790698</v>
+        <v>209.462279540323</v>
       </c>
       <c r="E221" t="n">
-        <v>210.061608876087</v>
+        <v>210.630951391023</v>
       </c>
       <c r="F221" t="n">
-        <v>47490500</v>
+        <v>48974600</v>
       </c>
       <c r="G221" t="n">
-        <v>0.005021295670340598</v>
+        <v>0.005523241182089356</v>
       </c>
       <c r="H221" t="n">
-        <v>205.7764625549316</v>
+        <v>207.2238204956055</v>
       </c>
       <c r="I221" t="n">
-        <v>203.6175903320313</v>
+        <v>204.1034481811523</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B222" t="n">
-        <v>209.7819213867188</v>
+        <v>212.2391204833984</v>
       </c>
       <c r="C222" t="n">
-        <v>211.5599023237274</v>
+        <v>215.5353825286769</v>
       </c>
       <c r="D222" t="n">
-        <v>209.3524009177606</v>
+        <v>211.39009321998</v>
       </c>
       <c r="E222" t="n">
-        <v>210.3313009439948</v>
+        <v>211.8595616297783</v>
       </c>
       <c r="F222" t="n">
-        <v>48068100</v>
+        <v>51377400</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.0006661853268702389</v>
+        <v>0.006155870251616014</v>
       </c>
       <c r="H222" t="n">
-        <v>206.4946479797363</v>
+        <v>207.7971694946289</v>
       </c>
       <c r="I222" t="n">
-        <v>203.8451416015625</v>
+        <v>204.4328146362305</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B223" t="n">
-        <v>210.9405975341797</v>
+        <v>214.1569519042969</v>
       </c>
       <c r="C223" t="n">
-        <v>211.5499066435011</v>
+        <v>214.7063314773177</v>
       </c>
       <c r="D223" t="n">
-        <v>209.462279540323</v>
+        <v>211.9894136266437</v>
       </c>
       <c r="E223" t="n">
-        <v>210.630951391023</v>
+        <v>212.8983857164152</v>
       </c>
       <c r="F223" t="n">
-        <v>48974600</v>
+        <v>46404100</v>
       </c>
       <c r="G223" t="n">
-        <v>0.005523241182089356</v>
+        <v>0.009036182474420285</v>
       </c>
       <c r="H223" t="n">
-        <v>207.2238204956055</v>
+        <v>208.441438293457</v>
       </c>
       <c r="I223" t="n">
-        <v>204.1034481811523</v>
+        <v>204.775798034668</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B224" t="n">
-        <v>212.2391204833984</v>
+        <v>213.9072265625</v>
       </c>
       <c r="C224" t="n">
-        <v>215.5353825286769</v>
+        <v>214.9060929302754</v>
       </c>
       <c r="D224" t="n">
-        <v>211.39009321998</v>
+        <v>212.1692088371252</v>
       </c>
       <c r="E224" t="n">
-        <v>211.8595616297783</v>
+        <v>214.7562690717055</v>
       </c>
       <c r="F224" t="n">
-        <v>51377400</v>
+        <v>46989300</v>
       </c>
       <c r="G224" t="n">
-        <v>0.006155870251616014</v>
+        <v>-0.001166085618871104</v>
       </c>
       <c r="H224" t="n">
-        <v>207.7971694946289</v>
+        <v>209.1331527709961</v>
       </c>
       <c r="I224" t="n">
-        <v>204.4328146362305</v>
+        <v>205.0930377197266</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B225" t="n">
-        <v>214.1569519042969</v>
+        <v>213.5176696777344</v>
       </c>
       <c r="C225" t="n">
-        <v>214.7063314773177</v>
+        <v>215.4454896966286</v>
       </c>
       <c r="D225" t="n">
-        <v>211.9894136266437</v>
+        <v>213.287934680345</v>
       </c>
       <c r="E225" t="n">
-        <v>212.8983857164152</v>
+        <v>213.657510359818</v>
       </c>
       <c r="F225" t="n">
-        <v>46404100</v>
+        <v>46022600</v>
       </c>
       <c r="G225" t="n">
-        <v>0.009036182474420285</v>
+        <v>-0.001821148780365323</v>
       </c>
       <c r="H225" t="n">
-        <v>208.441438293457</v>
+        <v>209.7424606323242</v>
       </c>
       <c r="I225" t="n">
-        <v>204.775798034668</v>
+        <v>205.152370300293</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B226" t="n">
-        <v>213.9072265625</v>
+        <v>213.6375427246094</v>
       </c>
       <c r="C226" t="n">
-        <v>214.9060929302754</v>
+        <v>214.9960015887686</v>
       </c>
       <c r="D226" t="n">
-        <v>212.1692088371252</v>
+        <v>213.1580758962065</v>
       </c>
       <c r="E226" t="n">
-        <v>214.7562690717055</v>
+        <v>214.4566052171881</v>
       </c>
       <c r="F226" t="n">
-        <v>46989300</v>
+        <v>40268800</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.001166085618871104</v>
+        <v>0.0005614197975087887</v>
       </c>
       <c r="H226" t="n">
-        <v>209.1331527709961</v>
+        <v>210.3857307434082</v>
       </c>
       <c r="I226" t="n">
-        <v>205.0930377197266</v>
+        <v>205.1713488769531</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B227" t="n">
-        <v>213.5176696777344</v>
+        <v>213.8073577880859</v>
       </c>
       <c r="C227" t="n">
-        <v>215.4454896966286</v>
+        <v>214.6064539631857</v>
       </c>
       <c r="D227" t="n">
-        <v>213.287934680345</v>
+        <v>212.8184745567322</v>
       </c>
       <c r="E227" t="n">
-        <v>213.657510359818</v>
+        <v>213.7873761922982</v>
       </c>
       <c r="F227" t="n">
-        <v>46022600</v>
+        <v>37858000</v>
       </c>
       <c r="G227" t="n">
-        <v>-0.001821148780365323</v>
+        <v>0.0007948746335069146</v>
       </c>
       <c r="H227" t="n">
-        <v>209.7424606323242</v>
+        <v>211.03349609375</v>
       </c>
       <c r="I227" t="n">
-        <v>205.152370300293</v>
+        <v>205.205710144043</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B228" t="n">
-        <v>213.6375427246094</v>
+        <v>211.0305023193359</v>
       </c>
       <c r="C228" t="n">
-        <v>214.9960015887686</v>
+        <v>214.5664825639156</v>
       </c>
       <c r="D228" t="n">
-        <v>213.1580758962065</v>
+        <v>210.5810155010025</v>
       </c>
       <c r="E228" t="n">
-        <v>214.4566052171881</v>
+        <v>213.9371918733541</v>
       </c>
       <c r="F228" t="n">
-        <v>40268800</v>
+        <v>51411700</v>
       </c>
       <c r="G228" t="n">
-        <v>0.0005614197975087887</v>
+        <v>-0.01298765158260951</v>
       </c>
       <c r="H228" t="n">
-        <v>210.3857307434082</v>
+        <v>211.3381507873535</v>
       </c>
       <c r="I228" t="n">
-        <v>205.1713488769531</v>
+        <v>205.2021142578125</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B229" t="n">
-        <v>213.8073577880859</v>
+        <v>208.8130187988281</v>
       </c>
       <c r="C229" t="n">
-        <v>214.6064539631857</v>
+        <v>212.1492288342774</v>
       </c>
       <c r="D229" t="n">
-        <v>212.8184745567322</v>
+        <v>207.4845246907379</v>
       </c>
       <c r="E229" t="n">
-        <v>213.7873761922982</v>
+        <v>211.6597788234574</v>
       </c>
       <c r="F229" t="n">
-        <v>37858000</v>
+        <v>45512500</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0007948746335069146</v>
+        <v>-0.01050788154383608</v>
       </c>
       <c r="H229" t="n">
-        <v>211.03349609375</v>
+        <v>211.3995811462402</v>
       </c>
       <c r="I229" t="n">
-        <v>205.205710144043</v>
+        <v>205.1579644775391</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B230" t="n">
-        <v>211.0305023193359</v>
+        <v>207.3347015380859</v>
       </c>
       <c r="C230" t="n">
-        <v>214.5664825639156</v>
+        <v>209.602117243811</v>
       </c>
       <c r="D230" t="n">
-        <v>210.5810155010025</v>
+        <v>206.9251626648701</v>
       </c>
       <c r="E230" t="n">
-        <v>213.9371918733541</v>
+        <v>208.2536567774906</v>
       </c>
       <c r="F230" t="n">
-        <v>51411700</v>
+        <v>80698400</v>
       </c>
       <c r="G230" t="n">
-        <v>-0.01298765158260951</v>
+        <v>-0.007079622090835236</v>
       </c>
       <c r="H230" t="n">
-        <v>211.3381507873535</v>
+        <v>211.1563575744629</v>
       </c>
       <c r="I230" t="n">
-        <v>205.2021142578125</v>
+        <v>205.1337921142578</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B231" t="n">
-        <v>208.8130187988281</v>
+        <v>202.1505889892578</v>
       </c>
       <c r="C231" t="n">
-        <v>212.1492288342774</v>
+        <v>213.3378897360685</v>
       </c>
       <c r="D231" t="n">
-        <v>207.4845246907379</v>
+        <v>201.2715816709361</v>
       </c>
       <c r="E231" t="n">
-        <v>211.6597788234574</v>
+        <v>210.6309550579599</v>
       </c>
       <c r="F231" t="n">
-        <v>45512500</v>
+        <v>104434500</v>
       </c>
       <c r="G231" t="n">
-        <v>-0.01050788154383608</v>
+        <v>-0.0250035932739211</v>
       </c>
       <c r="H231" t="n">
-        <v>211.3995811462402</v>
+        <v>210.5984909057617</v>
       </c>
       <c r="I231" t="n">
-        <v>205.1579644775391</v>
+        <v>205.0442938232422</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B232" t="n">
-        <v>207.3347015380859</v>
+        <v>203.1194915771484</v>
       </c>
       <c r="C232" t="n">
-        <v>209.602117243811</v>
+        <v>207.644355217563</v>
       </c>
       <c r="D232" t="n">
-        <v>206.9251626648701</v>
+        <v>201.4513712516652</v>
       </c>
       <c r="E232" t="n">
-        <v>208.2536567774906</v>
+        <v>204.2781650349592</v>
       </c>
       <c r="F232" t="n">
-        <v>80698400</v>
+        <v>75109300</v>
       </c>
       <c r="G232" t="n">
-        <v>-0.007079622090835236</v>
+        <v>0.004792974350137147</v>
       </c>
       <c r="H232" t="n">
-        <v>211.1563575744629</v>
+        <v>210.2688659667969</v>
       </c>
       <c r="I232" t="n">
-        <v>205.1337921142578</v>
+        <v>205.069465637207</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B233" t="n">
-        <v>202.1505889892578</v>
+        <v>202.6899566650391</v>
       </c>
       <c r="C233" t="n">
-        <v>213.3378897360685</v>
+        <v>205.1072113881769</v>
       </c>
       <c r="D233" t="n">
-        <v>201.2715816709361</v>
+        <v>201.9308237306499</v>
       </c>
       <c r="E233" t="n">
-        <v>210.6309550579599</v>
+        <v>203.1694082424696</v>
       </c>
       <c r="F233" t="n">
-        <v>104434500</v>
+        <v>44155100</v>
       </c>
       <c r="G233" t="n">
-        <v>-0.0250035932739211</v>
+        <v>-0.002114690760469107</v>
       </c>
       <c r="H233" t="n">
-        <v>210.5984909057617</v>
+        <v>209.9147674560547</v>
       </c>
       <c r="I233" t="n">
-        <v>205.0442938232422</v>
+        <v>205.1006301879883</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B234" t="n">
-        <v>203.1194915771484</v>
+        <v>213.0082550048828</v>
       </c>
       <c r="C234" t="n">
-        <v>207.644355217563</v>
+        <v>215.1358452662651</v>
       </c>
       <c r="D234" t="n">
-        <v>201.4513712516652</v>
+        <v>205.3569348951669</v>
       </c>
       <c r="E234" t="n">
-        <v>204.2781650349592</v>
+        <v>205.3968980855026</v>
       </c>
       <c r="F234" t="n">
-        <v>75109300</v>
+        <v>108483100</v>
       </c>
       <c r="G234" t="n">
-        <v>0.004792974350137147</v>
+        <v>0.05090680618623611</v>
       </c>
       <c r="H234" t="n">
-        <v>210.2688659667969</v>
+        <v>210.0201477050781</v>
       </c>
       <c r="I234" t="n">
-        <v>205.069465637207</v>
+        <v>205.4598223876953</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B235" t="n">
-        <v>202.6899566650391</v>
+        <v>219.7805633544922</v>
       </c>
       <c r="C235" t="n">
-        <v>205.1072113881769</v>
+        <v>220.5996410833085</v>
       </c>
       <c r="D235" t="n">
-        <v>201.9308237306499</v>
+        <v>216.3344774704646</v>
       </c>
       <c r="E235" t="n">
-        <v>203.1694082424696</v>
+        <v>218.6318731403133</v>
       </c>
       <c r="F235" t="n">
-        <v>44155100</v>
+        <v>90224800</v>
       </c>
       <c r="G235" t="n">
-        <v>-0.002114690760469107</v>
+        <v>0.03179364268982976</v>
       </c>
       <c r="H235" t="n">
-        <v>209.9147674560547</v>
+        <v>210.400715637207</v>
       </c>
       <c r="I235" t="n">
-        <v>205.1006301879883</v>
+        <v>205.8557727050781</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B236" t="n">
-        <v>213.0082550048828</v>
+        <v>229.0900115966797</v>
       </c>
       <c r="C236" t="n">
-        <v>215.1358452662651</v>
+        <v>230.7381350360549</v>
       </c>
       <c r="D236" t="n">
-        <v>205.3569348951669</v>
+        <v>219.0014550071647</v>
       </c>
       <c r="E236" t="n">
-        <v>205.3968980855026</v>
+        <v>220.5796657251348</v>
       </c>
       <c r="F236" t="n">
-        <v>108483100</v>
+        <v>113854000</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05090680618623611</v>
+        <v>0.04235792328538146</v>
       </c>
       <c r="H236" t="n">
-        <v>210.0201477050781</v>
+        <v>211.3091850280762</v>
       </c>
       <c r="I236" t="n">
-        <v>205.4598223876953</v>
+        <v>206.4337170410156</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B237" t="n">
-        <v>219.7805633544922</v>
+        <v>227.1799926757812</v>
       </c>
       <c r="C237" t="n">
-        <v>220.5996410833085</v>
+        <v>229.5599975585938</v>
       </c>
       <c r="D237" t="n">
-        <v>216.3344774704646</v>
+        <v>224.7599945068359</v>
       </c>
       <c r="E237" t="n">
-        <v>218.6318731403133</v>
+        <v>227.9199981689453</v>
       </c>
       <c r="F237" t="n">
-        <v>90224800</v>
+        <v>61806100</v>
       </c>
       <c r="G237" t="n">
-        <v>0.03179364268982976</v>
+        <v>-0.008337416841468825</v>
       </c>
       <c r="H237" t="n">
-        <v>210.400715637207</v>
+        <v>212.2490097045898</v>
       </c>
       <c r="I237" t="n">
-        <v>205.8557727050781</v>
+        <v>206.9828503417969</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B238" t="n">
-        <v>229.0900115966797</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="C238" t="n">
-        <v>230.7381350360549</v>
+        <v>230.8000030517578</v>
       </c>
       <c r="D238" t="n">
-        <v>219.0014550071647</v>
+        <v>227.0700073242188</v>
       </c>
       <c r="E238" t="n">
-        <v>220.5796657251348</v>
+        <v>228.0099945068359</v>
       </c>
       <c r="F238" t="n">
-        <v>113854000</v>
+        <v>55626200</v>
       </c>
       <c r="G238" t="n">
-        <v>0.04235792328538146</v>
+        <v>0.01087244167767976</v>
       </c>
       <c r="H238" t="n">
-        <v>211.3091850280762</v>
+        <v>213.2878616333008</v>
       </c>
       <c r="I238" t="n">
-        <v>206.4337170410156</v>
+        <v>207.5634039306641</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B239" t="n">
-        <v>227.1799926757812</v>
+        <v>233.3300018310547</v>
       </c>
       <c r="C239" t="n">
-        <v>229.5599975585938</v>
+        <v>235</v>
       </c>
       <c r="D239" t="n">
-        <v>224.7599945068359</v>
+        <v>230.4299926757812</v>
       </c>
       <c r="E239" t="n">
-        <v>227.9199981689453</v>
+        <v>231.0700073242188</v>
       </c>
       <c r="F239" t="n">
-        <v>61806100</v>
+        <v>69878500</v>
       </c>
       <c r="G239" t="n">
-        <v>-0.008337416841468825</v>
+        <v>0.01602441991019199</v>
       </c>
       <c r="H239" t="n">
-        <v>212.2490097045898</v>
+        <v>214.4582733154297</v>
       </c>
       <c r="I239" t="n">
-        <v>206.9828503417969</v>
+        <v>208.2005770874023</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B240" t="n">
-        <v>229.6499938964844</v>
+        <v>232.7799987792969</v>
       </c>
       <c r="C240" t="n">
-        <v>230.8000030517578</v>
+        <v>235.1199951171875</v>
       </c>
       <c r="D240" t="n">
-        <v>227.0700073242188</v>
+        <v>230.8500061035156</v>
       </c>
       <c r="E240" t="n">
-        <v>228.0099945068359</v>
+        <v>234.0599975585938</v>
       </c>
       <c r="F240" t="n">
-        <v>55626200</v>
+        <v>51916300</v>
       </c>
       <c r="G240" t="n">
-        <v>0.01087244167767976</v>
+        <v>-0.002357189591744135</v>
       </c>
       <c r="H240" t="n">
-        <v>213.2878616333008</v>
+        <v>215.6081771850586</v>
       </c>
       <c r="I240" t="n">
-        <v>207.5634039306641</v>
+        <v>208.7953857421875</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B241" t="n">
-        <v>233.3300018310547</v>
+        <v>231.5899963378906</v>
       </c>
       <c r="C241" t="n">
-        <v>235</v>
+        <v>234.2799987792969</v>
       </c>
       <c r="D241" t="n">
-        <v>230.4299926757812</v>
+        <v>229.3399963378906</v>
       </c>
       <c r="E241" t="n">
-        <v>231.0700073242188</v>
+        <v>234</v>
       </c>
       <c r="F241" t="n">
-        <v>69878500</v>
+        <v>56038700</v>
       </c>
       <c r="G241" t="n">
-        <v>0.01602441991019199</v>
+        <v>-0.005112133549474374</v>
       </c>
       <c r="H241" t="n">
-        <v>214.4582733154297</v>
+        <v>216.6406471252441</v>
       </c>
       <c r="I241" t="n">
-        <v>208.2005770874023</v>
+        <v>209.3753839111328</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B242" t="n">
-        <v>232.7799987792969</v>
+        <v>230.8899993896484</v>
       </c>
       <c r="C242" t="n">
-        <v>235.1199951171875</v>
+        <v>233.1199951171875</v>
       </c>
       <c r="D242" t="n">
-        <v>230.8500061035156</v>
+        <v>230.1100006103516</v>
       </c>
       <c r="E242" t="n">
-        <v>234.0599975585938</v>
+        <v>231.6999969482422</v>
       </c>
       <c r="F242" t="n">
-        <v>51916300</v>
+        <v>37476200</v>
       </c>
       <c r="G242" t="n">
-        <v>-0.002357189591744135</v>
+        <v>-0.003022569883462833</v>
       </c>
       <c r="H242" t="n">
-        <v>215.6081771850586</v>
+        <v>217.5731910705566</v>
       </c>
       <c r="I242" t="n">
-        <v>208.7953857421875</v>
+        <v>209.9851324462891</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
       <c r="B243" t="n">
-        <v>231.5899963378906</v>
+        <v>230.5599975585938</v>
       </c>
       <c r="C243" t="n">
-        <v>234.2799987792969</v>
+        <v>232.8699951171875</v>
       </c>
       <c r="D243" t="n">
-        <v>229.3399963378906</v>
+        <v>229.3500061035156</v>
       </c>
       <c r="E243" t="n">
-        <v>234</v>
+        <v>231.2799987792969</v>
       </c>
       <c r="F243" t="n">
-        <v>56038700</v>
+        <v>39402600</v>
       </c>
       <c r="G243" t="n">
-        <v>-0.005112133549474374</v>
+        <v>-0.001429259958971918</v>
       </c>
       <c r="H243" t="n">
-        <v>216.6406471252441</v>
+        <v>218.3933433532715</v>
       </c>
       <c r="I243" t="n">
-        <v>209.3753839111328</v>
+        <v>210.522555847168</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B244" t="n">
-        <v>230.8899993896484</v>
+        <v>226.0099945068359</v>
       </c>
       <c r="C244" t="n">
-        <v>233.1199951171875</v>
+        <v>230.4700012207031</v>
       </c>
       <c r="D244" t="n">
-        <v>230.1100006103516</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="E244" t="n">
-        <v>231.6999969482422</v>
+        <v>229.9799957275391</v>
       </c>
       <c r="F244" t="n">
-        <v>37476200</v>
+        <v>42263900</v>
       </c>
       <c r="G244" t="n">
-        <v>-0.003022569883462833</v>
+        <v>-0.01973457277905066</v>
       </c>
       <c r="H244" t="n">
-        <v>217.5731910705566</v>
+        <v>218.9984817504883</v>
       </c>
       <c r="I244" t="n">
-        <v>209.9851324462891</v>
+        <v>211.018323059082</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B245" t="n">
-        <v>230.5599975585938</v>
+        <v>224.8999938964844</v>
       </c>
       <c r="C245" t="n">
-        <v>232.8699951171875</v>
+        <v>226.5200042724609</v>
       </c>
       <c r="D245" t="n">
-        <v>229.3500061035156</v>
+        <v>223.7799987792969</v>
       </c>
       <c r="E245" t="n">
-        <v>231.2799987792969</v>
+        <v>226.2700042724609</v>
       </c>
       <c r="F245" t="n">
-        <v>39402600</v>
+        <v>30621200</v>
       </c>
       <c r="G245" t="n">
-        <v>-0.001429259958971918</v>
+        <v>-0.004911289931109564</v>
       </c>
       <c r="H245" t="n">
-        <v>218.3933433532715</v>
+        <v>219.5675979614258</v>
       </c>
       <c r="I245" t="n">
-        <v>210.522555847168</v>
+        <v>211.4675180053711</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B246" t="n">
-        <v>226.0099945068359</v>
+        <v>227.7599945068359</v>
       </c>
       <c r="C246" t="n">
-        <v>230.4700012207031</v>
+        <v>229.0899963378906</v>
       </c>
       <c r="D246" t="n">
-        <v>225.7700042724609</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="E246" t="n">
-        <v>229.9799957275391</v>
+        <v>226.1699981689453</v>
       </c>
       <c r="F246" t="n">
-        <v>42263900</v>
+        <v>42477800</v>
       </c>
       <c r="G246" t="n">
-        <v>-0.01973457277905066</v>
+        <v>0.01271676606477778</v>
       </c>
       <c r="H246" t="n">
-        <v>218.9984817504883</v>
+        <v>220.2737205505371</v>
       </c>
       <c r="I246" t="n">
-        <v>211.018323059082</v>
+        <v>212.0516247558594</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B247" t="n">
-        <v>224.8999938964844</v>
+        <v>227.1600036621094</v>
       </c>
       <c r="C247" t="n">
-        <v>226.5200042724609</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="D247" t="n">
-        <v>223.7799987792969</v>
+        <v>226.2299957275391</v>
       </c>
       <c r="E247" t="n">
-        <v>226.2700042724609</v>
+        <v>226.4799957275391</v>
       </c>
       <c r="F247" t="n">
-        <v>30621200</v>
+        <v>30983100</v>
       </c>
       <c r="G247" t="n">
-        <v>-0.004911289931109564</v>
+        <v>-0.002634311815934653</v>
       </c>
       <c r="H247" t="n">
-        <v>219.5675979614258</v>
+        <v>220.9413528442383</v>
       </c>
       <c r="I247" t="n">
-        <v>211.4675180053711</v>
+        <v>212.6153411865234</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B248" t="n">
-        <v>227.7599945068359</v>
+        <v>229.3099975585938</v>
       </c>
       <c r="C248" t="n">
-        <v>229.0899963378906</v>
+        <v>229.4900054931641</v>
       </c>
       <c r="D248" t="n">
-        <v>225.4100036621094</v>
+        <v>224.6900024414062</v>
       </c>
       <c r="E248" t="n">
-        <v>226.1699981689453</v>
+        <v>226.8699951171875</v>
       </c>
       <c r="F248" t="n">
-        <v>42477800</v>
+        <v>54575100</v>
       </c>
       <c r="G248" t="n">
-        <v>0.01271676606477778</v>
+        <v>0.009464667467088184</v>
       </c>
       <c r="H248" t="n">
-        <v>220.2737205505371</v>
+        <v>221.8553276062012</v>
       </c>
       <c r="I248" t="n">
-        <v>212.0516247558594</v>
+        <v>213.2769952392578</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B249" t="n">
-        <v>227.1600036621094</v>
+        <v>230.4900054931641</v>
       </c>
       <c r="C249" t="n">
-        <v>229.3000030517578</v>
+        <v>230.8999938964844</v>
       </c>
       <c r="D249" t="n">
-        <v>226.2299957275391</v>
+        <v>228.2599945068359</v>
       </c>
       <c r="E249" t="n">
-        <v>226.4799957275391</v>
+        <v>228.6100006103516</v>
       </c>
       <c r="F249" t="n">
-        <v>30983100</v>
+        <v>31259500</v>
       </c>
       <c r="G249" t="n">
-        <v>-0.002634311815934653</v>
+        <v>0.00514590705653295</v>
       </c>
       <c r="H249" t="n">
-        <v>220.9413528442383</v>
+        <v>222.939176940918</v>
       </c>
       <c r="I249" t="n">
-        <v>212.6153411865234</v>
+        <v>213.9228939819336</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B250" t="n">
-        <v>229.3099975585938</v>
+        <v>232.5599975585938</v>
       </c>
       <c r="C250" t="n">
-        <v>229.4900054931641</v>
+        <v>233.4100036621094</v>
       </c>
       <c r="D250" t="n">
-        <v>224.6900024414062</v>
+        <v>229.3399963378906</v>
       </c>
       <c r="E250" t="n">
-        <v>226.8699951171875</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="F250" t="n">
-        <v>54575100</v>
+        <v>38074700</v>
       </c>
       <c r="G250" t="n">
-        <v>0.009464667467088184</v>
+        <v>0.008980832210059075</v>
       </c>
       <c r="H250" t="n">
-        <v>221.8553276062012</v>
+        <v>224.2004417419434</v>
       </c>
       <c r="I250" t="n">
-        <v>213.2769952392578</v>
+        <v>214.665729675293</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B251" t="n">
-        <v>230.4900054931641</v>
+        <v>232.1399993896484</v>
       </c>
       <c r="C251" t="n">
-        <v>230.8999938964844</v>
+        <v>233.3800048828125</v>
       </c>
       <c r="D251" t="n">
-        <v>228.2599945068359</v>
+        <v>231.3699951171875</v>
       </c>
       <c r="E251" t="n">
-        <v>228.6100006103516</v>
+        <v>232.5099945068359</v>
       </c>
       <c r="F251" t="n">
-        <v>31259500</v>
+        <v>39418400</v>
       </c>
       <c r="G251" t="n">
-        <v>0.00514590705653295</v>
+        <v>-0.00180597769760249</v>
       </c>
       <c r="H251" t="n">
-        <v>222.939176940918</v>
+        <v>225.6999122619629</v>
       </c>
       <c r="I251" t="n">
-        <v>213.9228939819336</v>
+        <v>215.38138671875</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="B252" t="n">
-        <v>232.5599975585938</v>
+        <v>229.7200012207031</v>
       </c>
       <c r="C252" t="n">
-        <v>233.4100036621094</v>
+        <v>230.8500061035156</v>
       </c>
       <c r="D252" t="n">
-        <v>229.3399963378906</v>
+        <v>226.9700012207031</v>
       </c>
       <c r="E252" t="n">
-        <v>230.8200073242188</v>
+        <v>229.25</v>
       </c>
       <c r="F252" t="n">
-        <v>38074700</v>
+        <v>44075600</v>
       </c>
       <c r="G252" t="n">
-        <v>0.008980832210059075</v>
+        <v>-0.01042473582884496</v>
       </c>
       <c r="H252" t="n">
-        <v>224.2004417419434</v>
+        <v>227.0299377441406</v>
       </c>
       <c r="I252" t="n">
-        <v>214.665729675293</v>
+        <v>215.9603439331055</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="B253" t="n">
-        <v>232.1399993896484</v>
+        <v>238.4700012207031</v>
       </c>
       <c r="C253" t="n">
-        <v>233.3800048828125</v>
+        <v>238.8500061035156</v>
       </c>
       <c r="D253" t="n">
-        <v>231.3699951171875</v>
+        <v>234.3600006103516</v>
       </c>
       <c r="E253" t="n">
-        <v>232.5099945068359</v>
+        <v>237.2100067138672</v>
       </c>
       <c r="F253" t="n">
-        <v>39389400</v>
+        <v>66427800</v>
       </c>
       <c r="G253" t="n">
-        <v>-0.00180597769760249</v>
+        <v>0.03808984830882634</v>
       </c>
       <c r="H253" t="n">
-        <v>225.6999122619629</v>
+        <v>228.8189399719238</v>
       </c>
       <c r="I253" t="n">
-        <v>215.38138671875</v>
+        <v>216.7043124389648</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B254" t="n">
+        <v>238.6999969482422</v>
+      </c>
+      <c r="C254" t="n">
+        <v>239.8932037353516</v>
+      </c>
+      <c r="D254" t="n">
+        <v>236.7400054931641</v>
+      </c>
+      <c r="E254" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="F254" t="n">
+        <v>32895325</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.0009644639844077485</v>
+      </c>
+      <c r="H254" t="n">
+        <v>230.1035270690918</v>
+      </c>
+      <c r="I254" t="n">
+        <v>217.4768536376953</v>
       </c>
     </row>
   </sheetData>
